--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -2252,7 +2252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="986">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -4807,7 +4807,7 @@
     <t>https://huggingface.co/spaces/gaia-benchmark/leaderboard/discussions/14</t>
   </si>
   <si>
-    <t>Participatory Model</t>
+    <t>Participative Model</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/6</t>
@@ -5093,6 +5093,9 @@
     <t>https://github.com/stanford-crfm/helm/issues/2038</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/Vchitect/VBench/discussions/1</t>
+  </si>
+  <si>
     <t>https://github.com/THU-KEG/KoLA/issues/6</t>
   </si>
   <si>
@@ -5115,6 +5118,9 @@
   </si>
   <si>
     <t>https://huggingface.co/spaces/PingAndPasquale/MOE-LLM-GPU-Poor-Leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/6</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/PatronusAI/enterprise_scenarios_leaderboard/discussions/10</t>
@@ -9589,7 +9595,9 @@
       <c r="A188" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C188" s="2"/>
+      <c r="C188" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D188" s="2" t="s">
         <v>416</v>
       </c>
@@ -46846,18 +46854,23 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>939</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="8" t="s">
         <v>940</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -46867,10 +46880,11 @@
     <hyperlink r:id="rId3" ref="A4"/>
     <hyperlink r:id="rId4" ref="A6"/>
     <hyperlink r:id="rId5" ref="A7"/>
-    <hyperlink r:id="rId6" ref="A9"/>
+    <hyperlink r:id="rId6" ref="A8"/>
     <hyperlink r:id="rId7" ref="A10"/>
+    <hyperlink r:id="rId8" ref="A11"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -46891,32 +46905,32 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8">
@@ -46925,208 +46939,213 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>947</v>
+      <c r="A9" s="8" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>951</v>
+      <c r="A13" s="16" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="s">
-        <v>952</v>
+      <c r="A14" s="8" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>953</v>
+      <c r="A15" s="16" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="s">
-        <v>954</v>
+      <c r="A16" s="8" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="16" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
         <v>870</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="s">
-        <v>961</v>
+      <c r="A24" s="8" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="16" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="16" t="s">
-        <v>962</v>
-      </c>
-    </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="16" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>963</v>
-      </c>
-    </row>
     <row r="29">
-      <c r="A29" s="16" t="s">
-        <v>964</v>
+      <c r="A29" s="8" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>965</v>
+      <c r="A30" s="16" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="8" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>966</v>
-      </c>
-    </row>
     <row r="33">
-      <c r="A33" s="16" t="s">
-        <v>967</v>
+      <c r="A33" s="8" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="16" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="16" t="s">
-        <v>968</v>
-      </c>
-    </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="16" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
         <v>849</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="16" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="16" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="16" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="16" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="s">
-        <v>975</v>
+      <c r="A43" s="16" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="16" t="s">
-        <v>980</v>
+      <c r="A48" s="8" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>981</v>
+      <c r="A49" s="16" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -47148,19 +47167,19 @@
     <hyperlink r:id="rId15" ref="A17"/>
     <hyperlink r:id="rId16" ref="A18"/>
     <hyperlink r:id="rId17" ref="A19"/>
-    <hyperlink r:id="rId18" ref="A21"/>
+    <hyperlink r:id="rId18" ref="A20"/>
     <hyperlink r:id="rId19" ref="A22"/>
     <hyperlink r:id="rId20" ref="A23"/>
     <hyperlink r:id="rId21" ref="A24"/>
-    <hyperlink r:id="rId22" ref="A26"/>
-    <hyperlink r:id="rId23" ref="A28"/>
+    <hyperlink r:id="rId22" ref="A25"/>
+    <hyperlink r:id="rId23" ref="A27"/>
     <hyperlink r:id="rId24" ref="A29"/>
     <hyperlink r:id="rId25" ref="A30"/>
-    <hyperlink r:id="rId26" ref="A32"/>
+    <hyperlink r:id="rId26" ref="A31"/>
     <hyperlink r:id="rId27" ref="A33"/>
     <hyperlink r:id="rId28" ref="A34"/>
     <hyperlink r:id="rId29" ref="A35"/>
-    <hyperlink r:id="rId30" ref="A37"/>
+    <hyperlink r:id="rId30" ref="A36"/>
     <hyperlink r:id="rId31" ref="A38"/>
     <hyperlink r:id="rId32" ref="A39"/>
     <hyperlink r:id="rId33" ref="A40"/>
@@ -47173,8 +47192,9 @@
     <hyperlink r:id="rId40" ref="A47"/>
     <hyperlink r:id="rId41" ref="A48"/>
     <hyperlink r:id="rId42" ref="A49"/>
+    <hyperlink r:id="rId43" ref="A50"/>
   </hyperlinks>
-  <drawing r:id="rId43"/>
+  <drawing r:id="rId44"/>
 </worksheet>
 </file>
 
@@ -47195,7 +47215,7 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3">
@@ -47205,7 +47225,7 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -9602,7 +9602,7 @@
         <v>416</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>49</v>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -24,6 +24,26 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="F188">
+      <text>
+        <t xml:space="preserve">https://openlm.ai/chatbot-arena/
+	-Jimmy Chou
+https://chat.lmsys.org/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F109">
+      <text>
+        <t xml:space="preserve">https://openlm.ai/coder-evalplus
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C188">
+      <text>
+        <t xml:space="preserve">https://huggingface.co/spaces/lmsys/chatbot-arena-leaderboard/discussions/13
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F146">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/vectara/leaderboard
@@ -7940,7 +7960,7 @@
         <v>254</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>16</v>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -50,7 +50,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F305">
+    <comment authorId="0" ref="F306">
       <text>
         <t xml:space="preserve">https://haizelabs.com/benchmarks/space
 	-Jimmy Chou</t>
@@ -68,7 +68,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D309">
+    <comment authorId="0" ref="D310">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/allenai/reward-bench/discussions/3
 	-Jimmy Chou</t>
@@ -734,19 +734,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A309">
+    <comment authorId="0" ref="A310">
       <text>
         <t xml:space="preserve">https://github.com/allenai/reward-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A389">
+    <comment authorId="0" ref="A390">
       <text>
         <t xml:space="preserve">https://github.com/Re-Align/URIAL
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A419">
+    <comment authorId="0" ref="A420">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
@@ -826,7 +826,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A287">
+    <comment authorId="0" ref="A288">
       <text>
         <t xml:space="preserve">model- and data-centric leaderboards
 	-Jimmy Chou
@@ -852,27 +852,33 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F351">
+    <comment authorId="0" ref="F352">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H351">
+    <comment authorId="0" ref="H352">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_open.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F349">
+    <comment authorId="0" ref="F350">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H349">
+    <comment authorId="0" ref="H350">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_industry.html
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F347">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -882,43 +888,37 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F345">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H345">
+    <comment authorId="0" ref="H346">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H346">
+    <comment authorId="0" ref="H347">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_agent.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H347">
+    <comment authorId="0" ref="H348">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_auto.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H348">
+    <comment authorId="0" ref="H349">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_code3.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H350">
+    <comment authorId="0" ref="H351">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_math6.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H352">
+    <comment authorId="0" ref="H353">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_safety.html
 	-Jimmy Chou</t>
@@ -1004,31 +1004,31 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A414">
+    <comment authorId="0" ref="A415">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F322">
+    <comment authorId="0" ref="F323">
       <text>
         <t xml:space="preserve">https://github.com/tau-nlp/scrolls
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A316">
+    <comment authorId="0" ref="A317">
       <text>
         <t xml:space="preserve">https://github.com/ScandEval/ScandEval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A422">
+    <comment authorId="0" ref="A423">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A285">
+    <comment authorId="0" ref="A286">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/physicaliqa/evaluator
 	-Jimmy Chou</t>
@@ -1070,7 +1070,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A296">
+    <comment authorId="0" ref="A297">
       <text>
         <t xml:space="preserve">https://github.com/allenai/aristo-leaderboard
 	-Jimmy Chou</t>
@@ -1088,25 +1088,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A325">
+    <comment authorId="0" ref="A326">
       <text>
         <t xml:space="preserve">https://github.com/allenai/sherlock/tree/main/leaderboard_eval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A329">
+    <comment authorId="0" ref="A330">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/socialiqa/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A433">
+    <comment authorId="0" ref="A434">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A341">
+    <comment authorId="0" ref="A342">
       <text>
         <t xml:space="preserve">https://github.com/eladsegal/strategyqa
 	-Jimmy Chou</t>
@@ -1118,19 +1118,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A402">
+    <comment authorId="0" ref="A403">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A369">
+    <comment authorId="0" ref="A370">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A356">
+    <comment authorId="0" ref="A357">
       <text>
         <t xml:space="preserve">https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
@@ -1184,13 +1184,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F344">
+    <comment authorId="0" ref="F345">
       <text>
         <t xml:space="preserve">https://github.com/salesforce/factualNLG
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F316">
+    <comment authorId="0" ref="F317">
       <text>
         <t xml:space="preserve">https://scandeval.com/
 	-Jimmy Chou</t>
@@ -1259,13 +1259,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F315">
+    <comment authorId="0" ref="F316">
       <text>
         <t xml:space="preserve">https://adwardlee.github.io/salad_bench/leaderboard.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D280">
+    <comment authorId="0" ref="D281">
       <text>
         <t xml:space="preserve">https://opencompass.openxlab.space/utils/OpenVLM.json
 	-Jimmy Chou</t>
@@ -1331,7 +1331,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F323">
+    <comment authorId="0" ref="F324">
       <text>
         <t xml:space="preserve">https://seaeval.github.io/
 	-Jimmy Chou</t>
@@ -1461,25 +1461,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F352">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com/
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F347">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F350">
+    <comment authorId="0" ref="F353">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
     <comment authorId="0" ref="F348">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F351">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F349">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -1515,7 +1515,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F290">
+    <comment authorId="0" ref="F291">
       <text>
         <t xml:space="preserve">https://llm-eval.github.io/pages/leaderboard/pe.html
 	-Jimmy Chou
@@ -1557,49 +1557,49 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F433">
+    <comment authorId="0" ref="F434">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F422">
+    <comment authorId="0" ref="F423">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F341">
+    <comment authorId="0" ref="F342">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/strategyqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F329">
+    <comment authorId="0" ref="F330">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/socialiqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F325">
+    <comment authorId="0" ref="F326">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/sherlock/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F296">
+    <comment authorId="0" ref="F297">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/qasc/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F291">
+    <comment authorId="0" ref="F292">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/protoqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F285">
+    <comment authorId="0" ref="F286">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/physicaliqa/submissions
 	-Jimmy Chou</t>
@@ -1641,7 +1641,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F396">
+    <comment authorId="0" ref="F397">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -1653,7 +1653,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F372">
+    <comment authorId="0" ref="F373">
       <text>
         <t xml:space="preserve">https://github.com/sambanova/toolbench/
 	-Jimmy Chou</t>
@@ -1739,7 +1739,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F295">
+    <comment authorId="0" ref="F296">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/q-future/Q-Bench-Leaderboard
 	-Jimmy Chou</t>
@@ -1829,13 +1829,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A280">
+    <comment authorId="0" ref="A281">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/VLMEvalKit/issues/78
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F280">
+    <comment authorId="0" ref="F281">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/open_vlm_leaderboard
 	-Jimmy Chou
@@ -1845,13 +1845,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F401">
+    <comment authorId="0" ref="F402">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F391">
+    <comment authorId="0" ref="F392">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -1880,7 +1880,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F431">
+    <comment authorId="0" ref="F432">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -2004,25 +2004,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A354">
+    <comment authorId="0" ref="A355">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUElyb/issues/7
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A353">
+    <comment authorId="0" ref="A354">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/1
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A347">
+    <comment authorId="0" ref="A348">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/2
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A346">
+    <comment authorId="0" ref="A347">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/7
 	-Jimmy Chou</t>
@@ -2034,19 +2034,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A359">
+    <comment authorId="0" ref="A360">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A355">
+    <comment authorId="0" ref="A356">
       <text>
         <t xml:space="preserve">https://github.com/nyu-mll/jiant
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A313">
+    <comment authorId="0" ref="A314">
       <text>
         <t xml:space="preserve">https://github.com/thu-coai/Safety-Prompts
 	-Jimmy Chou</t>
@@ -2142,7 +2142,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F413">
+    <comment authorId="0" ref="F414">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2150,19 +2150,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F371">
+    <comment authorId="0" ref="F372">
       <text>
         <t xml:space="preserve">https://toloka.ai/llm-leaderboard/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F356">
+    <comment authorId="0" ref="F357">
       <text>
         <t xml:space="preserve">https://lab.kb.se/leaderboard/results
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F302">
+    <comment authorId="0" ref="F303">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/ought/raft-leaderboard
 	-Jimmy Chou</t>
@@ -2260,7 +2260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="905">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -3822,6 +3822,9 @@
   </si>
   <si>
     <t>Eastmoney,Shanghai AI Laboratory</t>
+  </si>
+  <si>
+    <t>OpenLLM Turkish leaderboard</t>
   </si>
   <si>
     <t>OpenVLM Leaderboard</t>
@@ -10654,364 +10657,372 @@
         <v>520</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>323</v>
+        <v>39</v>
       </c>
       <c r="E280" s="2">
         <v>4.0</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H280" s="10"/>
       <c r="I280" s="2" t="s">
-        <v>512</v>
+        <v>58</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
+      <c r="C281" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E281" s="2">
+        <v>4.0</v>
+      </c>
       <c r="F281" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H281" s="7" t="s">
-        <v>522</v>
+        <v>44</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H281" s="10"/>
+      <c r="I281" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+      <c r="F282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H282" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E282" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H282" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I282" s="2" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E283" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H283" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I283" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="F283" s="2" t="s">
+    </row>
+    <row r="284">
+      <c r="A284" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H283" s="7" t="s">
+      <c r="H284" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I283" s="2"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="B284" s="4"/>
-      <c r="C284" s="5"/>
-      <c r="D284" s="5"/>
-      <c r="E284" s="4"/>
-      <c r="F284" s="6" t="s">
+      <c r="I284" s="2"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="B285" s="4"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="4"/>
+      <c r="F285" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G284" s="5"/>
-      <c r="H284" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I284" s="5"/>
-      <c r="J284" s="4"/>
-      <c r="K284" s="4"/>
-      <c r="L284" s="4"/>
-      <c r="M284" s="4"/>
-      <c r="N284" s="4"/>
-      <c r="O284" s="4"/>
-      <c r="P284" s="4"/>
-      <c r="Q284" s="4"/>
-      <c r="R284" s="4"/>
-      <c r="S284" s="4"/>
-      <c r="T284" s="4"/>
-      <c r="U284" s="4"/>
-      <c r="V284" s="4"/>
-      <c r="W284" s="4"/>
-      <c r="X284" s="4"/>
-      <c r="Y284" s="4"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E285" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G285" s="5"/>
       <c r="H285" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I285" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I285" s="5"/>
+      <c r="J285" s="4"/>
+      <c r="K285" s="4"/>
+      <c r="L285" s="4"/>
+      <c r="M285" s="4"/>
+      <c r="N285" s="4"/>
+      <c r="O285" s="4"/>
+      <c r="P285" s="4"/>
+      <c r="Q285" s="4"/>
+      <c r="R285" s="4"/>
+      <c r="S285" s="4"/>
+      <c r="T285" s="4"/>
+      <c r="U285" s="4"/>
+      <c r="V285" s="4"/>
+      <c r="W285" s="4"/>
+      <c r="X285" s="4"/>
+      <c r="Y285" s="4"/>
     </row>
     <row r="286">
       <c r="A286" s="8" t="s">
         <v>527</v>
       </c>
+      <c r="C286" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E286" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F286" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H286" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F287" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H287" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I287" s="2" t="s">
-        <v>530</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>39</v>
+        <v>530</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H288" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="H288" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I288" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G289" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H289" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="H289" s="10"/>
       <c r="I289" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2">
         <v>2.0</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H290" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H290" s="7"/>
       <c r="I290" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H291" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I291" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E291" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G291" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H291" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I291" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
+      <c r="C292" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E292" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F292" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H292" s="7" t="s">
-        <v>32</v>
+        <v>97</v>
+      </c>
+      <c r="I292" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="8" t="s">
         <v>539</v>
       </c>
+      <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H293" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="D294" s="2"/>
-      <c r="E294" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F294" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G294" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H294" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I294" s="2" t="s">
-        <v>540</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H295" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I295" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E295" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H295" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I295" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>12</v>
+        <v>543</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E296" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>16</v>
+        <v>544</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="8" t="s">
         <v>545</v>
       </c>
+      <c r="C297" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E297" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F297" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I297" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="8" t="s">
@@ -11021,308 +11032,296 @@
         <v>10</v>
       </c>
       <c r="H298" s="7" t="s">
-        <v>547</v>
+        <v>97</v>
       </c>
       <c r="I298" s="2"/>
     </row>
     <row r="299">
       <c r="A299" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H299" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H299" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I299" s="2" t="s">
-        <v>549</v>
-      </c>
+      <c r="I299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H300" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I300" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="F300" s="2" t="s">
+    </row>
+    <row r="301">
+      <c r="A301" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H300" s="7" t="s">
+      <c r="H301" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I300" s="2"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="B301" s="4"/>
-      <c r="C301" s="5"/>
-      <c r="D301" s="5"/>
-      <c r="E301" s="4"/>
-      <c r="F301" s="6" t="s">
+      <c r="I301" s="2"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B302" s="4"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="4"/>
+      <c r="F302" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G301" s="4"/>
-      <c r="H301" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I301" s="5"/>
-      <c r="J301" s="4"/>
-      <c r="K301" s="4"/>
-      <c r="L301" s="4"/>
-      <c r="M301" s="4"/>
-      <c r="N301" s="4"/>
-      <c r="O301" s="4"/>
-      <c r="P301" s="4"/>
-      <c r="Q301" s="4"/>
-      <c r="R301" s="4"/>
-      <c r="S301" s="4"/>
-      <c r="T301" s="4"/>
-      <c r="U301" s="4"/>
-      <c r="V301" s="4"/>
-      <c r="W301" s="4"/>
-      <c r="X301" s="4"/>
-      <c r="Y301" s="4"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="G302" s="4"/>
       <c r="H302" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I302" s="2" t="s">
-        <v>553</v>
-      </c>
+      <c r="I302" s="5"/>
+      <c r="J302" s="4"/>
+      <c r="K302" s="4"/>
+      <c r="L302" s="4"/>
+      <c r="M302" s="4"/>
+      <c r="N302" s="4"/>
+      <c r="O302" s="4"/>
+      <c r="P302" s="4"/>
+      <c r="Q302" s="4"/>
+      <c r="R302" s="4"/>
+      <c r="S302" s="4"/>
+      <c r="T302" s="4"/>
+      <c r="U302" s="4"/>
+      <c r="V302" s="4"/>
+      <c r="W302" s="4"/>
+      <c r="X302" s="4"/>
+      <c r="Y302" s="4"/>
     </row>
     <row r="303">
       <c r="A303" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H303" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I303" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-      <c r="F303" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H303" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="8" t="s">
         <v>555</v>
       </c>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
       <c r="F304" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H304" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I304" s="2"/>
     </row>
     <row r="305">
       <c r="A305" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="C305" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D305" s="2"/>
-      <c r="E305" s="2">
-        <v>4.0</v>
-      </c>
       <c r="F305" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G305" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I305" s="2" t="s">
-        <v>557</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H305" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H306" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D307" s="2"/>
+      <c r="E307" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H307" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I307" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F307" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H307" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="C308" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2">
-        <v>7.0</v>
-      </c>
       <c r="F308" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H308" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I308" s="2" t="s">
-        <v>562</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>564</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D309" s="2"/>
       <c r="E309" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H309" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E310" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H310" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I310" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="F310" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H310" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="I310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H311" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="C311" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H311" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I311" s="2" t="s">
-        <v>569</v>
-      </c>
+      <c r="I311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H312" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I312" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F312" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H312" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="I312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H313" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H313" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I313" s="2" t="s">
-        <v>324</v>
-      </c>
+      <c r="I313" s="2"/>
     </row>
     <row r="314">
       <c r="A314" s="8" t="s">
         <v>573</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>574</v>
+        <v>145</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2">
         <v>6.0</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -11331,24 +11330,22 @@
         <v>32</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>575</v>
+        <v>324</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>331</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="D315" s="2"/>
       <c r="E315" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -11357,170 +11354,172 @@
         <v>32</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>13</v>
+        <v>331</v>
       </c>
       <c r="E316" s="2">
         <v>2.0</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>14</v>
+        <v>173</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H316" s="7" t="s">
-        <v>579</v>
+        <v>32</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E317" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H317" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="I317" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="D317" s="2"/>
-      <c r="F317" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H317" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>181</v>
+        <v>582</v>
       </c>
       <c r="D318" s="2"/>
-      <c r="E318" s="2">
-        <v>7.0</v>
-      </c>
       <c r="F318" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G318" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H318" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I318" s="2" t="s">
-        <v>582</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G319" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H319" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>58</v>
+        <v>583</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="8" t="s">
         <v>584</v>
       </c>
+      <c r="C320" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320" s="2"/>
+      <c r="E320" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F320" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H320" s="7" t="s">
-        <v>585</v>
+        <v>32</v>
+      </c>
+      <c r="I320" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
+        <v>585</v>
+      </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I321" s="2"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="C322" s="2"/>
       <c r="D322" s="2"/>
-      <c r="E322" s="2">
-        <v>6.0</v>
-      </c>
+      <c r="E322" s="2"/>
       <c r="F322" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I322" s="2" t="s">
-        <v>587</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>323</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D323" s="2"/>
       <c r="E323" s="2">
         <v>6.0</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D324" s="2"/>
+      <c r="D324" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="E324" s="2">
         <v>6.0</v>
       </c>
@@ -11534,234 +11533,246 @@
         <v>32</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D325" s="2"/>
       <c r="E325" s="2">
         <v>6.0</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>16</v>
+        <v>592</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="8" t="s">
         <v>593</v>
       </c>
+      <c r="C326" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E326" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F326" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H326" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I326" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H326" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I326" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H327" s="7" t="s">
+      <c r="H327" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I327" s="2"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="8" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="12" t="s">
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+      <c r="F328" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H328" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="B328" s="4"/>
-      <c r="C328" s="5"/>
-      <c r="D328" s="5"/>
-      <c r="E328" s="4"/>
-      <c r="F328" s="6" t="s">
+    </row>
+    <row r="329">
+      <c r="A329" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B329" s="4"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G328" s="5"/>
-      <c r="H328" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="I328" s="5"/>
-      <c r="J328" s="4"/>
-      <c r="K328" s="4"/>
-      <c r="L328" s="4"/>
-      <c r="M328" s="4"/>
-      <c r="N328" s="4"/>
-      <c r="O328" s="4"/>
-      <c r="P328" s="4"/>
-      <c r="Q328" s="4"/>
-      <c r="R328" s="4"/>
-      <c r="S328" s="4"/>
-      <c r="T328" s="4"/>
-      <c r="U328" s="4"/>
-      <c r="V328" s="4"/>
-      <c r="W328" s="4"/>
-      <c r="X328" s="4"/>
-      <c r="Y328" s="4"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E329" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F329" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G329" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G329" s="5"/>
       <c r="H329" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="I329" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="I329" s="5"/>
+      <c r="J329" s="4"/>
+      <c r="K329" s="4"/>
+      <c r="L329" s="4"/>
+      <c r="M329" s="4"/>
+      <c r="N329" s="4"/>
+      <c r="O329" s="4"/>
+      <c r="P329" s="4"/>
+      <c r="Q329" s="4"/>
+      <c r="R329" s="4"/>
+      <c r="S329" s="4"/>
+      <c r="T329" s="4"/>
+      <c r="U329" s="4"/>
+      <c r="V329" s="4"/>
+      <c r="W329" s="4"/>
+      <c r="X329" s="4"/>
+      <c r="Y329" s="4"/>
     </row>
     <row r="330">
       <c r="A330" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E330" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H330" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="F330" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H330" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I330" s="2"/>
+      <c r="I330" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2">
-        <v>1.0</v>
-      </c>
       <c r="F331" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H331" s="9"/>
-      <c r="I331" s="2" t="s">
-        <v>268</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H331" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I331" s="2"/>
     </row>
     <row r="332">
       <c r="A332" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="C332" s="2"/>
+      <c r="C332" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D332" s="2"/>
+      <c r="E332" s="2">
+        <v>1.0</v>
+      </c>
       <c r="F332" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H332" s="9"/>
+      <c r="I332" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+      <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H332" s="7" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="12" t="s">
+      <c r="H333" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="B333" s="4"/>
-      <c r="C333" s="5"/>
-      <c r="D333" s="5"/>
-      <c r="E333" s="4"/>
-      <c r="F333" s="6" t="s">
+    </row>
+    <row r="334">
+      <c r="A334" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B334" s="4"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G333" s="5"/>
-      <c r="H333" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I333" s="5"/>
-      <c r="J333" s="4"/>
-      <c r="K333" s="4"/>
-      <c r="L333" s="4"/>
-      <c r="M333" s="4"/>
-      <c r="N333" s="4"/>
-      <c r="O333" s="4"/>
-      <c r="P333" s="4"/>
-      <c r="Q333" s="4"/>
-      <c r="R333" s="4"/>
-      <c r="S333" s="4"/>
-      <c r="T333" s="4"/>
-      <c r="U333" s="4"/>
-      <c r="V333" s="4"/>
-      <c r="W333" s="4"/>
-      <c r="X333" s="4"/>
-      <c r="Y333" s="4"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G334" s="5"/>
       <c r="H334" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I334" s="2" t="s">
-        <v>603</v>
-      </c>
+      <c r="I334" s="5"/>
+      <c r="J334" s="4"/>
+      <c r="K334" s="4"/>
+      <c r="L334" s="4"/>
+      <c r="M334" s="4"/>
+      <c r="N334" s="4"/>
+      <c r="O334" s="4"/>
+      <c r="P334" s="4"/>
+      <c r="Q334" s="4"/>
+      <c r="R334" s="4"/>
+      <c r="S334" s="4"/>
+      <c r="T334" s="4"/>
+      <c r="U334" s="4"/>
+      <c r="V334" s="4"/>
+      <c r="W334" s="4"/>
+      <c r="X334" s="4"/>
+      <c r="Y334" s="4"/>
     </row>
     <row r="335">
       <c r="A335" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2">
+        <v>6.0</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H335" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I335" s="2"/>
+      <c r="I335" s="2" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="8" t="s">
@@ -11783,7 +11794,7 @@
         <v>10</v>
       </c>
       <c r="H337" s="7" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I337" s="2"/>
     </row>
@@ -11795,19 +11806,19 @@
         <v>10</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>608</v>
+        <v>63</v>
       </c>
       <c r="I338" s="2"/>
     </row>
     <row r="339">
       <c r="A339" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>102</v>
+        <v>609</v>
       </c>
       <c r="I339" s="2"/>
     </row>
@@ -11819,119 +11830,110 @@
         <v>10</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>163</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E341" s="2">
-        <v>6.0</v>
+        <v>611</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G341" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H341" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="I341" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="8" t="s">
         <v>611</v>
       </c>
+      <c r="C342" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E342" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F342" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H342" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I342" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="I342" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E343" s="2">
-        <v>4.0</v>
-      </c>
       <c r="F343" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G343" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H343" s="7"/>
-      <c r="I343" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H343" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="8" t="s">
         <v>613</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D344" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E344" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H344" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H344" s="7"/>
       <c r="I344" s="2" t="s">
-        <v>614</v>
+        <v>58</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>616</v>
+        <v>20</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2">
@@ -11941,18 +11943,18 @@
         <v>36</v>
       </c>
       <c r="H346" s="7" t="s">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2">
@@ -11965,7 +11967,7 @@
         <v>270</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="348">
@@ -11973,7 +11975,7 @@
         <v>621</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2">
@@ -11986,7 +11988,7 @@
         <v>270</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="349">
@@ -11994,7 +11996,7 @@
         <v>622</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2">
@@ -12007,7 +12009,7 @@
         <v>270</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="350">
@@ -12015,7 +12017,7 @@
         <v>623</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2">
@@ -12025,89 +12027,91 @@
         <v>36</v>
       </c>
       <c r="H350" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I350" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D351" s="2"/>
+      <c r="E351" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H351" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I350" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="B351" s="4"/>
-      <c r="C351" s="5" t="s">
+      <c r="I351" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D351" s="5"/>
-      <c r="E351" s="18">
+    </row>
+    <row r="352">
+      <c r="A352" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B352" s="4"/>
+      <c r="C352" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D352" s="5"/>
+      <c r="E352" s="18">
         <v>4.0</v>
       </c>
-      <c r="F351" s="5" t="s">
+      <c r="F352" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G351" s="4"/>
-      <c r="H351" s="6" t="s">
+      <c r="G352" s="4"/>
+      <c r="H352" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="I351" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="J351" s="4"/>
-      <c r="K351" s="4"/>
-      <c r="L351" s="4"/>
-      <c r="M351" s="4"/>
-      <c r="N351" s="4"/>
-      <c r="O351" s="4"/>
-      <c r="P351" s="4"/>
-      <c r="Q351" s="4"/>
-      <c r="R351" s="4"/>
-      <c r="S351" s="4"/>
-      <c r="T351" s="4"/>
-      <c r="U351" s="4"/>
-      <c r="V351" s="4"/>
-      <c r="W351" s="4"/>
-      <c r="X351" s="4"/>
-      <c r="Y351" s="4"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D352" s="2"/>
-      <c r="E352" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F352" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H352" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I352" s="2" t="s">
-        <v>615</v>
-      </c>
+      <c r="I352" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="J352" s="4"/>
+      <c r="K352" s="4"/>
+      <c r="L352" s="4"/>
+      <c r="M352" s="4"/>
+      <c r="N352" s="4"/>
+      <c r="O352" s="4"/>
+      <c r="P352" s="4"/>
+      <c r="Q352" s="4"/>
+      <c r="R352" s="4"/>
+      <c r="S352" s="4"/>
+      <c r="T352" s="4"/>
+      <c r="U352" s="4"/>
+      <c r="V352" s="4"/>
+      <c r="W352" s="4"/>
+      <c r="X352" s="4"/>
+      <c r="Y352" s="4"/>
     </row>
     <row r="353">
       <c r="A353" s="8" t="s">
         <v>626</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>20</v>
+        <v>617</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2">
         <v>4.0</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H353" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="H353" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="I353" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="354">
@@ -12115,7 +12119,7 @@
         <v>627</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2">
@@ -12124,9 +12128,9 @@
       <c r="F354" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H354" s="7"/>
+      <c r="H354" s="10"/>
       <c r="I354" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="355">
@@ -12134,146 +12138,141 @@
         <v>628</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G355" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H355" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H355" s="7"/>
       <c r="I355" s="2" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G356" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H356" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I356" s="8" t="s">
-        <v>631</v>
+        <v>63</v>
+      </c>
+      <c r="I356" s="2" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D357" s="2"/>
+      <c r="E357" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H357" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I357" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="F357" s="2" t="s">
+    </row>
+    <row r="358">
+      <c r="A358" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="F358" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H357" s="7" t="s">
+      <c r="H358" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I357" s="2"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="B358" s="4"/>
-      <c r="C358" s="5"/>
-      <c r="D358" s="5"/>
-      <c r="E358" s="4"/>
-      <c r="F358" s="6" t="s">
+      <c r="I358" s="2"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="B359" s="4"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5"/>
+      <c r="E359" s="4"/>
+      <c r="F359" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G358" s="4"/>
-      <c r="H358" s="7" t="s">
+      <c r="G359" s="4"/>
+      <c r="H359" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I358" s="5"/>
-      <c r="J358" s="4"/>
-      <c r="K358" s="4"/>
-      <c r="L358" s="4"/>
-      <c r="M358" s="4"/>
-      <c r="N358" s="4"/>
-      <c r="O358" s="4"/>
-      <c r="P358" s="4"/>
-      <c r="Q358" s="4"/>
-      <c r="R358" s="4"/>
-      <c r="S358" s="4"/>
-      <c r="T358" s="4"/>
-      <c r="U358" s="4"/>
-      <c r="V358" s="4"/>
-      <c r="W358" s="4"/>
-      <c r="X358" s="4"/>
-      <c r="Y358" s="4"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F359" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H359" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>634</v>
-      </c>
+      <c r="I359" s="5"/>
+      <c r="J359" s="4"/>
+      <c r="K359" s="4"/>
+      <c r="L359" s="4"/>
+      <c r="M359" s="4"/>
+      <c r="N359" s="4"/>
+      <c r="O359" s="4"/>
+      <c r="P359" s="4"/>
+      <c r="Q359" s="4"/>
+      <c r="R359" s="4"/>
+      <c r="S359" s="4"/>
+      <c r="T359" s="4"/>
+      <c r="U359" s="4"/>
+      <c r="V359" s="4"/>
+      <c r="W359" s="4"/>
+      <c r="X359" s="4"/>
+      <c r="Y359" s="4"/>
     </row>
     <row r="360">
       <c r="A360" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D360" s="2"/>
+      <c r="E360" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H360" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I360" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F360" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H360" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I360" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>304</v>
+        <v>637</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>21</v>
@@ -12282,47 +12281,50 @@
         <v>15</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H362" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I362" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="F362" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H362" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="C363" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F363" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H363" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="I363" s="2" t="s">
-        <v>642</v>
+        <v>97</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>20</v>
@@ -12335,210 +12337,209 @@
         <v>21</v>
       </c>
       <c r="H364" s="7" t="s">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D365" s="2"/>
+      <c r="E365" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H365" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I365" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
-      <c r="F365" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H365" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="C366" s="2"/>
       <c r="D366" s="2"/>
-      <c r="E366" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F366" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G366" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H366" s="7"/>
-      <c r="I366" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="H366" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="8" t="s">
         <v>647</v>
       </c>
+      <c r="C367" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D367" s="2"/>
+      <c r="E367" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F367" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H367" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I367" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H367" s="7"/>
+      <c r="I367" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="D368" s="2"/>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I368" s="2"/>
     </row>
     <row r="369">
       <c r="A369" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>145</v>
+        <v>649</v>
       </c>
       <c r="D369" s="2"/>
-      <c r="E369" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F369" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H369" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I369" s="2" t="s">
-        <v>649</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H370" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I370" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D370" s="2"/>
-      <c r="E370" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F370" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H370" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I370" s="2" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H371" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="H371" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I371" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G372" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H372" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H372" s="7"/>
       <c r="I372" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>399</v>
+        <v>39</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2">
         <v>2.0</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H373" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H374" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I374" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
-      <c r="F374" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H374" s="7" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+      <c r="F375" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H375" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D375" s="2"/>
-      <c r="E375" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G375" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H375" s="7"/>
-      <c r="I375" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="376">
@@ -12546,43 +12547,53 @@
         <v>661</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>662</v>
+        <v>39</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H376" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H376" s="7"/>
       <c r="I376" s="2" t="s">
-        <v>663</v>
+        <v>352</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D377" s="2"/>
+      <c r="E377" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H377" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I377" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="F377" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H377" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="I377" s="2"/>
     </row>
     <row r="378">
       <c r="A378" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H378" s="7" t="s">
-        <v>60</v>
+        <v>666</v>
       </c>
       <c r="I378" s="2"/>
     </row>
@@ -12590,80 +12601,71 @@
       <c r="A379" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="F379" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H379" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I379" s="2"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D379" s="2"/>
-      <c r="E379" s="2">
+      <c r="D380" s="2"/>
+      <c r="E380" s="2">
         <v>6.0</v>
       </c>
-      <c r="F379" s="2" t="s">
+      <c r="F380" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H379" s="7" t="s">
+      <c r="H380" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I379" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="12" t="s">
+      <c r="I380" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B380" s="4"/>
-      <c r="C380" s="5"/>
-      <c r="D380" s="5"/>
-      <c r="E380" s="4"/>
-      <c r="F380" s="6" t="s">
+    </row>
+    <row r="381">
+      <c r="A381" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="B381" s="4"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="4"/>
+      <c r="F381" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G380" s="4"/>
-      <c r="H380" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I380" s="5"/>
-      <c r="J380" s="4"/>
-      <c r="K380" s="4"/>
-      <c r="L380" s="4"/>
-      <c r="M380" s="4"/>
-      <c r="N380" s="4"/>
-      <c r="O380" s="4"/>
-      <c r="P380" s="4"/>
-      <c r="Q380" s="4"/>
-      <c r="R380" s="4"/>
-      <c r="S380" s="4"/>
-      <c r="T380" s="4"/>
-      <c r="U380" s="4"/>
-      <c r="V380" s="4"/>
-      <c r="W380" s="4"/>
-      <c r="X380" s="4"/>
-      <c r="Y380" s="4"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D381" s="2"/>
-      <c r="E381" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F381" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="G381" s="4"/>
       <c r="H381" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I381" s="2" t="s">
-        <v>670</v>
-      </c>
+      <c r="I381" s="5"/>
+      <c r="J381" s="4"/>
+      <c r="K381" s="4"/>
+      <c r="L381" s="4"/>
+      <c r="M381" s="4"/>
+      <c r="N381" s="4"/>
+      <c r="O381" s="4"/>
+      <c r="P381" s="4"/>
+      <c r="Q381" s="4"/>
+      <c r="R381" s="4"/>
+      <c r="S381" s="4"/>
+      <c r="T381" s="4"/>
+      <c r="U381" s="4"/>
+      <c r="V381" s="4"/>
+      <c r="W381" s="4"/>
+      <c r="X381" s="4"/>
+      <c r="Y381" s="4"/>
     </row>
     <row r="382">
       <c r="A382" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>20</v>
@@ -12676,23 +12678,32 @@
         <v>21</v>
       </c>
       <c r="H382" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D383" s="2"/>
+      <c r="E383" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H383" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I383" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="F383" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H383" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I383" s="2"/>
     </row>
     <row r="384">
       <c r="A384" s="8" t="s">
@@ -12702,7 +12713,7 @@
         <v>10</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="I384" s="2"/>
     </row>
@@ -12714,7 +12725,7 @@
         <v>10</v>
       </c>
       <c r="H385" s="7" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="I385" s="2"/>
     </row>
@@ -12722,147 +12733,146 @@
       <c r="A386" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E386" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F386" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G386" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H386" s="7"/>
-      <c r="I386" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H386" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I386" s="2"/>
     </row>
     <row r="387">
       <c r="A387" s="8" t="s">
         <v>677</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D387" s="2"/>
-      <c r="E387" s="2">
-        <v>2.0</v>
+        <v>39</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H387" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G387" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H387" s="7"/>
       <c r="I387" s="2" t="s">
-        <v>678</v>
+        <v>58</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="C388" s="2"/>
+        <v>678</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D388" s="2"/>
+      <c r="E388" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F388" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H388" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="C389" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="E389" s="2">
-        <v>2.0</v>
-      </c>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
       <c r="F389" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G389" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H389" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I389" s="2" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D390" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
+      <c r="E390" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F390" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="I390" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="C391" s="2" t="s">
-        <v>684</v>
-      </c>
+      <c r="C391" s="2"/>
       <c r="D391" s="2"/>
-      <c r="E391" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F391" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G391" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H391" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I391" s="2" t="s">
-        <v>685</v>
+        <v>27</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D392" s="2"/>
+      <c r="E392" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H392" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I392" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="F392" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H392" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
       <c r="F393" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H393" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" s="8" t="s">
@@ -12874,7 +12884,7 @@
         <v>10</v>
       </c>
       <c r="H394" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395">
@@ -12887,40 +12897,41 @@
         <v>10</v>
       </c>
       <c r="H395" s="7" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="C396" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C396" s="2"/>
       <c r="D396" s="2"/>
-      <c r="E396" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F396" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I396" s="2" t="s">
-        <v>691</v>
+        <v>141</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D397" s="2"/>
+      <c r="E397" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F397" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H397" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="398">
@@ -12937,147 +12948,147 @@
     </row>
     <row r="399">
       <c r="A399" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>81</v>
+        <v>694</v>
       </c>
       <c r="D399" s="2"/>
-      <c r="E399" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F399" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I399" s="2" t="s">
-        <v>694</v>
+        <v>32</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D400" s="2"/>
+      <c r="E400" s="2">
+        <v>2.0</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H400" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I400" s="2"/>
+      <c r="I400" s="2" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="C401" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="D401" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="E401" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F401" s="2" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I401" s="2" t="s">
-        <v>699</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I401" s="2"/>
     </row>
     <row r="402">
       <c r="A402" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E402" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H402" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I402" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D402" s="2"/>
-      <c r="E402" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F402" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H402" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I402" s="2" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D403" s="2"/>
+      <c r="E403" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H403" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I403" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="F403" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H403" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I403" s="2"/>
     </row>
     <row r="404">
       <c r="A404" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="C404" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D404" s="2"/>
-      <c r="E404" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F404" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H404" s="7"/>
-      <c r="I404" s="2" t="s">
-        <v>704</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H404" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I404" s="2"/>
     </row>
     <row r="405">
       <c r="A405" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H405" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H405" s="7"/>
       <c r="I405" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D406" s="2"/>
+      <c r="E406" s="2">
+        <v>6.0</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G406" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H406" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I406" s="2"/>
+      <c r="I406" s="2" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="8" t="s">
@@ -13087,8 +13098,9 @@
         <v>10</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I407" s="2"/>
     </row>
     <row r="408">
       <c r="A408" s="8" t="s">
@@ -13098,9 +13110,8 @@
         <v>10</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I408" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="8" t="s">
@@ -13110,8 +13121,9 @@
         <v>10</v>
       </c>
       <c r="H409" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I409" s="2"/>
     </row>
     <row r="410">
       <c r="A410" s="8" t="s">
@@ -13121,7 +13133,7 @@
         <v>10</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="411">
@@ -13132,9 +13144,8 @@
         <v>10</v>
       </c>
       <c r="H411" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I411" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="8" t="s">
@@ -13144,8 +13155,9 @@
         <v>10</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I412" s="2"/>
     </row>
     <row r="413">
       <c r="A413" s="8" t="s">
@@ -13155,44 +13167,43 @@
         <v>10</v>
       </c>
       <c r="H413" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I413" s="2"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="E414" s="2">
-        <v>6.0</v>
+        <v>715</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H414" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I414" s="2" t="s">
-        <v>715</v>
-      </c>
+      <c r="I414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E415" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H415" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I415" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="F415" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H415" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="8" t="s">
@@ -13202,7 +13213,7 @@
         <v>10</v>
       </c>
       <c r="H416" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I416" s="2"/>
     </row>
@@ -13214,7 +13225,7 @@
         <v>10</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I417" s="2"/>
     </row>
@@ -13234,33 +13245,24 @@
       <c r="A419" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="C419" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2" t="s">
-        <v>721</v>
-      </c>
       <c r="F419" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G419" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I419" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H419" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D420" s="2"/>
-      <c r="E420" s="2">
-        <v>3.0</v>
+      <c r="E420" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>40</v>
@@ -13269,79 +13271,88 @@
         <v>15</v>
       </c>
       <c r="I420" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="8" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="12" t="s">
+      <c r="C421" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D421" s="2"/>
+      <c r="E421" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I421" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B421" s="4"/>
-      <c r="C421" s="5"/>
-      <c r="D421" s="5"/>
-      <c r="E421" s="4"/>
-      <c r="F421" s="6" t="s">
+    </row>
+    <row r="422">
+      <c r="A422" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="B422" s="4"/>
+      <c r="C422" s="5"/>
+      <c r="D422" s="5"/>
+      <c r="E422" s="4"/>
+      <c r="F422" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G421" s="5"/>
-      <c r="H421" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I421" s="5"/>
-      <c r="J421" s="4"/>
-      <c r="K421" s="4"/>
-      <c r="L421" s="4"/>
-      <c r="M421" s="4"/>
-      <c r="N421" s="4"/>
-      <c r="O421" s="4"/>
-      <c r="P421" s="4"/>
-      <c r="Q421" s="4"/>
-      <c r="R421" s="4"/>
-      <c r="S421" s="4"/>
-      <c r="T421" s="4"/>
-      <c r="U421" s="4"/>
-      <c r="V421" s="4"/>
-      <c r="W421" s="4"/>
-      <c r="X421" s="4"/>
-      <c r="Y421" s="4"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E422" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F422" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G422" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G422" s="5"/>
       <c r="H422" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I422" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I422" s="5"/>
+      <c r="J422" s="4"/>
+      <c r="K422" s="4"/>
+      <c r="L422" s="4"/>
+      <c r="M422" s="4"/>
+      <c r="N422" s="4"/>
+      <c r="O422" s="4"/>
+      <c r="P422" s="4"/>
+      <c r="Q422" s="4"/>
+      <c r="R422" s="4"/>
+      <c r="S422" s="4"/>
+      <c r="T422" s="4"/>
+      <c r="U422" s="4"/>
+      <c r="V422" s="4"/>
+      <c r="W422" s="4"/>
+      <c r="X422" s="4"/>
+      <c r="Y422" s="4"/>
     </row>
     <row r="423">
       <c r="A423" s="8" t="s">
         <v>725</v>
       </c>
+      <c r="C423" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E423" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F423" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H423" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I423" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="8" t="s">
@@ -13351,19 +13362,19 @@
         <v>10</v>
       </c>
       <c r="H424" s="7" t="s">
-        <v>727</v>
+        <v>25</v>
       </c>
       <c r="I424" s="2"/>
     </row>
     <row r="425">
       <c r="A425" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H425" s="7" t="s">
-        <v>97</v>
+        <v>728</v>
       </c>
       <c r="I425" s="2"/>
     </row>
@@ -13375,7 +13386,7 @@
         <v>10</v>
       </c>
       <c r="H426" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I426" s="2"/>
     </row>
@@ -13387,120 +13398,129 @@
         <v>10</v>
       </c>
       <c r="H427" s="7" t="s">
-        <v>731</v>
+        <v>60</v>
       </c>
       <c r="I427" s="2"/>
     </row>
     <row r="428">
       <c r="A428" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
+        <v>731</v>
+      </c>
       <c r="F428" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H428" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="H428" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="I428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="C429" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="C429" s="2"/>
       <c r="D429" s="2"/>
-      <c r="E429" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F429" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H429" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I429" s="2" t="s">
-        <v>734</v>
+        <v>10</v>
+      </c>
+      <c r="H429" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D430" s="2"/>
+      <c r="E430" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H430" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I430" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="F430" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H430" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I430" s="2"/>
     </row>
     <row r="431">
       <c r="A431" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="C431" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E431" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F431" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G431" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H431" s="7"/>
-      <c r="I431" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H431" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>738</v>
       </c>
+      <c r="D432" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E432" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F432" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H432" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I432" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G432" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H432" s="7"/>
+      <c r="I432" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="F433" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H433" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I433" s="2"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D433" s="2" t="s">
+      <c r="D434" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E433" s="2">
+      <c r="E434" s="2">
         <v>6.0</v>
       </c>
-      <c r="F433" s="2" t="s">
+      <c r="F434" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G433" s="2" t="s">
+      <c r="G434" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H433" s="2" t="s">
+      <c r="H434" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I433" s="2" t="s">
+      <c r="I434" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="19"/>
     </row>
     <row r="435">
       <c r="C435" s="2"/>
@@ -16092,8 +16112,8 @@
     <hyperlink r:id="rId355" ref="A354"/>
     <hyperlink r:id="rId356" ref="A355"/>
     <hyperlink r:id="rId357" ref="A356"/>
-    <hyperlink r:id="rId358" ref="I356"/>
-    <hyperlink r:id="rId359" ref="A357"/>
+    <hyperlink r:id="rId358" ref="A357"/>
+    <hyperlink r:id="rId359" ref="I357"/>
     <hyperlink r:id="rId360" ref="A358"/>
     <hyperlink r:id="rId361" ref="A359"/>
     <hyperlink r:id="rId362" ref="A360"/>
@@ -16170,9 +16190,10 @@
     <hyperlink r:id="rId433" ref="A431"/>
     <hyperlink r:id="rId434" ref="A432"/>
     <hyperlink r:id="rId435" ref="A433"/>
+    <hyperlink r:id="rId436" ref="A434"/>
   </hyperlinks>
-  <drawing r:id="rId436"/>
-  <legacyDrawing r:id="rId437"/>
+  <drawing r:id="rId437"/>
+  <legacyDrawing r:id="rId438"/>
 </worksheet>
 </file>
 
@@ -16188,167 +16209,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="16" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="34">
@@ -16400,42 +16421,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -16463,7 +16484,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16493,7 +16514,7 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16523,7 +16544,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16553,7 +16574,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -16583,7 +16604,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -16613,7 +16634,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -16643,7 +16664,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -16673,7 +16694,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -16703,7 +16724,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -16733,7 +16754,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -16763,7 +16784,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -16793,7 +16814,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -16823,7 +16844,7 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -16853,7 +16874,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -16883,7 +16904,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -16913,7 +16934,7 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -16943,7 +16964,7 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -16973,7 +16994,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17003,7 +17024,7 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17033,7 +17054,7 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17063,7 +17084,7 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -17093,7 +17114,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -17123,7 +17144,7 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -17153,7 +17174,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -17183,7 +17204,7 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17213,7 +17234,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -17243,7 +17264,7 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -17273,7 +17294,7 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -17303,7 +17324,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -17333,7 +17354,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -44536,192 +44557,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -44775,112 +44796,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -44918,57 +44939,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -44998,252 +45019,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="16" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="16" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="16" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="16" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="16" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -45308,22 +45329,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -24,6 +24,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="E360">
+      <text>
+        <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench/issues/46
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F188">
       <text>
         <t xml:space="preserve">https://openlm.ai/chatbot-arena/
@@ -2260,7 +2266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="906">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -4919,6 +4925,9 @@
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2441</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/malhajar/OpenLLMTurkishLeaderboard/discussions/5</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/28</t>
@@ -12250,8 +12259,8 @@
         <v>145</v>
       </c>
       <c r="D360" s="2"/>
-      <c r="E360" s="2" t="s">
-        <v>115</v>
+      <c r="E360" s="2">
+        <v>6.0</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>14</v>
@@ -45118,13 +45127,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="23">
@@ -45138,73 +45147,73 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="8" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="16" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="16" t="s">
-        <v>883</v>
-      </c>
-    </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="16" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>884</v>
-      </c>
-    </row>
     <row r="30">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="8" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="16" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="8" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>887</v>
-      </c>
-    </row>
     <row r="34">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="8" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="16" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="16" t="s">
-        <v>889</v>
-      </c>
-    </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="16" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
         <v>768</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="16" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="39">
@@ -45233,7 +45242,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="16" t="s">
         <v>896</v>
       </c>
     </row>
@@ -45258,13 +45267,18 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="8" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="16" t="s">
         <v>902</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="s">
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -45287,19 +45301,19 @@
     <hyperlink r:id="rId16" ref="A18"/>
     <hyperlink r:id="rId17" ref="A19"/>
     <hyperlink r:id="rId18" ref="A20"/>
-    <hyperlink r:id="rId19" ref="A22"/>
+    <hyperlink r:id="rId19" ref="A21"/>
     <hyperlink r:id="rId20" ref="A23"/>
     <hyperlink r:id="rId21" ref="A24"/>
     <hyperlink r:id="rId22" ref="A25"/>
-    <hyperlink r:id="rId23" ref="A27"/>
-    <hyperlink r:id="rId24" ref="A29"/>
+    <hyperlink r:id="rId23" ref="A26"/>
+    <hyperlink r:id="rId24" ref="A28"/>
     <hyperlink r:id="rId25" ref="A30"/>
     <hyperlink r:id="rId26" ref="A31"/>
-    <hyperlink r:id="rId27" ref="A33"/>
+    <hyperlink r:id="rId27" ref="A32"/>
     <hyperlink r:id="rId28" ref="A34"/>
     <hyperlink r:id="rId29" ref="A35"/>
     <hyperlink r:id="rId30" ref="A36"/>
-    <hyperlink r:id="rId31" ref="A38"/>
+    <hyperlink r:id="rId31" ref="A37"/>
     <hyperlink r:id="rId32" ref="A39"/>
     <hyperlink r:id="rId33" ref="A40"/>
     <hyperlink r:id="rId34" ref="A41"/>
@@ -45312,8 +45326,9 @@
     <hyperlink r:id="rId41" ref="A48"/>
     <hyperlink r:id="rId42" ref="A49"/>
     <hyperlink r:id="rId43" ref="A50"/>
+    <hyperlink r:id="rId44" ref="A51"/>
   </hyperlinks>
-  <drawing r:id="rId44"/>
+  <drawing r:id="rId45"/>
 </worksheet>
 </file>
 
@@ -45334,7 +45349,7 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3">
@@ -45344,7 +45359,7 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -2266,7 +2266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="908">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -4578,6 +4578,9 @@
     <t>https://huggingface.co/spaces/gaia-benchmark/leaderboard/discussions/14</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/2</t>
+  </si>
+  <si>
     <t>Participative Model</t>
   </si>
   <si>
@@ -4952,6 +4955,9 @@
   </si>
   <si>
     <t>https://huggingface.co/spaces/instructkr/LogicKor-leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/livecodebench/leaderboard/discussions/1</t>
   </si>
   <si>
     <t>https://github.com/open-compass/LawBench/issues/7</t>
@@ -8668,7 +8674,7 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>173</v>
@@ -16342,37 +16348,37 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="8" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="2" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="16" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="2" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="8" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="16" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="8" t="s">
         <v>772</v>
       </c>
     </row>
@@ -16382,7 +16388,12 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="19"/>
+      <c r="A34" s="16" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16407,14 +16418,15 @@
     <hyperlink r:id="rId19" ref="A23"/>
     <hyperlink r:id="rId20" ref="A24"/>
     <hyperlink r:id="rId21" ref="A25"/>
-    <hyperlink r:id="rId22" ref="A27"/>
-    <hyperlink r:id="rId23" ref="A29"/>
+    <hyperlink r:id="rId22" ref="A26"/>
+    <hyperlink r:id="rId23" ref="A28"/>
     <hyperlink r:id="rId24" ref="A30"/>
     <hyperlink r:id="rId25" ref="A31"/>
     <hyperlink r:id="rId26" ref="A32"/>
     <hyperlink r:id="rId27" ref="A33"/>
+    <hyperlink r:id="rId28" ref="A34"/>
   </hyperlinks>
-  <drawing r:id="rId28"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -16430,12 +16442,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3">
@@ -16445,27 +16457,27 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -16493,7 +16505,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16523,7 +16535,7 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16553,7 +16565,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16613,7 +16625,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -16643,7 +16655,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -16673,7 +16685,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -16703,7 +16715,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -16733,7 +16745,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -16763,7 +16775,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -16793,7 +16805,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -16823,7 +16835,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -16853,7 +16865,7 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -16883,7 +16895,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -16943,7 +16955,7 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -16973,7 +16985,7 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -17003,7 +17015,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17033,7 +17045,7 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17063,7 +17075,7 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17093,7 +17105,7 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -17153,7 +17165,7 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -17183,7 +17195,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -17213,7 +17225,7 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17243,7 +17255,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -17273,7 +17285,7 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -17303,7 +17315,7 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -17333,7 +17345,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -17363,7 +17375,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -44566,22 +44578,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5">
@@ -44591,62 +44603,62 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18">
@@ -44656,22 +44668,22 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23">
@@ -44681,77 +44693,77 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -44810,17 +44822,17 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5">
@@ -44830,7 +44842,7 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7">
@@ -44840,12 +44852,12 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="10">
@@ -44855,62 +44867,62 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -44953,17 +44965,17 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5">
@@ -44973,32 +44985,32 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -45028,37 +45040,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="8">
@@ -45068,77 +45080,77 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>789</v>
+      <c r="A22" s="16" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>880</v>
+      <c r="A23" s="2" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="24">
@@ -45152,78 +45164,78 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="8" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="16" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="16" t="s">
-        <v>884</v>
-      </c>
-    </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="16" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>885</v>
-      </c>
-    </row>
     <row r="31">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="8" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="16" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>766</v>
+      <c r="A33" s="8" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="16" t="s">
-        <v>889</v>
+      <c r="A35" s="2" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>801</v>
+        <v>890</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>768</v>
+      <c r="A38" s="8" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="16" t="s">
-        <v>892</v>
+      <c r="A40" s="2" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="41">
@@ -45247,12 +45259,12 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="16" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="16" t="s">
         <v>898</v>
       </c>
     </row>
@@ -45272,13 +45284,23 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="8" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
         <v>903</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="16" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -45302,20 +45324,20 @@
     <hyperlink r:id="rId17" ref="A19"/>
     <hyperlink r:id="rId18" ref="A20"/>
     <hyperlink r:id="rId19" ref="A21"/>
-    <hyperlink r:id="rId20" ref="A23"/>
+    <hyperlink r:id="rId20" ref="A22"/>
     <hyperlink r:id="rId21" ref="A24"/>
     <hyperlink r:id="rId22" ref="A25"/>
     <hyperlink r:id="rId23" ref="A26"/>
-    <hyperlink r:id="rId24" ref="A28"/>
-    <hyperlink r:id="rId25" ref="A30"/>
+    <hyperlink r:id="rId24" ref="A27"/>
+    <hyperlink r:id="rId25" ref="A29"/>
     <hyperlink r:id="rId26" ref="A31"/>
     <hyperlink r:id="rId27" ref="A32"/>
-    <hyperlink r:id="rId28" ref="A34"/>
-    <hyperlink r:id="rId29" ref="A35"/>
+    <hyperlink r:id="rId28" ref="A33"/>
+    <hyperlink r:id="rId29" ref="A34"/>
     <hyperlink r:id="rId30" ref="A36"/>
     <hyperlink r:id="rId31" ref="A37"/>
-    <hyperlink r:id="rId32" ref="A39"/>
-    <hyperlink r:id="rId33" ref="A40"/>
+    <hyperlink r:id="rId32" ref="A38"/>
+    <hyperlink r:id="rId33" ref="A39"/>
     <hyperlink r:id="rId34" ref="A41"/>
     <hyperlink r:id="rId35" ref="A42"/>
     <hyperlink r:id="rId36" ref="A43"/>
@@ -45327,8 +45349,10 @@
     <hyperlink r:id="rId42" ref="A49"/>
     <hyperlink r:id="rId43" ref="A50"/>
     <hyperlink r:id="rId44" ref="A51"/>
+    <hyperlink r:id="rId45" ref="A52"/>
+    <hyperlink r:id="rId46" ref="A53"/>
   </hyperlinks>
-  <drawing r:id="rId45"/>
+  <drawing r:id="rId47"/>
 </worksheet>
 </file>
 
@@ -45349,17 +45373,17 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -4,14 +4,15 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Leaderboard System" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Inaccessible Component" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Misdisplayed Component" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Mismatched Component" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Missing Component" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Obsolete Component" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Redundant Component" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Unclear Component" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Unresponsive Component" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="SATD" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Inaccessible Component" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Misdisplayed Component" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Mismatched Component" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Missing Component" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Obsolete Component" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Redundant Component" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Unclear Component" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Unresponsive Component" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -2266,7 +2267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="911">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -2286,7 +2287,7 @@
     <t>Platforms</t>
   </si>
   <si>
-    <t>Platforms with model linkage (non-pwc)</t>
+    <t>Model linkage (non-pwc)</t>
   </si>
   <si>
     <t>Publication venues</t>
@@ -4503,6 +4504,21 @@
     <t>αNLI</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/FSMBench/Leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/sparse-generative-ai/open-moe-llm-leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2441</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2205</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2351</t>
+  </si>
+  <si>
     <t>Evaluation Dataset</t>
   </si>
   <si>
@@ -4705,9 +4721,6 @@
   </si>
   <si>
     <t>https://github.com/OpenM3D/M3DBench/issues/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/FSMBench/Leaderboard/discussions/3</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/instructkr/LogicKor-leaderboard/discussions/6</t>
@@ -4925,9 +4938,6 @@
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2358</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2441</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/malhajar/OpenLLMTurkishLeaderboard/discussions/5</t>
@@ -5169,6 +5179,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -16212,6 +16226,45 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>910</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A4"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -16223,7 +16276,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>741</v>
       </c>
     </row>
@@ -16233,163 +16286,210 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A1"/>
+    <hyperlink r:id="rId2" ref="A2"/>
+    <hyperlink r:id="rId3" ref="A3"/>
+    <hyperlink r:id="rId4" ref="A4"/>
+    <hyperlink r:id="rId5" ref="A5"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="16" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35">
@@ -16430,7 +16530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16442,42 +16542,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -16493,7 +16593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16505,7 +16605,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16535,7 +16635,7 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16565,7 +16665,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16595,7 +16695,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -16625,7 +16725,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -16655,7 +16755,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -16685,7 +16785,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -16715,7 +16815,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -16745,7 +16845,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -16775,7 +16875,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -16805,7 +16905,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -16835,7 +16935,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -16865,7 +16965,7 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -16895,7 +16995,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -16925,7 +17025,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -16955,7 +17055,7 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -16985,7 +17085,7 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -17015,7 +17115,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17045,7 +17145,7 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17075,7 +17175,7 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17105,7 +17205,7 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -17135,7 +17235,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -17165,7 +17265,7 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -17195,7 +17295,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -17225,7 +17325,7 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17255,7 +17355,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -17285,7 +17385,7 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -17315,7 +17415,7 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -17345,7 +17445,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -17375,7 +17475,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -44566,7 +44666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -44578,192 +44678,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>809</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -44805,7 +44905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -44817,112 +44917,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -44948,7 +45048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -44960,57 +45060,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -45028,7 +45128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -45040,267 +45140,267 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>879</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="16" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="16" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="16" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="16" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="16" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="16" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -45354,43 +45454,4 @@
   </hyperlinks>
   <drawing r:id="rId47"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>907</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A4"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
-</worksheet>
 </file>
--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Leaderboard System" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="SATD" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Self-admitted Technical Debt" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Inaccessible Component" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Misdisplayed Component" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Mismatched Component" sheetId="5" r:id="rId8"/>
@@ -25,7 +25,13 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E360">
+    <comment authorId="0" ref="H277">
+      <text>
+        <t xml:space="preserve">https://ai.meta.com/blog/openeqa-embodied-question-answering-robotics-ar-glasses/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E361">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench/issues/46
 	-Jimmy Chou</t>
@@ -57,7 +63,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F306">
+    <comment authorId="0" ref="F307">
       <text>
         <t xml:space="preserve">https://haizelabs.com/benchmarks/space
 	-Jimmy Chou</t>
@@ -75,7 +81,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D310">
+    <comment authorId="0" ref="D311">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/allenai/reward-bench/discussions/3
 	-Jimmy Chou</t>
@@ -741,31 +747,31 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A310">
+    <comment authorId="0" ref="A311">
       <text>
         <t xml:space="preserve">https://github.com/allenai/reward-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A390">
+    <comment authorId="0" ref="A391">
       <text>
         <t xml:space="preserve">https://github.com/Re-Align/URIAL
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A420">
+    <comment authorId="0" ref="A421">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I279">
+    <comment authorId="0" ref="I280">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/opencompass/blob/main/configs/datasets/OpenFinData/OpenFinData.md
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A279">
+    <comment authorId="0" ref="A280">
       <text>
         <t xml:space="preserve">https://github.com/TongjiFinLab/CFBenchmark
 	-Jimmy Chou</t>
@@ -833,7 +839,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A288">
+    <comment authorId="0" ref="A289">
       <text>
         <t xml:space="preserve">model- and data-centric leaderboards
 	-Jimmy Chou
@@ -859,27 +865,33 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F352">
+    <comment authorId="0" ref="F353">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H352">
+    <comment authorId="0" ref="H353">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_open.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F350">
+    <comment authorId="0" ref="F351">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H350">
+    <comment authorId="0" ref="H351">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_industry.html
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F348">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -889,43 +901,37 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F346">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H346">
+    <comment authorId="0" ref="H347">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H347">
+    <comment authorId="0" ref="H348">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_agent.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H348">
+    <comment authorId="0" ref="H349">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_auto.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H349">
+    <comment authorId="0" ref="H350">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_code3.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H351">
+    <comment authorId="0" ref="H352">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_math6.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H353">
+    <comment authorId="0" ref="H354">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_safety.html
 	-Jimmy Chou</t>
@@ -1011,31 +1017,31 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A415">
+    <comment authorId="0" ref="A416">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F323">
+    <comment authorId="0" ref="F324">
       <text>
         <t xml:space="preserve">https://github.com/tau-nlp/scrolls
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A317">
+    <comment authorId="0" ref="A318">
       <text>
         <t xml:space="preserve">https://github.com/ScandEval/ScandEval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A423">
+    <comment authorId="0" ref="A424">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A286">
+    <comment authorId="0" ref="A287">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/physicaliqa/evaluator
 	-Jimmy Chou</t>
@@ -1077,7 +1083,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A297">
+    <comment authorId="0" ref="A298">
       <text>
         <t xml:space="preserve">https://github.com/allenai/aristo-leaderboard
 	-Jimmy Chou</t>
@@ -1095,25 +1101,28 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A326">
+    <comment authorId="0" ref="A327">
       <text>
         <t xml:space="preserve">https://github.com/allenai/sherlock/tree/main/leaderboard_eval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A330">
+    <comment authorId="0" ref="A331">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/socialiqa/evaluator
+	-Jimmy Chou
+----
+https://huggingface.co/spaces/0x9/finetuning_subnet_leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A434">
+    <comment authorId="0" ref="A435">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A342">
+    <comment authorId="0" ref="A343">
       <text>
         <t xml:space="preserve">https://github.com/eladsegal/strategyqa
 	-Jimmy Chou</t>
@@ -1125,19 +1134,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A403">
+    <comment authorId="0" ref="A404">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A370">
+    <comment authorId="0" ref="A371">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A357">
+    <comment authorId="0" ref="A358">
       <text>
         <t xml:space="preserve">https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
@@ -1191,13 +1200,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F345">
+    <comment authorId="0" ref="F346">
       <text>
         <t xml:space="preserve">https://github.com/salesforce/factualNLG
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F317">
+    <comment authorId="0" ref="F318">
       <text>
         <t xml:space="preserve">https://scandeval.com/
 	-Jimmy Chou</t>
@@ -1266,13 +1275,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F316">
+    <comment authorId="0" ref="F317">
       <text>
         <t xml:space="preserve">https://adwardlee.github.io/salad_bench/leaderboard.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D281">
+    <comment authorId="0" ref="D282">
       <text>
         <t xml:space="preserve">https://opencompass.openxlab.space/utils/OpenVLM.json
 	-Jimmy Chou</t>
@@ -1338,7 +1347,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F324">
+    <comment authorId="0" ref="F325">
       <text>
         <t xml:space="preserve">https://seaeval.github.io/
 	-Jimmy Chou</t>
@@ -1395,12 +1404,6 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A331">
-      <text>
-        <t xml:space="preserve">https://huggingface.co/spaces/0x9/finetuning_subnet_leaderboard
-	-Jimmy Chou</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="A39">
       <text>
         <t xml:space="preserve">https://github.com/ShishirPatil/gorilla/issues/270
@@ -1447,6 +1450,9 @@
     <comment authorId="0" ref="F331">
       <text>
         <t xml:space="preserve">https://github.com/NousResearch/finetuning-subnet
+	-Jimmy Chou
+----
+https://leaderboard.allenai.org/socialiqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1468,25 +1474,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F353">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com/
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F348">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F351">
+    <comment authorId="0" ref="F354">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
     <comment authorId="0" ref="F349">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F352">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F350">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -1522,7 +1528,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F291">
+    <comment authorId="0" ref="F292">
       <text>
         <t xml:space="preserve">https://llm-eval.github.io/pages/leaderboard/pe.html
 	-Jimmy Chou
@@ -1564,49 +1570,43 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F434">
+    <comment authorId="0" ref="F435">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F423">
+    <comment authorId="0" ref="F424">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F342">
+    <comment authorId="0" ref="F343">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/strategyqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F330">
-      <text>
-        <t xml:space="preserve">https://leaderboard.allenai.org/socialiqa/submissions/public
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F326">
+    <comment authorId="0" ref="F327">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/sherlock/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F297">
+    <comment authorId="0" ref="F298">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/qasc/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F292">
+    <comment authorId="0" ref="F293">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/protoqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F286">
+    <comment authorId="0" ref="F287">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/physicaliqa/submissions
 	-Jimmy Chou</t>
@@ -1648,7 +1648,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F397">
+    <comment authorId="0" ref="F398">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -1660,7 +1660,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F373">
+    <comment authorId="0" ref="F374">
       <text>
         <t xml:space="preserve">https://github.com/sambanova/toolbench/
 	-Jimmy Chou</t>
@@ -1746,7 +1746,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F296">
+    <comment authorId="0" ref="F297">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/q-future/Q-Bench-Leaderboard
 	-Jimmy Chou</t>
@@ -1836,13 +1836,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A281">
+    <comment authorId="0" ref="A282">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/VLMEvalKit/issues/78
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F281">
+    <comment authorId="0" ref="F282">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/open_vlm_leaderboard
 	-Jimmy Chou
@@ -1852,13 +1852,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F402">
+    <comment authorId="0" ref="F403">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F392">
+    <comment authorId="0" ref="F393">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -1887,7 +1887,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F432">
+    <comment authorId="0" ref="F433">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -1999,7 +1999,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A278">
+    <comment authorId="0" ref="A279">
       <text>
         <t xml:space="preserve">https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/24
 	-Jimmy Chou</t>
@@ -2011,25 +2011,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A355">
+    <comment authorId="0" ref="A356">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUElyb/issues/7
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A354">
+    <comment authorId="0" ref="A355">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/1
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A348">
+    <comment authorId="0" ref="A349">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/2
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A347">
+    <comment authorId="0" ref="A348">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/7
 	-Jimmy Chou</t>
@@ -2041,19 +2041,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A360">
+    <comment authorId="0" ref="A361">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A356">
+    <comment authorId="0" ref="A357">
       <text>
         <t xml:space="preserve">https://github.com/nyu-mll/jiant
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A314">
+    <comment authorId="0" ref="A315">
       <text>
         <t xml:space="preserve">https://github.com/thu-coai/Safety-Prompts
 	-Jimmy Chou</t>
@@ -2149,7 +2149,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F414">
+    <comment authorId="0" ref="F415">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2157,19 +2157,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F372">
+    <comment authorId="0" ref="F373">
       <text>
         <t xml:space="preserve">https://toloka.ai/llm-leaderboard/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F357">
+    <comment authorId="0" ref="F358">
       <text>
         <t xml:space="preserve">https://lab.kb.se/leaderboard/results
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F303">
+    <comment authorId="0" ref="F304">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/ought/raft-leaderboard
 	-Jimmy Chou</t>
@@ -2267,7 +2267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="912">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -3808,6 +3808,9 @@
   </si>
   <si>
     <t>Aliyun,East Money,Duxiaoman,Fudan University,Nanjing University,Nanyang Technological University,OPPO,Shanghai AI Laboratory,Tencent,TigerResearch,Chinese University of Hong Kong,Zhejiang University,Zhipu AI</t>
+  </si>
+  <si>
+    <t>OpenEQA</t>
   </si>
   <si>
     <t>OpenEval (code)</t>
@@ -10628,7 +10631,7 @@
         <v>513</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>20</v>
+        <v>433</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2">
@@ -10638,67 +10641,68 @@
         <v>21</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>514</v>
+        <v>199</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H278" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I278" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H278" s="7"/>
-      <c r="I278" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H279" s="7"/>
+      <c r="I279" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I279" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I280" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E280" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I280" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="281">
@@ -10706,364 +10710,372 @@
         <v>521</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>323</v>
+        <v>39</v>
       </c>
       <c r="E281" s="2">
         <v>4.0</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H281" s="10"/>
       <c r="I281" s="2" t="s">
-        <v>512</v>
+        <v>58</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
+      <c r="C282" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E282" s="2">
+        <v>4.0</v>
+      </c>
       <c r="F282" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H282" s="7" t="s">
-        <v>523</v>
+        <v>44</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H282" s="10"/>
+      <c r="I282" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+      <c r="F283" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H283" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E283" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H283" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I283" s="2" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E284" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H284" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I284" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="F284" s="2" t="s">
+    </row>
+    <row r="285">
+      <c r="A285" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H284" s="7" t="s">
+      <c r="H285" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I284" s="2"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="B285" s="4"/>
-      <c r="C285" s="5"/>
-      <c r="D285" s="5"/>
-      <c r="E285" s="4"/>
-      <c r="F285" s="6" t="s">
+      <c r="I285" s="2"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B286" s="4"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G285" s="5"/>
-      <c r="H285" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I285" s="5"/>
-      <c r="J285" s="4"/>
-      <c r="K285" s="4"/>
-      <c r="L285" s="4"/>
-      <c r="M285" s="4"/>
-      <c r="N285" s="4"/>
-      <c r="O285" s="4"/>
-      <c r="P285" s="4"/>
-      <c r="Q285" s="4"/>
-      <c r="R285" s="4"/>
-      <c r="S285" s="4"/>
-      <c r="T285" s="4"/>
-      <c r="U285" s="4"/>
-      <c r="V285" s="4"/>
-      <c r="W285" s="4"/>
-      <c r="X285" s="4"/>
-      <c r="Y285" s="4"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E286" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G286" s="5"/>
       <c r="H286" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I286" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I286" s="5"/>
+      <c r="J286" s="4"/>
+      <c r="K286" s="4"/>
+      <c r="L286" s="4"/>
+      <c r="M286" s="4"/>
+      <c r="N286" s="4"/>
+      <c r="O286" s="4"/>
+      <c r="P286" s="4"/>
+      <c r="Q286" s="4"/>
+      <c r="R286" s="4"/>
+      <c r="S286" s="4"/>
+      <c r="T286" s="4"/>
+      <c r="U286" s="4"/>
+      <c r="V286" s="4"/>
+      <c r="W286" s="4"/>
+      <c r="X286" s="4"/>
+      <c r="Y286" s="4"/>
     </row>
     <row r="287">
       <c r="A287" s="8" t="s">
         <v>528</v>
       </c>
+      <c r="C287" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E287" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F287" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H287" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="I287" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F288" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H288" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I288" s="2" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>39</v>
+        <v>531</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H289" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="H289" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I289" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G290" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H290" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="H290" s="10"/>
       <c r="I290" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2">
         <v>2.0</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H291" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H291" s="7"/>
       <c r="I291" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H292" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I292" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E292" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G292" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H292" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I292" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
+      <c r="C293" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E293" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F293" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H293" s="7" t="s">
-        <v>32</v>
+        <v>97</v>
+      </c>
+      <c r="I293" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="8" t="s">
         <v>540</v>
       </c>
+      <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>20</v>
+        <v>541</v>
       </c>
       <c r="D295" s="2"/>
-      <c r="E295" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F295" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G295" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H295" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I295" s="2" t="s">
-        <v>541</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H296" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I296" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E296" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H296" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I296" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>12</v>
+        <v>544</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E297" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G297" s="2" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>16</v>
+        <v>545</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="8" t="s">
         <v>546</v>
       </c>
+      <c r="C298" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E298" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F298" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H298" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I298" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="8" t="s">
@@ -11073,308 +11085,296 @@
         <v>10</v>
       </c>
       <c r="H299" s="7" t="s">
-        <v>548</v>
+        <v>97</v>
       </c>
       <c r="I299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H300" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H300" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I300" s="2" t="s">
-        <v>550</v>
-      </c>
+      <c r="I300" s="2"/>
     </row>
     <row r="301">
       <c r="A301" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H301" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I301" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="F301" s="2" t="s">
+    </row>
+    <row r="302">
+      <c r="A302" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H301" s="7" t="s">
+      <c r="H302" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I301" s="2"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="B302" s="4"/>
-      <c r="C302" s="5"/>
-      <c r="D302" s="5"/>
-      <c r="E302" s="4"/>
-      <c r="F302" s="6" t="s">
+      <c r="I302" s="2"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B303" s="4"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="4"/>
+      <c r="F303" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G302" s="4"/>
-      <c r="H302" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I302" s="5"/>
-      <c r="J302" s="4"/>
-      <c r="K302" s="4"/>
-      <c r="L302" s="4"/>
-      <c r="M302" s="4"/>
-      <c r="N302" s="4"/>
-      <c r="O302" s="4"/>
-      <c r="P302" s="4"/>
-      <c r="Q302" s="4"/>
-      <c r="R302" s="4"/>
-      <c r="S302" s="4"/>
-      <c r="T302" s="4"/>
-      <c r="U302" s="4"/>
-      <c r="V302" s="4"/>
-      <c r="W302" s="4"/>
-      <c r="X302" s="4"/>
-      <c r="Y302" s="4"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="G303" s="4"/>
       <c r="H303" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I303" s="2" t="s">
-        <v>554</v>
-      </c>
+      <c r="I303" s="5"/>
+      <c r="J303" s="4"/>
+      <c r="K303" s="4"/>
+      <c r="L303" s="4"/>
+      <c r="M303" s="4"/>
+      <c r="N303" s="4"/>
+      <c r="O303" s="4"/>
+      <c r="P303" s="4"/>
+      <c r="Q303" s="4"/>
+      <c r="R303" s="4"/>
+      <c r="S303" s="4"/>
+      <c r="T303" s="4"/>
+      <c r="U303" s="4"/>
+      <c r="V303" s="4"/>
+      <c r="W303" s="4"/>
+      <c r="X303" s="4"/>
+      <c r="Y303" s="4"/>
     </row>
     <row r="304">
       <c r="A304" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H304" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I304" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-      <c r="F304" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H304" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="8" t="s">
         <v>556</v>
       </c>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H305" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="C306" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2">
-        <v>4.0</v>
-      </c>
       <c r="F306" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G306" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I306" s="2" t="s">
-        <v>558</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H306" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H307" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H308" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I308" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="F308" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H308" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C309" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2">
-        <v>7.0</v>
-      </c>
       <c r="F309" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H309" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I309" s="2" t="s">
-        <v>563</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>565</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D310" s="2"/>
       <c r="E310" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H310" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E311" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H311" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I311" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F311" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H311" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="I311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H312" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D312" s="2"/>
-      <c r="E312" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H312" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I312" s="2" t="s">
-        <v>570</v>
-      </c>
+      <c r="I312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D313" s="2"/>
+      <c r="E313" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H313" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I313" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F313" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H313" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="I313" s="2"/>
     </row>
     <row r="314">
       <c r="A314" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H314" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D314" s="2"/>
-      <c r="E314" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H314" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I314" s="2" t="s">
-        <v>324</v>
-      </c>
+      <c r="I314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="8" t="s">
         <v>574</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>575</v>
+        <v>145</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2">
         <v>6.0</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -11383,24 +11383,22 @@
         <v>32</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>576</v>
+        <v>324</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>331</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="D316" s="2"/>
       <c r="E316" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
@@ -11409,170 +11407,172 @@
         <v>32</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>13</v>
+        <v>331</v>
       </c>
       <c r="E317" s="2">
         <v>2.0</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>14</v>
+        <v>173</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>580</v>
+        <v>32</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E318" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H318" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="I318" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="D318" s="2"/>
-      <c r="F318" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H318" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>181</v>
+        <v>583</v>
       </c>
       <c r="D319" s="2"/>
-      <c r="E319" s="2">
-        <v>7.0</v>
-      </c>
       <c r="F319" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H319" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I319" s="2" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G320" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H320" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>58</v>
+        <v>584</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="8" t="s">
         <v>585</v>
       </c>
+      <c r="C321" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321" s="2"/>
+      <c r="E321" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F321" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>586</v>
+        <v>32</v>
+      </c>
+      <c r="I321" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
+        <v>586</v>
+      </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I322" s="2"/>
+        <v>587</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="C323" s="2"/>
       <c r="D323" s="2"/>
-      <c r="E323" s="2">
-        <v>6.0</v>
-      </c>
+      <c r="E323" s="2"/>
       <c r="F323" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I323" s="2" t="s">
-        <v>588</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I323" s="2"/>
     </row>
     <row r="324">
       <c r="A324" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>323</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D324" s="2"/>
       <c r="E324" s="2">
         <v>6.0</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D325" s="2"/>
+      <c r="D325" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="E325" s="2">
         <v>6.0</v>
       </c>
@@ -11586,234 +11586,246 @@
         <v>32</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D326" s="2"/>
       <c r="E326" s="2">
         <v>6.0</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H326" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>16</v>
+        <v>593</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="8" t="s">
         <v>594</v>
       </c>
+      <c r="C327" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F327" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H327" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I327" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H327" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I327" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H328" s="7" t="s">
+      <c r="H328" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I328" s="2"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="8" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="12" t="s">
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
+      <c r="F329" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H329" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="B329" s="4"/>
-      <c r="C329" s="5"/>
-      <c r="D329" s="5"/>
-      <c r="E329" s="4"/>
-      <c r="F329" s="6" t="s">
+    </row>
+    <row r="330">
+      <c r="A330" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="B330" s="4"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G329" s="5"/>
-      <c r="H329" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="I329" s="5"/>
-      <c r="J329" s="4"/>
-      <c r="K329" s="4"/>
-      <c r="L329" s="4"/>
-      <c r="M329" s="4"/>
-      <c r="N329" s="4"/>
-      <c r="O329" s="4"/>
-      <c r="P329" s="4"/>
-      <c r="Q329" s="4"/>
-      <c r="R329" s="4"/>
-      <c r="S329" s="4"/>
-      <c r="T329" s="4"/>
-      <c r="U329" s="4"/>
-      <c r="V329" s="4"/>
-      <c r="W329" s="4"/>
-      <c r="X329" s="4"/>
-      <c r="Y329" s="4"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E330" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G330" s="5"/>
       <c r="H330" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="I330" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="I330" s="5"/>
+      <c r="J330" s="4"/>
+      <c r="K330" s="4"/>
+      <c r="L330" s="4"/>
+      <c r="M330" s="4"/>
+      <c r="N330" s="4"/>
+      <c r="O330" s="4"/>
+      <c r="P330" s="4"/>
+      <c r="Q330" s="4"/>
+      <c r="R330" s="4"/>
+      <c r="S330" s="4"/>
+      <c r="T330" s="4"/>
+      <c r="U330" s="4"/>
+      <c r="V330" s="4"/>
+      <c r="W330" s="4"/>
+      <c r="X330" s="4"/>
+      <c r="Y330" s="4"/>
     </row>
     <row r="331">
       <c r="A331" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E331" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H331" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="F331" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H331" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I331" s="2"/>
+      <c r="I331" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2">
-        <v>1.0</v>
-      </c>
       <c r="F332" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H332" s="9"/>
-      <c r="I332" s="2" t="s">
-        <v>268</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H332" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I332" s="2"/>
     </row>
     <row r="333">
       <c r="A333" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="C333" s="2"/>
+      <c r="C333" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D333" s="2"/>
+      <c r="E333" s="2">
+        <v>1.0</v>
+      </c>
       <c r="F333" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H333" s="9"/>
+      <c r="I333" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+      <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H333" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="12" t="s">
+      <c r="H334" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B334" s="4"/>
-      <c r="C334" s="5"/>
-      <c r="D334" s="5"/>
-      <c r="E334" s="4"/>
-      <c r="F334" s="6" t="s">
+    </row>
+    <row r="335">
+      <c r="A335" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="B335" s="4"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G334" s="5"/>
-      <c r="H334" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I334" s="5"/>
-      <c r="J334" s="4"/>
-      <c r="K334" s="4"/>
-      <c r="L334" s="4"/>
-      <c r="M334" s="4"/>
-      <c r="N334" s="4"/>
-      <c r="O334" s="4"/>
-      <c r="P334" s="4"/>
-      <c r="Q334" s="4"/>
-      <c r="R334" s="4"/>
-      <c r="S334" s="4"/>
-      <c r="T334" s="4"/>
-      <c r="U334" s="4"/>
-      <c r="V334" s="4"/>
-      <c r="W334" s="4"/>
-      <c r="X334" s="4"/>
-      <c r="Y334" s="4"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G335" s="5"/>
       <c r="H335" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I335" s="2" t="s">
-        <v>604</v>
-      </c>
+      <c r="I335" s="5"/>
+      <c r="J335" s="4"/>
+      <c r="K335" s="4"/>
+      <c r="L335" s="4"/>
+      <c r="M335" s="4"/>
+      <c r="N335" s="4"/>
+      <c r="O335" s="4"/>
+      <c r="P335" s="4"/>
+      <c r="Q335" s="4"/>
+      <c r="R335" s="4"/>
+      <c r="S335" s="4"/>
+      <c r="T335" s="4"/>
+      <c r="U335" s="4"/>
+      <c r="V335" s="4"/>
+      <c r="W335" s="4"/>
+      <c r="X335" s="4"/>
+      <c r="Y335" s="4"/>
     </row>
     <row r="336">
       <c r="A336" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2">
+        <v>6.0</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H336" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I336" s="2"/>
+      <c r="I336" s="2" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="8" t="s">
@@ -11835,7 +11847,7 @@
         <v>10</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I338" s="2"/>
     </row>
@@ -11847,19 +11859,19 @@
         <v>10</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>609</v>
+        <v>63</v>
       </c>
       <c r="I339" s="2"/>
     </row>
     <row r="340">
       <c r="A340" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>102</v>
+        <v>610</v>
       </c>
       <c r="I340" s="2"/>
     </row>
@@ -11871,119 +11883,110 @@
         <v>10</v>
       </c>
       <c r="H341" s="7" t="s">
-        <v>163</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E342" s="2">
-        <v>6.0</v>
+        <v>612</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G342" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H342" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="I342" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="8" t="s">
         <v>612</v>
       </c>
+      <c r="C343" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F343" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I343" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="I343" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E344" s="2">
-        <v>4.0</v>
-      </c>
       <c r="F344" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G344" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H344" s="7"/>
-      <c r="I344" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H344" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I344" s="2"/>
     </row>
     <row r="345">
       <c r="A345" s="8" t="s">
         <v>614</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D345" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E345" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H345" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H345" s="7"/>
       <c r="I345" s="2" t="s">
-        <v>615</v>
+        <v>58</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>617</v>
+        <v>20</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H346" s="7" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2">
@@ -11993,18 +11996,18 @@
         <v>36</v>
       </c>
       <c r="H347" s="7" t="s">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2">
@@ -12017,7 +12020,7 @@
         <v>270</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="349">
@@ -12025,7 +12028,7 @@
         <v>622</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2">
@@ -12038,7 +12041,7 @@
         <v>270</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="350">
@@ -12046,7 +12049,7 @@
         <v>623</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2">
@@ -12059,7 +12062,7 @@
         <v>270</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="351">
@@ -12067,7 +12070,7 @@
         <v>624</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2">
@@ -12077,89 +12080,91 @@
         <v>36</v>
       </c>
       <c r="H351" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I351" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D352" s="2"/>
+      <c r="E352" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H352" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I351" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="B352" s="4"/>
-      <c r="C352" s="5" t="s">
+      <c r="I352" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D352" s="5"/>
-      <c r="E352" s="18">
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B353" s="4"/>
+      <c r="C353" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" s="18">
         <v>4.0</v>
       </c>
-      <c r="F352" s="5" t="s">
+      <c r="F353" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G352" s="4"/>
-      <c r="H352" s="6" t="s">
+      <c r="G353" s="4"/>
+      <c r="H353" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="I352" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="J352" s="4"/>
-      <c r="K352" s="4"/>
-      <c r="L352" s="4"/>
-      <c r="M352" s="4"/>
-      <c r="N352" s="4"/>
-      <c r="O352" s="4"/>
-      <c r="P352" s="4"/>
-      <c r="Q352" s="4"/>
-      <c r="R352" s="4"/>
-      <c r="S352" s="4"/>
-      <c r="T352" s="4"/>
-      <c r="U352" s="4"/>
-      <c r="V352" s="4"/>
-      <c r="W352" s="4"/>
-      <c r="X352" s="4"/>
-      <c r="Y352" s="4"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D353" s="2"/>
-      <c r="E353" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F353" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H353" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I353" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="I353" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="J353" s="4"/>
+      <c r="K353" s="4"/>
+      <c r="L353" s="4"/>
+      <c r="M353" s="4"/>
+      <c r="N353" s="4"/>
+      <c r="O353" s="4"/>
+      <c r="P353" s="4"/>
+      <c r="Q353" s="4"/>
+      <c r="R353" s="4"/>
+      <c r="S353" s="4"/>
+      <c r="T353" s="4"/>
+      <c r="U353" s="4"/>
+      <c r="V353" s="4"/>
+      <c r="W353" s="4"/>
+      <c r="X353" s="4"/>
+      <c r="Y353" s="4"/>
     </row>
     <row r="354">
       <c r="A354" s="8" t="s">
         <v>627</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>20</v>
+        <v>618</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2">
         <v>4.0</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H354" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="H354" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="I354" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="355">
@@ -12167,7 +12172,7 @@
         <v>628</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2">
@@ -12176,9 +12181,9 @@
       <c r="F355" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H355" s="7"/>
+      <c r="H355" s="10"/>
       <c r="I355" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="356">
@@ -12186,146 +12191,141 @@
         <v>629</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H356" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H356" s="7"/>
       <c r="I356" s="2" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G357" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H357" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I357" s="8" t="s">
-        <v>632</v>
+        <v>63</v>
+      </c>
+      <c r="I357" s="2" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H358" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I358" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="F358" s="2" t="s">
+    </row>
+    <row r="359">
+      <c r="A359" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="F359" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H358" s="7" t="s">
+      <c r="H359" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I358" s="2"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="B359" s="4"/>
-      <c r="C359" s="5"/>
-      <c r="D359" s="5"/>
-      <c r="E359" s="4"/>
-      <c r="F359" s="6" t="s">
+      <c r="I359" s="2"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="B360" s="4"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="4"/>
+      <c r="F360" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G359" s="4"/>
-      <c r="H359" s="7" t="s">
+      <c r="G360" s="4"/>
+      <c r="H360" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I359" s="5"/>
-      <c r="J359" s="4"/>
-      <c r="K359" s="4"/>
-      <c r="L359" s="4"/>
-      <c r="M359" s="4"/>
-      <c r="N359" s="4"/>
-      <c r="O359" s="4"/>
-      <c r="P359" s="4"/>
-      <c r="Q359" s="4"/>
-      <c r="R359" s="4"/>
-      <c r="S359" s="4"/>
-      <c r="T359" s="4"/>
-      <c r="U359" s="4"/>
-      <c r="V359" s="4"/>
-      <c r="W359" s="4"/>
-      <c r="X359" s="4"/>
-      <c r="Y359" s="4"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F360" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H360" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I360" s="2" t="s">
-        <v>635</v>
-      </c>
+      <c r="I360" s="5"/>
+      <c r="J360" s="4"/>
+      <c r="K360" s="4"/>
+      <c r="L360" s="4"/>
+      <c r="M360" s="4"/>
+      <c r="N360" s="4"/>
+      <c r="O360" s="4"/>
+      <c r="P360" s="4"/>
+      <c r="Q360" s="4"/>
+      <c r="R360" s="4"/>
+      <c r="S360" s="4"/>
+      <c r="T360" s="4"/>
+      <c r="U360" s="4"/>
+      <c r="V360" s="4"/>
+      <c r="W360" s="4"/>
+      <c r="X360" s="4"/>
+      <c r="Y360" s="4"/>
     </row>
     <row r="361">
       <c r="A361" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>637</v>
+        <v>145</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2">
         <v>6.0</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G361" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>304</v>
+        <v>638</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>21</v>
@@ -12334,47 +12334,50 @@
         <v>15</v>
       </c>
       <c r="H362" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D363" s="2"/>
+      <c r="E363" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H363" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I363" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="F363" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H363" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="C364" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F364" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H364" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="I364" s="2" t="s">
-        <v>643</v>
+        <v>97</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>20</v>
@@ -12387,210 +12390,209 @@
         <v>21</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H366" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I366" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
-      <c r="F366" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H366" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="C367" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="C367" s="2"/>
       <c r="D367" s="2"/>
-      <c r="E367" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F367" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G367" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H367" s="7"/>
-      <c r="I367" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="H367" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="8" t="s">
         <v>648</v>
       </c>
+      <c r="C368" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F368" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H368" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I368" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H368" s="7"/>
+      <c r="I368" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="D369" s="2"/>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I369" s="2"/>
     </row>
     <row r="370">
       <c r="A370" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>145</v>
+        <v>650</v>
       </c>
       <c r="D370" s="2"/>
-      <c r="E370" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F370" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H370" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I370" s="2" t="s">
-        <v>650</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H371" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I371" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D371" s="2"/>
-      <c r="E371" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F371" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H371" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I371" s="2" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H372" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="H372" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I372" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G373" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H373" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H373" s="7"/>
       <c r="I373" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>399</v>
+        <v>39</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" s="2">
         <v>2.0</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H374" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H375" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I375" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
-      <c r="F375" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H375" s="7" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="F376" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H376" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D376" s="2"/>
-      <c r="E376" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F376" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G376" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H376" s="7"/>
-      <c r="I376" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="377">
@@ -12598,43 +12600,53 @@
         <v>662</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>663</v>
+        <v>39</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H377" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H377" s="7"/>
       <c r="I377" s="2" t="s">
-        <v>664</v>
+        <v>352</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H378" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I378" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="F378" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H378" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="I378" s="2"/>
     </row>
     <row r="379">
       <c r="A379" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H379" s="7" t="s">
-        <v>60</v>
+        <v>667</v>
       </c>
       <c r="I379" s="2"/>
     </row>
@@ -12642,80 +12654,71 @@
       <c r="A380" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="F380" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H380" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I380" s="2"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D380" s="2"/>
-      <c r="E380" s="2">
+      <c r="D381" s="2"/>
+      <c r="E381" s="2">
         <v>6.0</v>
       </c>
-      <c r="F380" s="2" t="s">
+      <c r="F381" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H380" s="7" t="s">
+      <c r="H381" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I380" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="12" t="s">
+      <c r="I381" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B381" s="4"/>
-      <c r="C381" s="5"/>
-      <c r="D381" s="5"/>
-      <c r="E381" s="4"/>
-      <c r="F381" s="6" t="s">
+    </row>
+    <row r="382">
+      <c r="A382" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="B382" s="4"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="4"/>
+      <c r="F382" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G381" s="4"/>
-      <c r="H381" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I381" s="5"/>
-      <c r="J381" s="4"/>
-      <c r="K381" s="4"/>
-      <c r="L381" s="4"/>
-      <c r="M381" s="4"/>
-      <c r="N381" s="4"/>
-      <c r="O381" s="4"/>
-      <c r="P381" s="4"/>
-      <c r="Q381" s="4"/>
-      <c r="R381" s="4"/>
-      <c r="S381" s="4"/>
-      <c r="T381" s="4"/>
-      <c r="U381" s="4"/>
-      <c r="V381" s="4"/>
-      <c r="W381" s="4"/>
-      <c r="X381" s="4"/>
-      <c r="Y381" s="4"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D382" s="2"/>
-      <c r="E382" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F382" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="G382" s="4"/>
       <c r="H382" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I382" s="2" t="s">
-        <v>671</v>
-      </c>
+      <c r="I382" s="5"/>
+      <c r="J382" s="4"/>
+      <c r="K382" s="4"/>
+      <c r="L382" s="4"/>
+      <c r="M382" s="4"/>
+      <c r="N382" s="4"/>
+      <c r="O382" s="4"/>
+      <c r="P382" s="4"/>
+      <c r="Q382" s="4"/>
+      <c r="R382" s="4"/>
+      <c r="S382" s="4"/>
+      <c r="T382" s="4"/>
+      <c r="U382" s="4"/>
+      <c r="V382" s="4"/>
+      <c r="W382" s="4"/>
+      <c r="X382" s="4"/>
+      <c r="Y382" s="4"/>
     </row>
     <row r="383">
       <c r="A383" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>20</v>
@@ -12728,23 +12731,32 @@
         <v>21</v>
       </c>
       <c r="H383" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D384" s="2"/>
+      <c r="E384" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H384" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I384" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="F384" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H384" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" s="8" t="s">
@@ -12754,7 +12766,7 @@
         <v>10</v>
       </c>
       <c r="H385" s="7" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="I385" s="2"/>
     </row>
@@ -12766,7 +12778,7 @@
         <v>10</v>
       </c>
       <c r="H386" s="7" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="I386" s="2"/>
     </row>
@@ -12774,147 +12786,146 @@
       <c r="A387" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="C387" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E387" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F387" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G387" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H387" s="7"/>
-      <c r="I387" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H387" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I387" s="2"/>
     </row>
     <row r="388">
       <c r="A388" s="8" t="s">
         <v>678</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D388" s="2"/>
-      <c r="E388" s="2">
-        <v>2.0</v>
+        <v>39</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H388" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H388" s="7"/>
       <c r="I388" s="2" t="s">
-        <v>679</v>
+        <v>58</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="C389" s="2"/>
+        <v>679</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D389" s="2"/>
+      <c r="E389" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F389" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H389" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="I389" s="2" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="C390" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="E390" s="2">
-        <v>2.0</v>
-      </c>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
       <c r="F390" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G390" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H390" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I390" s="2" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D391" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
+      <c r="E391" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F391" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H391" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="I391" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="C392" s="2" t="s">
-        <v>685</v>
-      </c>
+      <c r="C392" s="2"/>
       <c r="D392" s="2"/>
-      <c r="E392" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F392" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H392" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I392" s="2" t="s">
-        <v>686</v>
+        <v>27</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D393" s="2"/>
+      <c r="E393" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H393" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I393" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="F393" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H393" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
       <c r="F394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H394" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I394" s="2"/>
     </row>
     <row r="395">
       <c r="A395" s="8" t="s">
@@ -12926,7 +12937,7 @@
         <v>10</v>
       </c>
       <c r="H395" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396">
@@ -12939,40 +12950,41 @@
         <v>10</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="C397" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C397" s="2"/>
       <c r="D397" s="2"/>
-      <c r="E397" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F397" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H397" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I397" s="2" t="s">
-        <v>692</v>
+        <v>141</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D398" s="2"/>
+      <c r="E398" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F398" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H398" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="I398" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="399">
@@ -12989,147 +13001,147 @@
     </row>
     <row r="400">
       <c r="A400" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>81</v>
+        <v>695</v>
       </c>
       <c r="D400" s="2"/>
-      <c r="E400" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F400" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H400" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I400" s="2" t="s">
-        <v>695</v>
+        <v>32</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D401" s="2"/>
+      <c r="E401" s="2">
+        <v>2.0</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H401" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I401" s="2"/>
+      <c r="I401" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="E402" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F402" s="2" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="H402" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I402" s="2" t="s">
-        <v>700</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I402" s="2"/>
     </row>
     <row r="403">
       <c r="A403" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E403" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H403" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I403" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D403" s="2"/>
-      <c r="E403" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F403" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H403" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I403" s="2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D404" s="2"/>
+      <c r="E404" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H404" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I404" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="F404" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H404" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I404" s="2"/>
     </row>
     <row r="405">
       <c r="A405" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="C405" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D405" s="2"/>
-      <c r="E405" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F405" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H405" s="7"/>
-      <c r="I405" s="2" t="s">
-        <v>705</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H405" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I405" s="2"/>
     </row>
     <row r="406">
       <c r="A406" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H406" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H406" s="7"/>
       <c r="I406" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D407" s="2"/>
+      <c r="E407" s="2">
+        <v>6.0</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G407" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H407" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I407" s="2"/>
+      <c r="I407" s="2" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="8" t="s">
@@ -13139,8 +13151,9 @@
         <v>10</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I408" s="2"/>
     </row>
     <row r="409">
       <c r="A409" s="8" t="s">
@@ -13150,9 +13163,8 @@
         <v>10</v>
       </c>
       <c r="H409" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I409" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="8" t="s">
@@ -13162,8 +13174,9 @@
         <v>10</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I410" s="2"/>
     </row>
     <row r="411">
       <c r="A411" s="8" t="s">
@@ -13173,7 +13186,7 @@
         <v>10</v>
       </c>
       <c r="H411" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="412">
@@ -13184,9 +13197,8 @@
         <v>10</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I412" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="8" t="s">
@@ -13196,8 +13208,9 @@
         <v>10</v>
       </c>
       <c r="H413" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" s="8" t="s">
@@ -13207,44 +13220,43 @@
         <v>10</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I414" s="2"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="E415" s="2">
-        <v>6.0</v>
+        <v>716</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H415" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I415" s="2" t="s">
-        <v>716</v>
-      </c>
+      <c r="I415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E416" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H416" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I416" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="F416" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H416" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" s="8" t="s">
@@ -13254,7 +13266,7 @@
         <v>10</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I417" s="2"/>
     </row>
@@ -13266,7 +13278,7 @@
         <v>10</v>
       </c>
       <c r="H418" s="7" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I418" s="2"/>
     </row>
@@ -13286,33 +13298,24 @@
       <c r="A420" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="C420" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2" t="s">
-        <v>722</v>
-      </c>
       <c r="F420" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G420" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I420" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H420" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I420" s="2"/>
     </row>
     <row r="421">
       <c r="A421" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D421" s="2"/>
-      <c r="E421" s="2">
-        <v>3.0</v>
+      <c r="E421" s="2" t="s">
+        <v>723</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>40</v>
@@ -13321,79 +13324,88 @@
         <v>15</v>
       </c>
       <c r="I421" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="8" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="12" t="s">
+      <c r="C422" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D422" s="2"/>
+      <c r="E422" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I422" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B422" s="4"/>
-      <c r="C422" s="5"/>
-      <c r="D422" s="5"/>
-      <c r="E422" s="4"/>
-      <c r="F422" s="6" t="s">
+    </row>
+    <row r="423">
+      <c r="A423" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="B423" s="4"/>
+      <c r="C423" s="5"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="4"/>
+      <c r="F423" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G422" s="5"/>
-      <c r="H422" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I422" s="5"/>
-      <c r="J422" s="4"/>
-      <c r="K422" s="4"/>
-      <c r="L422" s="4"/>
-      <c r="M422" s="4"/>
-      <c r="N422" s="4"/>
-      <c r="O422" s="4"/>
-      <c r="P422" s="4"/>
-      <c r="Q422" s="4"/>
-      <c r="R422" s="4"/>
-      <c r="S422" s="4"/>
-      <c r="T422" s="4"/>
-      <c r="U422" s="4"/>
-      <c r="V422" s="4"/>
-      <c r="W422" s="4"/>
-      <c r="X422" s="4"/>
-      <c r="Y422" s="4"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E423" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F423" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G423" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G423" s="5"/>
       <c r="H423" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I423" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I423" s="5"/>
+      <c r="J423" s="4"/>
+      <c r="K423" s="4"/>
+      <c r="L423" s="4"/>
+      <c r="M423" s="4"/>
+      <c r="N423" s="4"/>
+      <c r="O423" s="4"/>
+      <c r="P423" s="4"/>
+      <c r="Q423" s="4"/>
+      <c r="R423" s="4"/>
+      <c r="S423" s="4"/>
+      <c r="T423" s="4"/>
+      <c r="U423" s="4"/>
+      <c r="V423" s="4"/>
+      <c r="W423" s="4"/>
+      <c r="X423" s="4"/>
+      <c r="Y423" s="4"/>
     </row>
     <row r="424">
       <c r="A424" s="8" t="s">
         <v>726</v>
       </c>
+      <c r="C424" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E424" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F424" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H424" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I424" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I424" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="8" t="s">
@@ -13403,19 +13415,19 @@
         <v>10</v>
       </c>
       <c r="H425" s="7" t="s">
-        <v>728</v>
+        <v>25</v>
       </c>
       <c r="I425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H426" s="7" t="s">
-        <v>97</v>
+        <v>729</v>
       </c>
       <c r="I426" s="2"/>
     </row>
@@ -13427,7 +13439,7 @@
         <v>10</v>
       </c>
       <c r="H427" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I427" s="2"/>
     </row>
@@ -13439,121 +13451,129 @@
         <v>10</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>732</v>
+        <v>60</v>
       </c>
       <c r="I428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
+        <v>732</v>
+      </c>
       <c r="F429" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H429" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="H429" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="I429" s="2"/>
     </row>
     <row r="430">
       <c r="A430" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="C430" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="C430" s="2"/>
       <c r="D430" s="2"/>
-      <c r="E430" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F430" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H430" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I430" s="2" t="s">
-        <v>735</v>
+        <v>10</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D431" s="2"/>
+      <c r="E431" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H431" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I431" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="F431" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H431" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="C432" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E432" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F432" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G432" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H432" s="7"/>
-      <c r="I432" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H432" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>739</v>
       </c>
+      <c r="D433" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E433" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F433" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H433" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I433" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H433" s="7"/>
+      <c r="I433" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="C434" s="2" t="s">
+      <c r="F434" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H434" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I434" s="2"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D434" s="2" t="s">
+      <c r="D435" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E434" s="2">
+      <c r="E435" s="2">
         <v>6.0</v>
       </c>
-      <c r="F434" s="2" t="s">
+      <c r="F435" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G434" s="2" t="s">
+      <c r="G435" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H434" s="2" t="s">
+      <c r="H435" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I434" s="2" t="s">
+      <c r="I435" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="435">
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
     </row>
     <row r="436">
       <c r="C436" s="2"/>
@@ -16062,8 +16082,8 @@
     <hyperlink r:id="rId276" ref="A275"/>
     <hyperlink r:id="rId277" ref="A276"/>
     <hyperlink r:id="rId278" ref="A277"/>
-    <hyperlink r:id="rId279" location="/rank" ref="A278"/>
-    <hyperlink r:id="rId280" ref="A279"/>
+    <hyperlink r:id="rId279" ref="A278"/>
+    <hyperlink r:id="rId280" location="/rank" ref="A279"/>
     <hyperlink r:id="rId281" ref="A280"/>
     <hyperlink r:id="rId282" ref="A281"/>
     <hyperlink r:id="rId283" ref="A282"/>
@@ -16142,8 +16162,8 @@
     <hyperlink r:id="rId356" ref="A355"/>
     <hyperlink r:id="rId357" ref="A356"/>
     <hyperlink r:id="rId358" ref="A357"/>
-    <hyperlink r:id="rId359" ref="I357"/>
-    <hyperlink r:id="rId360" ref="A358"/>
+    <hyperlink r:id="rId359" ref="A358"/>
+    <hyperlink r:id="rId360" ref="I358"/>
     <hyperlink r:id="rId361" ref="A359"/>
     <hyperlink r:id="rId362" ref="A360"/>
     <hyperlink r:id="rId363" ref="A361"/>
@@ -16220,9 +16240,10 @@
     <hyperlink r:id="rId434" ref="A432"/>
     <hyperlink r:id="rId435" ref="A433"/>
     <hyperlink r:id="rId436" ref="A434"/>
+    <hyperlink r:id="rId437" ref="A435"/>
   </hyperlinks>
-  <drawing r:id="rId437"/>
-  <legacyDrawing r:id="rId438"/>
+  <drawing r:id="rId438"/>
+  <legacyDrawing r:id="rId439"/>
 </worksheet>
 </file>
 
@@ -16238,22 +16259,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -16277,27 +16298,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -16324,172 +16345,172 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="16" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35">
@@ -16542,42 +16563,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -16605,7 +16626,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16635,7 +16656,7 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16665,7 +16686,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16695,7 +16716,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -16725,7 +16746,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -16755,7 +16776,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -16785,7 +16806,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -16815,7 +16836,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -16845,7 +16866,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -16875,7 +16896,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -16905,7 +16926,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -16935,7 +16956,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -16965,7 +16986,7 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -16995,7 +17016,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -17025,7 +17046,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -17055,7 +17076,7 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -17085,7 +17106,7 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -17115,7 +17136,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17145,7 +17166,7 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17175,7 +17196,7 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17205,7 +17226,7 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -17235,7 +17256,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -17265,7 +17286,7 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -17295,7 +17316,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -17325,7 +17346,7 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17355,7 +17376,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -17385,7 +17406,7 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -17415,7 +17436,7 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -17445,7 +17466,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -17475,7 +17496,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -44678,192 +44699,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -44917,112 +44938,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -45060,57 +45081,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -45140,267 +45161,267 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="16" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="16" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="16" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="16" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="16" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="16" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -25,6 +25,30 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="H357">
+      <text>
+        <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_role.html
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F357">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H356">
+      <text>
+        <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_rag.html
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F356">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="E348">
       <text>
         <t xml:space="preserve">https://fm.ai.tsinghua.edu.cn/superbench/#/evaluation
@@ -37,7 +61,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E363">
+    <comment authorId="0" ref="E365">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench/issues/46
 	-Jimmy Chou</t>
@@ -93,7 +117,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J420">
+    <comment authorId="0" ref="J422">
       <text>
         <t xml:space="preserve">Algorithm: Length Penalty
 	-Jimmy Chou</t>
@@ -759,13 +783,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A393">
+    <comment authorId="0" ref="A395">
       <text>
         <t xml:space="preserve">https://github.com/Re-Align/URIAL
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A423">
+    <comment authorId="0" ref="A425">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
@@ -865,7 +889,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J372">
+    <comment authorId="0" ref="J374">
       <text>
         <t xml:space="preserve">https://toloka.ai/talk-to-us/
 	-Jimmy Chou</t>
@@ -937,7 +961,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H356">
+    <comment authorId="0" ref="H358">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_safety.html
 	-Jimmy Chou</t>
@@ -1023,7 +1047,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A418">
+    <comment authorId="0" ref="A420">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
@@ -1041,7 +1065,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A426">
+    <comment authorId="0" ref="A428">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
@@ -1122,7 +1146,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A437">
+    <comment authorId="0" ref="A439">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
@@ -1140,19 +1164,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A406">
+    <comment authorId="0" ref="A408">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A373">
+    <comment authorId="0" ref="A375">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A360">
+    <comment authorId="0" ref="A362">
       <text>
         <t xml:space="preserve">https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
@@ -1392,19 +1416,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F385">
+    <comment authorId="0" ref="F387">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J402">
+    <comment authorId="0" ref="J404">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard/discussions/1
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J415">
+    <comment authorId="0" ref="J417">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard-Full/discussions/1
 	-Jimmy Chou</t>
@@ -1480,7 +1504,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F356">
+    <comment authorId="0" ref="F358">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
@@ -1576,13 +1600,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F437">
+    <comment authorId="0" ref="F439">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F426">
+    <comment authorId="0" ref="F428">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
@@ -1654,25 +1678,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F400">
+    <comment authorId="0" ref="F402">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J382">
+    <comment authorId="0" ref="J384">
       <text>
         <t xml:space="preserve">https://github.com/sylinrl/TruthfulQA/issues/8
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F376">
+    <comment authorId="0" ref="F378">
       <text>
         <t xml:space="preserve">https://github.com/sambanova/toolbench/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J361">
+    <comment authorId="0" ref="J363">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/T-Eval
 	-Jimmy Chou
@@ -1778,7 +1802,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I388">
+    <comment authorId="0" ref="I390">
       <text>
         <t xml:space="preserve">IEEE International Conference on Acoustics, Speech and Signal Processing
 	-Jimmy Chou</t>
@@ -1790,7 +1814,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J352">
+    <comment authorId="0" ref="J354">
       <text>
         <t xml:space="preserve">Table belongs to text
 	-Jimmy Chou</t>
@@ -1858,13 +1882,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F405">
+    <comment authorId="0" ref="F407">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F395">
+    <comment authorId="0" ref="F397">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -1893,7 +1917,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F435">
+    <comment authorId="0" ref="F437">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -1963,7 +1987,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I398">
+    <comment authorId="0" ref="I400">
       <text>
         <t xml:space="preserve">Workshop on Machine Translation
 	-Jimmy Chou</t>
@@ -2017,13 +2041,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A358">
+    <comment authorId="0" ref="A360">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUElyb/issues/7
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A357">
+    <comment authorId="0" ref="A359">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/1
 	-Jimmy Chou</t>
@@ -2047,13 +2071,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A363">
+    <comment authorId="0" ref="A365">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A359">
+    <comment authorId="0" ref="A361">
       <text>
         <t xml:space="preserve">https://github.com/nyu-mll/jiant
 	-Jimmy Chou</t>
@@ -2155,7 +2179,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F417">
+    <comment authorId="0" ref="F419">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2163,13 +2187,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F375">
+    <comment authorId="0" ref="F377">
       <text>
         <t xml:space="preserve">https://toloka.ai/llm-leaderboard/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F360">
+    <comment authorId="0" ref="F362">
       <text>
         <t xml:space="preserve">https://lab.kb.se/leaderboard/results
 	-Jimmy Chou</t>
@@ -2273,7 +2297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="918">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -4162,6 +4186,15 @@
   </si>
   <si>
     <t>SuperCLUE-Open</t>
+  </si>
+  <si>
+    <t>SuperCLUE-RAG</t>
+  </si>
+  <si>
+    <t>SuperCLUE-Role</t>
+  </si>
+  <si>
+    <t>ip:Sortable Table,gh:Table Screenshot</t>
   </si>
   <si>
     <t>SuperCLUE-Safety</t>
@@ -4559,6 +4592,9 @@
   </si>
   <si>
     <t>https://github.com/open-compass/MathBench/issues/4</t>
+  </si>
+  <si>
+    <t>https://github.com/CMMMU-Benchmark/CMMMU/issues/3</t>
   </si>
   <si>
     <t>Leaderboard</t>
@@ -12219,18 +12255,18 @@
       <c r="A356" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="C356" s="2" t="s">
-        <v>620</v>
+      <c r="C356" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2">
         <v>4.0</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H356" s="7" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="I356" s="2" t="s">
         <v>619</v>
@@ -12241,61 +12277,60 @@
         <v>630</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>20</v>
+        <v>631</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2">
         <v>4.0</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H357" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="H357" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="I357" s="2" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>81</v>
+        <v>620</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2">
         <v>4.0</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H358" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="H358" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="I358" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H359" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H359" s="10"/>
       <c r="I359" s="2" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
     </row>
     <row r="360">
@@ -12303,145 +12338,153 @@
         <v>634</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H360" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I360" s="8" t="s">
-        <v>635</v>
+        <v>21</v>
+      </c>
+      <c r="H360" s="7"/>
+      <c r="I360" s="2" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D361" s="2"/>
+      <c r="E361" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H361" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I361" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="F361" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H361" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I361" s="2"/>
     </row>
     <row r="362">
-      <c r="A362" s="12" t="s">
+      <c r="A362" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="B362" s="4"/>
-      <c r="C362" s="5"/>
-      <c r="D362" s="5"/>
-      <c r="E362" s="4"/>
-      <c r="F362" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G362" s="4"/>
+      <c r="C362" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H362" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I362" s="5"/>
-      <c r="J362" s="4"/>
-      <c r="K362" s="4"/>
-      <c r="L362" s="4"/>
-      <c r="M362" s="4"/>
-      <c r="N362" s="4"/>
-      <c r="O362" s="4"/>
-      <c r="P362" s="4"/>
-      <c r="Q362" s="4"/>
-      <c r="R362" s="4"/>
-      <c r="S362" s="4"/>
-      <c r="T362" s="4"/>
-      <c r="U362" s="4"/>
-      <c r="V362" s="4"/>
-      <c r="W362" s="4"/>
-      <c r="X362" s="4"/>
-      <c r="Y362" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="I362" s="8" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2">
-        <v>6.0</v>
+        <v>639</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H363" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I363" s="2" t="s">
-        <v>638</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I363" s="2"/>
     </row>
     <row r="364">
-      <c r="A364" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="C364" s="2" t="s">
+      <c r="A364" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F364" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G364" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B364" s="4"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="4"/>
+      <c r="F364" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G364" s="4"/>
       <c r="H364" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I364" s="2" t="s">
-        <v>641</v>
-      </c>
+      <c r="I364" s="5"/>
+      <c r="J364" s="4"/>
+      <c r="K364" s="4"/>
+      <c r="L364" s="4"/>
+      <c r="M364" s="4"/>
+      <c r="N364" s="4"/>
+      <c r="O364" s="4"/>
+      <c r="P364" s="4"/>
+      <c r="Q364" s="4"/>
+      <c r="R364" s="4"/>
+      <c r="S364" s="4"/>
+      <c r="T364" s="4"/>
+      <c r="U364" s="4"/>
+      <c r="V364" s="4"/>
+      <c r="W364" s="4"/>
+      <c r="X364" s="4"/>
+      <c r="Y364" s="4"/>
     </row>
     <row r="365">
       <c r="A365" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G365" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H365" s="7" t="s">
         <v>123</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H366" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I366" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="F366" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H366" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="367">
@@ -12449,17 +12492,20 @@
         <v>645</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G367" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H367" s="7" t="s">
-        <v>450</v>
+        <v>123</v>
       </c>
       <c r="I367" s="2" t="s">
         <v>646</v>
@@ -12469,34 +12515,32 @@
       <c r="A368" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="C368" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F368" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I368" s="2" t="s">
-        <v>648</v>
+        <v>97</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D369" s="2"/>
+      <c r="E369" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H369" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I369" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
-      <c r="F369" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H369" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="370">
@@ -12504,421 +12548,421 @@
         <v>650</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G370" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H370" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="H370" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="I370" s="2" t="s">
-        <v>58</v>
+        <v>651</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="8" t="s">
-        <v>651</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H371" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I371" s="2"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D372" s="2"/>
+      <c r="E372" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F372" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H372" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H372" s="7"/>
+      <c r="I372" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2" t="s">
-        <v>115</v>
+        <v>654</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H373" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I373" s="2" t="s">
-        <v>653</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I373" s="2"/>
     </row>
     <row r="374">
       <c r="A374" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>20</v>
+        <v>655</v>
       </c>
       <c r="D374" s="2"/>
-      <c r="E374" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F374" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="H374" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I374" s="2" t="s">
-        <v>655</v>
+        <v>32</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H375" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I375" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D375" s="2"/>
-      <c r="E375" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H375" s="7"/>
-      <c r="I375" s="2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2">
         <v>2.0</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G376" s="2" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>400</v>
+        <v>43</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H377" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H377" s="7"/>
       <c r="I377" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H378" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I378" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
-      <c r="F378" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H378" s="7" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>39</v>
+        <v>400</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G379" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H379" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="H379" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I379" s="2" t="s">
-        <v>353</v>
+        <v>664</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+      <c r="F380" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H380" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="D380" s="2"/>
-      <c r="E380" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F380" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H380" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I380" s="2" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D381" s="2"/>
+      <c r="E381" s="2">
+        <v>4.0</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H381" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="I381" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H381" s="7"/>
+      <c r="I381" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D382" s="2"/>
+      <c r="E382" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H382" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I382" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="F382" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H382" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I382" s="2"/>
     </row>
     <row r="383">
       <c r="A383" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="C383" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D383" s="2"/>
-      <c r="E383" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F383" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H383" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I383" s="2" t="s">
         <v>672</v>
       </c>
+      <c r="I383" s="2"/>
     </row>
     <row r="384">
-      <c r="A384" s="12" t="s">
+      <c r="A384" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="B384" s="4"/>
-      <c r="C384" s="5"/>
-      <c r="D384" s="5"/>
-      <c r="E384" s="4"/>
-      <c r="F384" s="6" t="s">
+      <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G384" s="4"/>
       <c r="H384" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I384" s="5"/>
-      <c r="J384" s="4"/>
-      <c r="K384" s="4"/>
-      <c r="L384" s="4"/>
-      <c r="M384" s="4"/>
-      <c r="N384" s="4"/>
-      <c r="O384" s="4"/>
-      <c r="P384" s="4"/>
-      <c r="Q384" s="4"/>
-      <c r="R384" s="4"/>
-      <c r="S384" s="4"/>
-      <c r="T384" s="4"/>
-      <c r="U384" s="4"/>
-      <c r="V384" s="4"/>
-      <c r="W384" s="4"/>
-      <c r="X384" s="4"/>
-      <c r="Y384" s="4"/>
+      <c r="I384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H385" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I385" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="B386" s="4"/>
+      <c r="C386" s="5"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="4"/>
+      <c r="F386" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G386" s="4"/>
+      <c r="H386" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I385" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="C386" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F386" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H386" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I386" s="2" t="s">
-        <v>676</v>
-      </c>
+      <c r="I386" s="5"/>
+      <c r="J386" s="4"/>
+      <c r="K386" s="4"/>
+      <c r="L386" s="4"/>
+      <c r="M386" s="4"/>
+      <c r="N386" s="4"/>
+      <c r="O386" s="4"/>
+      <c r="P386" s="4"/>
+      <c r="Q386" s="4"/>
+      <c r="R386" s="4"/>
+      <c r="S386" s="4"/>
+      <c r="T386" s="4"/>
+      <c r="U386" s="4"/>
+      <c r="V386" s="4"/>
+      <c r="W386" s="4"/>
+      <c r="X386" s="4"/>
+      <c r="Y386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D387" s="2"/>
+      <c r="E387" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H387" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I387" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="F387" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H387" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I387" s="2"/>
     </row>
     <row r="388">
       <c r="A388" s="8" t="s">
         <v>678</v>
       </c>
+      <c r="C388" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D388" s="2"/>
+      <c r="E388" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F388" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I388" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I389" s="2"/>
     </row>
     <row r="390">
       <c r="A390" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E390" s="2" t="s">
-        <v>115</v>
+        <v>681</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G390" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H390" s="7"/>
-      <c r="I390" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H390" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I390" s="2"/>
     </row>
     <row r="391">
       <c r="A391" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D391" s="2"/>
-      <c r="E391" s="2">
-        <v>2.0</v>
+        <v>682</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H391" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I391" s="2" t="s">
-        <v>682</v>
-      </c>
+      <c r="I391" s="2"/>
     </row>
     <row r="392">
       <c r="A392" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
+      <c r="C392" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F392" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H392" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H392" s="7"/>
+      <c r="I392" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="393">
@@ -12926,25 +12970,20 @@
         <v>684</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>685</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D393" s="2"/>
       <c r="E393" s="2">
         <v>2.0</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H393" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>318</v>
+        <v>685</v>
       </c>
     </row>
     <row r="394">
@@ -12957,7 +12996,7 @@
         <v>10</v>
       </c>
       <c r="H394" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="395">
@@ -12965,14 +13004,16 @@
         <v>687</v>
       </c>
       <c r="C395" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D395" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="D395" s="2"/>
       <c r="E395" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="G395" s="2" t="s">
         <v>15</v>
@@ -12981,50 +13022,61 @@
         <v>32</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>689</v>
+        <v>318</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="8" t="s">
-        <v>690</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I396" s="2"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C397" s="2"/>
       <c r="D397" s="2"/>
+      <c r="E397" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F397" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H397" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
+        <v>693</v>
+      </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H398" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="I398" s="2"/>
     </row>
     <row r="399">
       <c r="A399" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -13032,158 +13084,153 @@
         <v>10</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="C400" s="2"/>
       <c r="D400" s="2"/>
-      <c r="E400" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F400" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H400" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I400" s="2" t="s">
-        <v>695</v>
+        <v>25</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="8" t="s">
         <v>696</v>
       </c>
+      <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="F401" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="8" t="s">
         <v>697</v>
       </c>
+      <c r="C402" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D402" s="2"/>
+      <c r="E402" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F402" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H402" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="I402" s="2" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>81</v>
+        <v>699</v>
       </c>
       <c r="D403" s="2"/>
-      <c r="E403" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F403" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H403" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I403" s="2" t="s">
-        <v>698</v>
+        <v>32</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="8" t="s">
-        <v>699</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D404" s="2"/>
       <c r="F404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H404" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I404" s="2"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="8" t="s">
         <v>700</v>
       </c>
       <c r="C405" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D405" s="2"/>
+      <c r="E405" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H405" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I405" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="E405" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F405" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H405" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I405" s="2" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D406" s="2"/>
-      <c r="E406" s="2">
-        <v>2.0</v>
+        <v>702</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H406" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I406" s="2" t="s">
-        <v>705</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I406" s="2"/>
     </row>
     <row r="407">
       <c r="A407" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E407" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H407" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I407" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="F407" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H407" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I407" s="2"/>
     </row>
     <row r="408">
       <c r="A408" s="8" t="s">
         <v>707</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" s="2">
         <v>2.0</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H408" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="H408" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I408" s="2" t="s">
         <v>708</v>
       </c>
@@ -13192,109 +13239,117 @@
       <c r="A409" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="C409" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D409" s="2"/>
-      <c r="E409" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F409" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G409" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H409" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I409" s="2" t="s">
-        <v>710</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I409" s="2"/>
     </row>
     <row r="410">
       <c r="A410" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H410" s="7"/>
+      <c r="I410" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="F410" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H410" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I410" s="2"/>
     </row>
     <row r="411">
       <c r="A411" s="8" t="s">
         <v>712</v>
       </c>
+      <c r="C411" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F411" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H411" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="I411" s="2" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I412" s="2"/>
     </row>
     <row r="413">
       <c r="A413" s="8" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H413" s="7" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H415" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I415" s="2"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H416" s="7" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
@@ -13306,36 +13361,24 @@
     </row>
     <row r="418">
       <c r="A418" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="E418" s="2">
-        <v>6.0</v>
+        <v>720</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H418" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I418" s="2" t="s">
-        <v>719</v>
+        <v>141</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H419" s="7" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="I419" s="2"/>
     </row>
@@ -13343,162 +13386,173 @@
       <c r="A420" s="8" t="s">
         <v>721</v>
       </c>
+      <c r="C420" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E420" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F420" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H420" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I420" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H421" s="7" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="I421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H422" s="7" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D423" s="2"/>
-      <c r="E423" s="2" t="s">
         <v>725</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G423" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I423" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H423" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="F424" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H424" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I424" s="2"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="C425" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F424" s="2" t="s">
+      <c r="D425" s="2"/>
+      <c r="E425" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="F425" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G424" s="2" t="s">
+      <c r="G425" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I424" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="B425" s="4"/>
-      <c r="C425" s="5"/>
-      <c r="D425" s="5"/>
-      <c r="E425" s="4"/>
-      <c r="F425" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G425" s="5"/>
-      <c r="H425" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I425" s="5"/>
-      <c r="J425" s="4"/>
-      <c r="K425" s="4"/>
-      <c r="L425" s="4"/>
-      <c r="M425" s="4"/>
-      <c r="N425" s="4"/>
-      <c r="O425" s="4"/>
-      <c r="P425" s="4"/>
-      <c r="Q425" s="4"/>
-      <c r="R425" s="4"/>
-      <c r="S425" s="4"/>
-      <c r="T425" s="4"/>
-      <c r="U425" s="4"/>
-      <c r="V425" s="4"/>
-      <c r="W425" s="4"/>
-      <c r="X425" s="4"/>
-      <c r="Y425" s="4"/>
+      <c r="I425" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D426" s="2"/>
       <c r="E426" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G426" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H426" s="7" t="s">
+      <c r="I426" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="B427" s="4"/>
+      <c r="C427" s="5"/>
+      <c r="D427" s="5"/>
+      <c r="E427" s="4"/>
+      <c r="F427" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G427" s="5"/>
+      <c r="H427" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I426" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="F427" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H427" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I427" s="2"/>
+      <c r="I427" s="5"/>
+      <c r="J427" s="4"/>
+      <c r="K427" s="4"/>
+      <c r="L427" s="4"/>
+      <c r="M427" s="4"/>
+      <c r="N427" s="4"/>
+      <c r="O427" s="4"/>
+      <c r="P427" s="4"/>
+      <c r="Q427" s="4"/>
+      <c r="R427" s="4"/>
+      <c r="S427" s="4"/>
+      <c r="T427" s="4"/>
+      <c r="U427" s="4"/>
+      <c r="V427" s="4"/>
+      <c r="W427" s="4"/>
+      <c r="X427" s="4"/>
+      <c r="Y427" s="4"/>
     </row>
     <row r="428">
       <c r="A428" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E428" s="2">
+        <v>6.0</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="I428" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="8" t="s">
@@ -13508,7 +13562,7 @@
         <v>10</v>
       </c>
       <c r="H429" s="7" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I429" s="2"/>
     </row>
@@ -13520,19 +13574,19 @@
         <v>10</v>
       </c>
       <c r="H430" s="7" t="s">
-        <v>60</v>
+        <v>734</v>
       </c>
       <c r="I430" s="2"/>
     </row>
     <row r="431">
       <c r="A431" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H431" s="7" t="s">
-        <v>735</v>
+        <v>97</v>
       </c>
       <c r="I431" s="2"/>
     </row>
@@ -13540,70 +13594,58 @@
       <c r="A432" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
       <c r="F432" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H432" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="H432" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="C433" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D433" s="2"/>
-      <c r="E433" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F433" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I433" s="2" t="s">
         <v>738</v>
       </c>
+      <c r="I433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="8" t="s">
         <v>739</v>
       </c>
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
       <c r="F434" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H434" s="7" t="s">
+      <c r="H434" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" s="8" t="s">
         <v>740</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D435" s="2"/>
       <c r="E435" s="2">
         <v>2.0</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G435" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H435" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="H435" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I435" s="2" t="s">
-        <v>58</v>
+        <v>741</v>
       </c>
     </row>
     <row r="436">
@@ -13614,7 +13656,7 @@
         <v>10</v>
       </c>
       <c r="H436" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I436" s="2"/>
     </row>
@@ -13623,34 +13665,62 @@
         <v>743</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>12</v>
+        <v>744</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E437" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="G437" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H437" s="2" t="s">
+      <c r="H437" s="7"/>
+      <c r="I437" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H438" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I438" s="2"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E439" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H439" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I437" s="2" t="s">
+      <c r="I439" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="438">
-      <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
-    </row>
-    <row r="439">
-      <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
     </row>
     <row r="440">
       <c r="C440" s="2"/>
@@ -15867,6 +15937,14 @@
     <row r="993">
       <c r="C993" s="2"/>
       <c r="D993" s="2"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="2"/>
+      <c r="D994" s="2"/>
+    </row>
+    <row r="995">
+      <c r="C995" s="2"/>
+      <c r="D995" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16230,9 +16308,9 @@
     <hyperlink r:id="rId359" ref="A358"/>
     <hyperlink r:id="rId360" ref="A359"/>
     <hyperlink r:id="rId361" ref="A360"/>
-    <hyperlink r:id="rId362" ref="I360"/>
-    <hyperlink r:id="rId363" ref="A361"/>
-    <hyperlink r:id="rId364" ref="A362"/>
+    <hyperlink r:id="rId362" ref="A361"/>
+    <hyperlink r:id="rId363" ref="A362"/>
+    <hyperlink r:id="rId364" ref="I362"/>
     <hyperlink r:id="rId365" ref="A363"/>
     <hyperlink r:id="rId366" ref="A364"/>
     <hyperlink r:id="rId367" ref="A365"/>
@@ -16308,9 +16386,11 @@
     <hyperlink r:id="rId437" ref="A435"/>
     <hyperlink r:id="rId438" ref="A436"/>
     <hyperlink r:id="rId439" ref="A437"/>
+    <hyperlink r:id="rId440" ref="A438"/>
+    <hyperlink r:id="rId441" ref="A439"/>
   </hyperlinks>
-  <drawing r:id="rId440"/>
-  <legacyDrawing r:id="rId441"/>
+  <drawing r:id="rId442"/>
+  <legacyDrawing r:id="rId443"/>
 </worksheet>
 </file>
 
@@ -16326,22 +16406,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -16365,27 +16445,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -16412,176 +16492,181 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>758</v>
+      <c r="A10" s="8" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>759</v>
+      <c r="A11" s="2" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="s">
-        <v>769</v>
+      <c r="A21" s="8" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>770</v>
+      <c r="A22" s="16" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="s">
-        <v>773</v>
+      <c r="A25" s="8" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>774</v>
+      <c r="A26" s="16" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>775</v>
+      <c r="A27" s="8" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="16" t="s">
-        <v>776</v>
+      <c r="A28" s="2" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>777</v>
+      <c r="A29" s="16" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>778</v>
+      <c r="A30" s="2" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="16" t="s">
-        <v>779</v>
+      <c r="A31" s="8" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>780</v>
+      <c r="A32" s="16" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="16" t="s">
-        <v>781</v>
+      <c r="A33" s="8" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19"/>
+      <c r="A35" s="16" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16591,7 +16676,7 @@
     <hyperlink r:id="rId4" ref="A6"/>
     <hyperlink r:id="rId5" ref="A7"/>
     <hyperlink r:id="rId6" ref="A9"/>
-    <hyperlink r:id="rId7" ref="A11"/>
+    <hyperlink r:id="rId7" ref="A10"/>
     <hyperlink r:id="rId8" ref="A12"/>
     <hyperlink r:id="rId9" ref="A13"/>
     <hyperlink r:id="rId10" ref="A14"/>
@@ -16607,14 +16692,15 @@
     <hyperlink r:id="rId20" ref="A24"/>
     <hyperlink r:id="rId21" ref="A25"/>
     <hyperlink r:id="rId22" ref="A26"/>
-    <hyperlink r:id="rId23" ref="A28"/>
-    <hyperlink r:id="rId24" ref="A30"/>
+    <hyperlink r:id="rId23" ref="A27"/>
+    <hyperlink r:id="rId24" ref="A29"/>
     <hyperlink r:id="rId25" ref="A31"/>
     <hyperlink r:id="rId26" ref="A32"/>
     <hyperlink r:id="rId27" ref="A33"/>
     <hyperlink r:id="rId28" ref="A34"/>
+    <hyperlink r:id="rId29" ref="A35"/>
   </hyperlinks>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -16630,42 +16716,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -16693,7 +16779,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16723,7 +16809,7 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16753,7 +16839,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16783,7 +16869,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -16813,7 +16899,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -16843,7 +16929,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -16873,7 +16959,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -16903,7 +16989,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -16933,7 +17019,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -16963,7 +17049,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -16993,7 +17079,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -17023,7 +17109,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -17053,7 +17139,7 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -17083,7 +17169,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -17113,7 +17199,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -17143,7 +17229,7 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -17173,7 +17259,7 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -17203,7 +17289,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17233,7 +17319,7 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17263,7 +17349,7 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17293,7 +17379,7 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -17323,7 +17409,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -17353,7 +17439,7 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -17383,7 +17469,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -17413,7 +17499,7 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17443,7 +17529,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -17473,7 +17559,7 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -17503,7 +17589,7 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -17533,7 +17619,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -17563,7 +17649,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -44766,192 +44852,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -45005,112 +45091,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -45148,57 +45234,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -45228,267 +45314,267 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="16" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="16" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="16" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="16" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="16" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="16" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -25,43 +25,49 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="H357">
+    <comment authorId="0" ref="E201">
+      <text>
+        <t xml:space="preserve">https://github.com/ZrrSkywalker/MathVerse/issues/4
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H358">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_role.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F357">
+    <comment authorId="0" ref="F358">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H356">
+    <comment authorId="0" ref="H357">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_rag.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F356">
+    <comment authorId="0" ref="F357">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E348">
+    <comment authorId="0" ref="E349">
       <text>
         <t xml:space="preserve">https://fm.ai.tsinghua.edu.cn/superbench/#/evaluation
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H278">
+    <comment authorId="0" ref="H279">
       <text>
         <t xml:space="preserve">https://ai.meta.com/blog/openeqa-embodied-question-answering-robotics-ar-glasses/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E365">
+    <comment authorId="0" ref="E366">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench/issues/46
 	-Jimmy Chou</t>
@@ -93,7 +99,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F308">
+    <comment authorId="0" ref="F309">
       <text>
         <t xml:space="preserve">https://haizelabs.com/benchmarks/space
 	-Jimmy Chou</t>
@@ -111,7 +117,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D312">
+    <comment authorId="0" ref="D313">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/allenai/reward-bench/discussions/3
 	-Jimmy Chou</t>
@@ -777,31 +783,31 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A312">
+    <comment authorId="0" ref="A313">
       <text>
         <t xml:space="preserve">https://github.com/allenai/reward-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A395">
+    <comment authorId="0" ref="A396">
       <text>
         <t xml:space="preserve">https://github.com/Re-Align/URIAL
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A425">
+    <comment authorId="0" ref="A426">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I281">
+    <comment authorId="0" ref="I282">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/opencompass/blob/main/configs/datasets/OpenFinData/OpenFinData.md
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A281">
+    <comment authorId="0" ref="A282">
       <text>
         <t xml:space="preserve">https://github.com/TongjiFinLab/CFBenchmark
 	-Jimmy Chou</t>
@@ -813,7 +819,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E225">
+    <comment authorId="0" ref="E226">
       <text>
         <t xml:space="preserve">https://github.com/MMStar-Benchmark/MMStar/tree/main/eval
 	-Jimmy Chou</t>
@@ -869,7 +875,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A290">
+    <comment authorId="0" ref="A291">
       <text>
         <t xml:space="preserve">model- and data-centric leaderboards
 	-Jimmy Chou
@@ -895,27 +901,33 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F355">
+    <comment authorId="0" ref="F356">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H355">
+    <comment authorId="0" ref="H356">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_open.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F353">
+    <comment authorId="0" ref="F354">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H353">
+    <comment authorId="0" ref="H354">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_industry.html
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F351">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -925,79 +937,73 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F349">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H349">
+    <comment authorId="0" ref="H350">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H350">
+    <comment authorId="0" ref="H351">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_agent.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H351">
+    <comment authorId="0" ref="H352">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_auto.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H352">
+    <comment authorId="0" ref="H353">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_code3.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H354">
+    <comment authorId="0" ref="H355">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_math6.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H358">
+    <comment authorId="0" ref="H359">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_safety.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E264">
+    <comment authorId="0" ref="E265">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/4
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H252">
+    <comment authorId="0" ref="H253">
       <text>
         <t xml:space="preserve">https://nexusflow.ai/blogs/ravenv2
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A249">
+    <comment authorId="0" ref="A250">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/malaysian-stt-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A247">
+    <comment authorId="0" ref="A248">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/llm-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A248">
+    <comment authorId="0" ref="A249">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/embedding-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H223">
+    <comment authorId="0" ref="H224">
       <text>
         <t xml:space="preserve">https://coreymorrisdata.medium.com/preliminary-analysis-of-mmlu-evaluation-data-insights-from-500-open-source-models-e67885aa364b
 	-Jimmy Chou
@@ -1047,49 +1053,49 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A420">
+    <comment authorId="0" ref="A421">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F325">
+    <comment authorId="0" ref="F326">
       <text>
         <t xml:space="preserve">https://github.com/tau-nlp/scrolls
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A319">
+    <comment authorId="0" ref="A320">
       <text>
         <t xml:space="preserve">https://github.com/ScandEval/ScandEval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A428">
+    <comment authorId="0" ref="A429">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A288">
+    <comment authorId="0" ref="A289">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/physicaliqa/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A250">
+    <comment authorId="0" ref="A251">
       <text>
         <t xml:space="preserve">https://github.com/allenai/natural-instructions
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A229">
+    <comment authorId="0" ref="A230">
       <text>
         <t xml:space="preserve">https://github.com/anthonywchen/mocha-leaderboard/tree/master/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A205">
+    <comment authorId="0" ref="A206">
       <text>
         <t xml:space="preserve">https://github.com/CogComp/MCTACO
 	-Jimmy Chou</t>
@@ -1113,13 +1119,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A299">
+    <comment authorId="0" ref="A300">
       <text>
         <t xml:space="preserve">https://github.com/allenai/aristo-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A276">
+    <comment authorId="0" ref="A277">
       <text>
         <t xml:space="preserve">https://github.com/allenai/aristo-leaderboard
 	-Jimmy Chou</t>
@@ -1131,28 +1137,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A328">
+    <comment authorId="0" ref="A329">
       <text>
         <t xml:space="preserve">https://github.com/allenai/sherlock/tree/main/leaderboard_eval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A332">
+    <comment authorId="0" ref="A333">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/socialiqa/evaluator
-	-Jimmy Chou
-----
-https://huggingface.co/spaces/0x9/finetuning_subnet_leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A439">
+    <comment authorId="0" ref="A440">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A344">
+    <comment authorId="0" ref="A345">
       <text>
         <t xml:space="preserve">https://github.com/eladsegal/strategyqa
 	-Jimmy Chou</t>
@@ -1164,31 +1167,31 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A408">
+    <comment authorId="0" ref="A409">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A375">
+    <comment authorId="0" ref="A376">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A362">
+    <comment authorId="0" ref="A363">
       <text>
         <t xml:space="preserve">https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A212">
+    <comment authorId="0" ref="A213">
       <text>
         <t xml:space="preserve">https://github.com/xingyaoww/mint-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A206">
+    <comment authorId="0" ref="A207">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/opencompass/tree/main/opencompass/datasets/medbench/
 	-Jimmy Chou</t>
@@ -1200,13 +1203,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F226">
+    <comment authorId="0" ref="F227">
       <text>
         <t xml:space="preserve">https://github.com/tsb0601/MMVP
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A220">
+    <comment authorId="0" ref="A221">
       <text>
         <t xml:space="preserve">https://github.com/BradyFU/Awesome-Multimodal-Large-Language-Models/tree/Evaluation-PrivateModel
 	-Jimmy Chou</t>
@@ -1230,13 +1233,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F347">
+    <comment authorId="0" ref="F348">
       <text>
         <t xml:space="preserve">https://github.com/salesforce/factualNLG
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F319">
+    <comment authorId="0" ref="F320">
       <text>
         <t xml:space="preserve">https://scandeval.com/
 	-Jimmy Chou</t>
@@ -1245,9 +1248,6 @@
     <comment authorId="0" ref="F271">
       <text>
         <t xml:space="preserve">https://github.com/withmartian/leaderboard-backend
-	-Jimmy Chou
-----
-https://github.com/njunlp/mapo
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1275,7 +1275,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F252">
+    <comment authorId="0" ref="F253">
       <text>
         <t xml:space="preserve">https://github.com/nexusflowai/NexusRaven/
 	-Jimmy Chou</t>
@@ -1287,37 +1287,37 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F214">
+    <comment authorId="0" ref="F215">
       <text>
         <t xml:space="preserve">https://ml.energy/leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F247">
+    <comment authorId="0" ref="F248">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/llm-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F264">
+    <comment authorId="0" ref="F265">
       <text>
         <t xml:space="preserve">https://github.com/C080/open-llm-ita-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F318">
+    <comment authorId="0" ref="F319">
       <text>
         <t xml:space="preserve">https://adwardlee.github.io/salad_bench/leaderboard.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D283">
+    <comment authorId="0" ref="D284">
       <text>
         <t xml:space="preserve">https://opencompass.openxlab.space/utils/OpenVLM.json
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D241">
+    <comment authorId="0" ref="D242">
       <text>
         <t xml:space="preserve">https://raw.githubusercontent.com/AI-Northstar-Tech/mteb-info/main/data/data.json
 	-Jimmy Chou</t>
@@ -1371,13 +1371,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F255">
+    <comment authorId="0" ref="F256">
       <text>
         <t xml:space="preserve">https://github.com/casmlab/NPHardEval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F326">
+    <comment authorId="0" ref="F327">
       <text>
         <t xml:space="preserve">https://seaeval.github.io/
 	-Jimmy Chou</t>
@@ -1434,6 +1434,18 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
+    <comment authorId="0" ref="F272">
+      <text>
+        <t xml:space="preserve">https://github.com/njunlp/mapo
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A332">
+      <text>
+        <t xml:space="preserve">https://huggingface.co/spaces/0x9/finetuning_subnet_leaderboard
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A39">
       <text>
         <t xml:space="preserve">https://github.com/ShishirPatil/gorilla/issues/270
@@ -1480,13 +1492,10 @@
     <comment authorId="0" ref="F332">
       <text>
         <t xml:space="preserve">https://github.com/NousResearch/finetuning-subnet
-	-Jimmy Chou
-----
-https://leaderboard.allenai.org/socialiqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F262">
+    <comment authorId="0" ref="F263">
       <text>
         <t xml:space="preserve">https://github.com/huggingface/open_asr_leaderboard
 	-Jimmy Chou</t>
@@ -1504,25 +1513,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F358">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com/
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F351">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F354">
+    <comment authorId="0" ref="F359">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
     <comment authorId="0" ref="F352">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F355">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F353">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -1552,13 +1561,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F205">
+    <comment authorId="0" ref="F206">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/mctaco/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F293">
+    <comment authorId="0" ref="F294">
       <text>
         <t xml:space="preserve">https://llm-eval.github.io/pages/leaderboard/pe.html
 	-Jimmy Chou
@@ -1600,61 +1609,70 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F439">
+    <comment authorId="0" ref="F440">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F428">
+    <comment authorId="0" ref="F429">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F344">
+    <comment authorId="0" ref="F345">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/strategyqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F328">
+    <comment authorId="0" ref="F333">
       <text>
-        <t xml:space="preserve">https://leaderboard.allenai.org/sherlock/submissions/public
+        <t xml:space="preserve">https://leaderboard.allenai.org/socialiqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F299">
+    <comment authorId="0" ref="F329">
+      <text>
+        <t xml:space="preserve">https://leaderboard.allenai.org/sherlock/submissions/public
+	-Jimmy Chou
+----
+https://github.com/kb-labb/superlim-submissions
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F300">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/qasc/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F294">
+    <comment authorId="0" ref="F295">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/protoqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F288">
+    <comment authorId="0" ref="F289">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/physicaliqa/submissions
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F276">
+    <comment authorId="0" ref="F277">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/open_book_qa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F250">
+    <comment authorId="0" ref="F251">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/natural-instructions/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F229">
+    <comment authorId="0" ref="F230">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/mocha-qa/submissions/public
 	-Jimmy Chou</t>
@@ -1678,7 +1696,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F402">
+    <comment authorId="0" ref="F403">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -1690,7 +1708,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F378">
+    <comment authorId="0" ref="F379">
       <text>
         <t xml:space="preserve">https://github.com/sambanova/toolbench/
 	-Jimmy Chou</t>
@@ -1701,12 +1719,6 @@
         <t xml:space="preserve">https://github.com/open-compass/T-Eval
 	-Jimmy Chou
 https://open-compass.github.io/T-Eval/leaderboard.html
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F329">
-      <text>
-        <t xml:space="preserve">https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1722,7 +1734,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F215">
+    <comment authorId="0" ref="F216">
       <text>
         <t xml:space="preserve">https://github.com/FreedomIntelligence/MLLM-Bench
 	-Jimmy Chou</t>
@@ -1764,7 +1776,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F218">
+    <comment authorId="0" ref="F219">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/MMBench
 	-Jimmy Chou</t>
@@ -1776,19 +1788,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F298">
+    <comment authorId="0" ref="F299">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/q-future/Q-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F277">
+    <comment authorId="0" ref="F278">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F246">
+    <comment authorId="0" ref="F247">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard
 	-Jimmy Chou
@@ -1808,7 +1820,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A216">
+    <comment authorId="0" ref="A217">
       <text>
         <t xml:space="preserve">Multilingual LibriSpeech
 	-Jimmy Chou</t>
@@ -1866,13 +1878,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A283">
+    <comment authorId="0" ref="A284">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/VLMEvalKit/issues/78
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F283">
+    <comment authorId="0" ref="F284">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/open_vlm_leaderboard
 	-Jimmy Chou
@@ -1882,13 +1894,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F407">
+    <comment authorId="0" ref="F408">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F397">
+    <comment authorId="0" ref="F398">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -1905,7 +1917,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A266">
+    <comment authorId="0" ref="A267">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/gsaivinay/open_llm_leaderboard
 	-Jimmy Chou</t>
@@ -1917,7 +1929,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F437">
+    <comment authorId="0" ref="F438">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -2029,7 +2041,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A280">
+    <comment authorId="0" ref="A281">
       <text>
         <t xml:space="preserve">https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/24
 	-Jimmy Chou</t>
@@ -2041,25 +2053,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A360">
+    <comment authorId="0" ref="A361">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUElyb/issues/7
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A359">
+    <comment authorId="0" ref="A360">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/1
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A351">
+    <comment authorId="0" ref="A352">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/2
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A350">
+    <comment authorId="0" ref="A351">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/7
 	-Jimmy Chou</t>
@@ -2071,19 +2083,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A365">
+    <comment authorId="0" ref="A366">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A361">
+    <comment authorId="0" ref="A362">
       <text>
         <t xml:space="preserve">https://github.com/nyu-mll/jiant
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A316">
+    <comment authorId="0" ref="A317">
       <text>
         <t xml:space="preserve">https://github.com/thu-coai/Safety-Prompts
 	-Jimmy Chou</t>
@@ -2179,7 +2191,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F419">
+    <comment authorId="0" ref="F420">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2187,19 +2199,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F377">
+    <comment authorId="0" ref="F378">
       <text>
         <t xml:space="preserve">https://toloka.ai/llm-leaderboard/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F362">
+    <comment authorId="0" ref="F363">
       <text>
         <t xml:space="preserve">https://lab.kb.se/leaderboard/results
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F305">
+    <comment authorId="0" ref="F306">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/ought/raft-leaderboard
 	-Jimmy Chou</t>
@@ -2215,7 +2227,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F241">
+    <comment authorId="0" ref="F242">
       <text>
         <t xml:space="preserve">https://mteb.info
 	-Jimmy Chou</t>
@@ -2297,7 +2309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="921">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -3462,6 +3474,12 @@
   </si>
   <si>
     <t>MathQA</t>
+  </si>
+  <si>
+    <t>MathVerse</t>
+  </si>
+  <si>
+    <t>Chinese University of Hong Kong,Shanghai AI Laboratory,University of California Los Angeles</t>
   </si>
   <si>
     <t>MathVista</t>
@@ -5067,6 +5085,9 @@
   </si>
   <si>
     <t>https://github.com/EleutherAI/lm_perplexity/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/ZrrSkywalker/MathVerse/issues/4</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/openkg/llm_leaderboard/discussions/4</t>
@@ -9240,11 +9261,11 @@
         <v>388</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>389</v>
+        <v>181</v>
       </c>
       <c r="D201" s="2"/>
-      <c r="E201" s="2">
-        <v>6.0</v>
+      <c r="E201" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>21</v>
@@ -9253,194 +9274,198 @@
         <v>15</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>391</v>
       </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I202" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H203" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I203" s="2"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I203" s="2"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="B204" s="4"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="6" t="s">
+      <c r="I204" s="2"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B205" s="4"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G204" s="5"/>
-      <c r="H204" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I204" s="5"/>
-      <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
-      <c r="L204" s="4"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4"/>
-      <c r="O204" s="4"/>
-      <c r="P204" s="4"/>
-      <c r="Q204" s="4"/>
-      <c r="R204" s="4"/>
-      <c r="S204" s="4"/>
-      <c r="T204" s="4"/>
-      <c r="U204" s="4"/>
-      <c r="V204" s="4"/>
-      <c r="W204" s="4"/>
-      <c r="X204" s="4"/>
-      <c r="Y204" s="4"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E205" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G205" s="5"/>
       <c r="H205" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I205" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I205" s="5"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+      <c r="U205" s="4"/>
+      <c r="V205" s="4"/>
+      <c r="W205" s="4"/>
+      <c r="X205" s="4"/>
+      <c r="Y205" s="4"/>
     </row>
     <row r="206">
       <c r="A206" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D206" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E206" s="2">
         <v>6.0</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G206" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H206" s="7" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>395</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C207" s="2"/>
+      <c r="C207" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="D207" s="2"/>
+      <c r="E207" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H207" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="I207" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="8" t="s">
-        <v>397</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="I208" s="2"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H209" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H209" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>401</v>
-      </c>
+      <c r="I209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>402</v>
       </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H210" s="17" t="s">
-        <v>123</v>
+        <v>21</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E211" s="2">
-        <v>2.0</v>
+        <v>404</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H211" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>404</v>
+        <v>10</v>
+      </c>
+      <c r="H211" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="212">
@@ -9448,30 +9473,39 @@
         <v>405</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D212" s="2"/>
+        <v>20</v>
+      </c>
       <c r="E212" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>408</v>
       </c>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H213" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I213" s="2" t="s">
         <v>409</v>
       </c>
     </row>
@@ -9479,42 +9513,32 @@
       <c r="A214" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H214" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H214" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>51</v>
+        <v>413</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>32</v>
+        <v>414</v>
       </c>
       <c r="I215" s="2" t="s">
         <v>415</v>
@@ -9524,13 +9548,22 @@
       <c r="A216" s="8" t="s">
         <v>416</v>
       </c>
+      <c r="C216" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H216" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I216" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="I216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" s="8" t="s">
@@ -9540,53 +9573,44 @@
         <v>10</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="I217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2">
-        <v>6.0</v>
+        <v>420</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H218" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I218" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="I218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H219" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>421</v>
+        <v>119</v>
       </c>
     </row>
     <row r="220">
@@ -9597,14 +9621,11 @@
         <v>20</v>
       </c>
       <c r="D220" s="2"/>
-      <c r="E220" s="2" t="s">
-        <v>115</v>
+      <c r="E220" s="2">
+        <v>2.0</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H220" s="7" t="s">
         <v>32</v>
@@ -9617,36 +9638,36 @@
       <c r="A221" s="8" t="s">
         <v>424</v>
       </c>
+      <c r="C221" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D221" s="2"/>
+      <c r="E221" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>20</v>
+        <v>426</v>
       </c>
       <c r="D222" s="2"/>
-      <c r="E222" s="2">
-        <v>7.0</v>
-      </c>
       <c r="F222" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H222" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="I222" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="223">
@@ -9654,22 +9675,20 @@
         <v>426</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D223" s="2"/>
       <c r="E223" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>427</v>
@@ -9680,38 +9699,43 @@
         <v>428</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D224" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E224" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H225" s="7" t="s">
         <v>32</v>
@@ -9725,28 +9749,28 @@
         <v>433</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>434</v>
+        <v>181</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2">
@@ -9759,57 +9783,54 @@
         <v>27</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I228" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H228" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E229" s="2">
-        <v>6.0</v>
+        <v>439</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I229" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D230" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E230" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>14</v>
@@ -9817,57 +9838,69 @@
       <c r="G230" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H230" s="7"/>
+      <c r="H230" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I230" s="2" t="s">
-        <v>441</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H231" s="7"/>
       <c r="I231" s="2" t="s">
-        <v>58</v>
+        <v>443</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C232" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D232" s="2"/>
+      <c r="E232" s="2">
+        <v>4.0</v>
+      </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H232" s="7" t="s">
-        <v>444</v>
+        <v>40</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H232" s="7"/>
+      <c r="I232" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="8" t="s">
         <v>445</v>
       </c>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H233" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="I233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="8" t="s">
@@ -9877,31 +9910,31 @@
         <v>10</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>11</v>
+        <v>448</v>
       </c>
       <c r="I234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>450</v>
+        <v>25</v>
       </c>
       <c r="I236" s="2"/>
     </row>
@@ -9909,117 +9942,118 @@
       <c r="A237" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F237" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H237" s="7"/>
-      <c r="I237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H237" s="7" t="s">
         <v>452</v>
       </c>
+      <c r="I237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="8" t="s">
         <v>453</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D238" s="2"/>
       <c r="E238" s="2">
         <v>2.0</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H238" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H238" s="7"/>
       <c r="I238" s="2" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E239" s="2">
+        <v>2.0</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I239" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="I240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C241" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D241" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E241" s="2">
-        <v>10.0</v>
-      </c>
       <c r="F241" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="I241" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="I241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E242" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H242" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H242" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I242" s="2"/>
+      <c r="I242" s="2" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" s="8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -10030,10 +10064,8 @@
     </row>
     <row r="245">
       <c r="A245" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
+        <v>464</v>
+      </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
@@ -10043,45 +10075,36 @@
     </row>
     <row r="246">
       <c r="A246" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C246" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E246" s="2">
-        <v>7.0</v>
-      </c>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
       <c r="F246" s="2" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="H246" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I246" s="2" t="s">
-        <v>466</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D247" s="2"/>
+      <c r="D247" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E247" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H247" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="H247" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I247" s="2" t="s">
         <v>468</v>
       </c>
@@ -10103,14 +10126,14 @@
       <c r="G248" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H248" s="10"/>
+      <c r="H248" s="7"/>
       <c r="I248" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>39</v>
@@ -10122,130 +10145,131 @@
       <c r="F249" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="G249" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H249" s="10"/>
       <c r="I249" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D250" s="2"/>
       <c r="E250" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H250" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H250" s="10"/>
       <c r="I250" s="2" t="s">
-        <v>16</v>
+        <v>470</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" s="2">
+        <v>6.0</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I251" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C252" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F252" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I252" s="2" t="s">
-        <v>475</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F253" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>60</v>
+        <v>270</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I254" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2">
-        <v>2.0</v>
+        <v>479</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I255" s="2" t="s">
-        <v>479</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" s="8" t="s">
         <v>480</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2">
         <v>2.0</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>21</v>
+        <v>173</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H256" s="7" t="s">
         <v>32</v>
@@ -10258,56 +10282,56 @@
       <c r="A257" s="8" t="s">
         <v>482</v>
       </c>
+      <c r="C257" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F257" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I257" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E258" s="2">
-        <v>7.0</v>
+        <v>484</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I258" s="2" t="s">
-        <v>484</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" s="8" t="s">
         <v>485</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D259" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E259" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="I259" s="2" t="s">
         <v>486</v>
@@ -10317,62 +10341,57 @@
       <c r="A260" s="8" t="s">
         <v>487</v>
       </c>
+      <c r="C260" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F260" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I260" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="I260" s="2" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2">
-        <v>4.0</v>
+        <v>490</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I262" s="2" t="s">
-        <v>353</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>491</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D263" s="2"/>
       <c r="E263" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>40</v>
@@ -10384,50 +10403,54 @@
         <v>32</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>492</v>
+        <v>353</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E264" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H264" s="7"/>
+      <c r="G264" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H264" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I264" s="2" t="s">
-        <v>58</v>
+        <v>494</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="2"/>
+      <c r="D265" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E265" s="2">
         <v>4.0</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G265" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H265" s="10"/>
+      <c r="H265" s="7"/>
       <c r="I265" s="2" t="s">
-        <v>495</v>
+        <v>58</v>
       </c>
     </row>
     <row r="266">
@@ -10435,7 +10458,7 @@
         <v>496</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2">
@@ -10449,15 +10472,15 @@
       </c>
       <c r="H266" s="10"/>
       <c r="I266" s="2" t="s">
-        <v>353</v>
+        <v>497</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2">
@@ -10471,12 +10494,12 @@
       </c>
       <c r="H267" s="10"/>
       <c r="I267" s="2" t="s">
-        <v>58</v>
+        <v>353</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>39</v>
@@ -10491,23 +10514,21 @@
       <c r="G268" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H268" s="7" t="s">
-        <v>499</v>
-      </c>
+      <c r="H268" s="10"/>
       <c r="I268" s="2" t="s">
-        <v>500</v>
+        <v>58</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>40</v>
@@ -10515,21 +10536,23 @@
       <c r="G269" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H269" s="7"/>
+      <c r="H269" s="7" t="s">
+        <v>501</v>
+      </c>
       <c r="I269" s="2" t="s">
-        <v>58</v>
+        <v>502</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>40</v>
@@ -10537,9 +10560,9 @@
       <c r="G270" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H270" s="10"/>
+      <c r="H270" s="7"/>
       <c r="I270" s="2" t="s">
-        <v>503</v>
+        <v>58</v>
       </c>
     </row>
     <row r="271">
@@ -10547,21 +10570,19 @@
         <v>504</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H271" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="H271" s="10"/>
       <c r="I271" s="2" t="s">
         <v>505</v>
       </c>
@@ -10571,33 +10592,35 @@
         <v>506</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H272" s="7"/>
+      <c r="H272" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I272" s="2" t="s">
-        <v>353</v>
+        <v>507</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D273" s="2"/>
-      <c r="E273" s="2" t="s">
-        <v>115</v>
+      <c r="E273" s="2">
+        <v>4.0</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>40</v>
@@ -10605,9 +10628,9 @@
       <c r="G273" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H273" s="10"/>
+      <c r="H273" s="7"/>
       <c r="I273" s="2" t="s">
-        <v>508</v>
+        <v>353</v>
       </c>
     </row>
     <row r="274">
@@ -10615,11 +10638,11 @@
         <v>509</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D274" s="2"/>
-      <c r="E274" s="2">
-        <v>4.0</v>
+      <c r="E274" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>40</v>
@@ -10633,84 +10656,84 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="12" t="s">
+      <c r="A275" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="B275" s="4"/>
-      <c r="C275" s="5"/>
-      <c r="D275" s="5"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="6" t="s">
+      <c r="C275" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H275" s="10"/>
+      <c r="I275" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B276" s="4"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G275" s="5"/>
-      <c r="H275" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I275" s="5"/>
-      <c r="J275" s="4"/>
-      <c r="K275" s="4"/>
-      <c r="L275" s="4"/>
-      <c r="M275" s="4"/>
-      <c r="N275" s="4"/>
-      <c r="O275" s="4"/>
-      <c r="P275" s="4"/>
-      <c r="Q275" s="4"/>
-      <c r="R275" s="4"/>
-      <c r="S275" s="4"/>
-      <c r="T275" s="4"/>
-      <c r="U275" s="4"/>
-      <c r="V275" s="4"/>
-      <c r="W275" s="4"/>
-      <c r="X275" s="4"/>
-      <c r="Y275" s="4"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E276" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G276" s="5"/>
       <c r="H276" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I276" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I276" s="5"/>
+      <c r="J276" s="4"/>
+      <c r="K276" s="4"/>
+      <c r="L276" s="4"/>
+      <c r="M276" s="4"/>
+      <c r="N276" s="4"/>
+      <c r="O276" s="4"/>
+      <c r="P276" s="4"/>
+      <c r="Q276" s="4"/>
+      <c r="R276" s="4"/>
+      <c r="S276" s="4"/>
+      <c r="T276" s="4"/>
+      <c r="U276" s="4"/>
+      <c r="V276" s="4"/>
+      <c r="W276" s="4"/>
+      <c r="X276" s="4"/>
+      <c r="Y276" s="4"/>
     </row>
     <row r="277">
       <c r="A277" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D277" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E277" s="2">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H277" s="7"/>
+      <c r="H277" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I277" s="2" t="s">
-        <v>513</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278">
@@ -10718,28 +10741,29 @@
         <v>514</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>434</v>
+        <v>221</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H278" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H278" s="7"/>
       <c r="I278" s="2" t="s">
-        <v>199</v>
+        <v>515</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="8" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2">
@@ -10749,10 +10773,10 @@
         <v>21</v>
       </c>
       <c r="H279" s="7" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>516</v>
+        <v>199</v>
       </c>
     </row>
     <row r="280">
@@ -10760,34 +10784,37 @@
         <v>517</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D280" s="2"/>
-      <c r="E280" s="2" t="s">
+      <c r="E280" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H280" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I280" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H280" s="7"/>
-      <c r="I280" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C281" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F281" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H281" s="7"/>
       <c r="I281" s="2" t="s">
         <v>521</v>
       </c>
@@ -10797,81 +10824,73 @@
         <v>522</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D282" s="2"/>
       <c r="E282" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>58</v>
+        <v>523</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="E283" s="2">
         <v>4.0</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H283" s="10"/>
       <c r="I283" s="2" t="s">
-        <v>513</v>
+        <v>58</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E284" s="2">
+        <v>4.0</v>
+      </c>
       <c r="F284" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H284" s="7" t="s">
-        <v>525</v>
+        <v>44</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H284" s="10"/>
+      <c r="I284" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E285" s="2">
-        <v>6.0</v>
-      </c>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
       <c r="F285" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H285" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I285" s="2" t="s">
         <v>527</v>
       </c>
     </row>
@@ -10879,120 +10898,127 @@
       <c r="A286" s="8" t="s">
         <v>528</v>
       </c>
+      <c r="C286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E286" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F286" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H286" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H286" s="7" t="s">
+      <c r="H287" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I286" s="2"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="B287" s="4"/>
-      <c r="C287" s="5"/>
-      <c r="D287" s="5"/>
-      <c r="E287" s="4"/>
-      <c r="F287" s="6" t="s">
+      <c r="I287" s="2"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B288" s="4"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G287" s="5"/>
-      <c r="H287" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I287" s="5"/>
-      <c r="J287" s="4"/>
-      <c r="K287" s="4"/>
-      <c r="L287" s="4"/>
-      <c r="M287" s="4"/>
-      <c r="N287" s="4"/>
-      <c r="O287" s="4"/>
-      <c r="P287" s="4"/>
-      <c r="Q287" s="4"/>
-      <c r="R287" s="4"/>
-      <c r="S287" s="4"/>
-      <c r="T287" s="4"/>
-      <c r="U287" s="4"/>
-      <c r="V287" s="4"/>
-      <c r="W287" s="4"/>
-      <c r="X287" s="4"/>
-      <c r="Y287" s="4"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E288" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G288" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G288" s="5"/>
       <c r="H288" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I288" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I288" s="5"/>
+      <c r="J288" s="4"/>
+      <c r="K288" s="4"/>
+      <c r="L288" s="4"/>
+      <c r="M288" s="4"/>
+      <c r="N288" s="4"/>
+      <c r="O288" s="4"/>
+      <c r="P288" s="4"/>
+      <c r="Q288" s="4"/>
+      <c r="R288" s="4"/>
+      <c r="S288" s="4"/>
+      <c r="T288" s="4"/>
+      <c r="U288" s="4"/>
+      <c r="V288" s="4"/>
+      <c r="W288" s="4"/>
+      <c r="X288" s="4"/>
+      <c r="Y288" s="4"/>
     </row>
     <row r="289">
       <c r="A289" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E289" s="2">
+        <v>6.0</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H289" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="C290" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F290" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H290" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I290" s="2" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H291" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="H291" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I291" s="2" t="s">
         <v>535</v>
       </c>
@@ -11002,19 +11028,16 @@
         <v>536</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G292" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H292" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="H292" s="10"/>
       <c r="I292" s="2" t="s">
         <v>537</v>
       </c>
@@ -11024,18 +11047,19 @@
         <v>538</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2">
         <v>2.0</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H293" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H293" s="7"/>
       <c r="I293" s="2" t="s">
         <v>539</v>
       </c>
@@ -11045,74 +11069,71 @@
         <v>540</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D294" s="2"/>
       <c r="E294" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G294" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>16</v>
+        <v>541</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E295" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F295" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>32</v>
+        <v>97</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="8" t="s">
-        <v>542</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>20</v>
+        <v>544</v>
       </c>
       <c r="D297" s="2"/>
-      <c r="E297" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F297" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G297" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H297" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="I297" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="298">
@@ -11120,71 +11141,83 @@
         <v>544</v>
       </c>
       <c r="C298" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H298" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I298" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E298" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H298" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I298" s="2" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E299" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="H299" s="7" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>16</v>
+        <v>548</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E300" s="2">
+        <v>6.0</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H300" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I300" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I300" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H301" s="7" t="s">
-        <v>550</v>
+        <v>97</v>
       </c>
       <c r="I301" s="2"/>
     </row>
@@ -11192,154 +11225,145 @@
       <c r="A302" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F302" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H302" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I302" s="2" t="s">
         <v>552</v>
       </c>
+      <c r="I302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="8" t="s">
         <v>553</v>
       </c>
+      <c r="C303" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F303" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H303" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I303" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="F304" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H303" s="7" t="s">
+      <c r="H304" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I303" s="2"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="B304" s="4"/>
-      <c r="C304" s="5"/>
-      <c r="D304" s="5"/>
-      <c r="E304" s="4"/>
-      <c r="F304" s="6" t="s">
+      <c r="I304" s="2"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B305" s="4"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="4"/>
+      <c r="F305" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G304" s="4"/>
-      <c r="H304" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I304" s="5"/>
-      <c r="J304" s="4"/>
-      <c r="K304" s="4"/>
-      <c r="L304" s="4"/>
-      <c r="M304" s="4"/>
-      <c r="N304" s="4"/>
-      <c r="O304" s="4"/>
-      <c r="P304" s="4"/>
-      <c r="Q304" s="4"/>
-      <c r="R304" s="4"/>
-      <c r="S304" s="4"/>
-      <c r="T304" s="4"/>
-      <c r="U304" s="4"/>
-      <c r="V304" s="4"/>
-      <c r="W304" s="4"/>
-      <c r="X304" s="4"/>
-      <c r="Y304" s="4"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D305" s="2"/>
-      <c r="E305" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="G305" s="4"/>
       <c r="H305" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I305" s="2" t="s">
-        <v>556</v>
-      </c>
+      <c r="I305" s="5"/>
+      <c r="J305" s="4"/>
+      <c r="K305" s="4"/>
+      <c r="L305" s="4"/>
+      <c r="M305" s="4"/>
+      <c r="N305" s="4"/>
+      <c r="O305" s="4"/>
+      <c r="P305" s="4"/>
+      <c r="Q305" s="4"/>
+      <c r="R305" s="4"/>
+      <c r="S305" s="4"/>
+      <c r="T305" s="4"/>
+      <c r="U305" s="4"/>
+      <c r="V305" s="4"/>
+      <c r="W305" s="4"/>
+      <c r="X305" s="4"/>
+      <c r="Y305" s="4"/>
     </row>
     <row r="306">
       <c r="A306" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C306" s="2"/>
       <c r="D306" s="2"/>
+      <c r="E306" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F306" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="8" t="s">
-        <v>558</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H307" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2">
-        <v>4.0</v>
+        <v>560</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I308" s="2" t="s">
-        <v>560</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H308" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="8" t="s">
         <v>561</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H309" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I309" s="2" t="s">
         <v>562</v>
@@ -11349,143 +11373,140 @@
       <c r="A310" s="8" t="s">
         <v>563</v>
       </c>
+      <c r="C310" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F310" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H310" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I310" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2">
-        <v>7.0</v>
+        <v>565</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H311" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I311" s="2" t="s">
-        <v>565</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="8" t="s">
         <v>566</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>567</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D312" s="2"/>
       <c r="E312" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H312" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D313" s="2" t="s">
         <v>569</v>
       </c>
+      <c r="E313" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F313" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H313" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I313" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="I313" s="2"/>
     </row>
     <row r="314">
       <c r="A314" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D314" s="2"/>
-      <c r="E314" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F314" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I314" s="2" t="s">
         <v>572</v>
       </c>
+      <c r="I314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="8" t="s">
         <v>573</v>
       </c>
+      <c r="C315" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D315" s="2"/>
+      <c r="E315" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F315" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H315" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I315" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="I315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="C316" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D316" s="2"/>
-      <c r="E316" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F316" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G316" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H316" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I316" s="2" t="s">
-        <v>325</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="I316" s="2"/>
     </row>
     <row r="317">
       <c r="A317" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>577</v>
+        <v>145</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2">
         <v>6.0</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -11494,24 +11515,22 @@
         <v>32</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>578</v>
+        <v>325</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C318" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>332</v>
-      </c>
+      <c r="D318" s="2"/>
       <c r="E318" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -11528,58 +11547,60 @@
         <v>581</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>13</v>
+        <v>332</v>
       </c>
       <c r="E319" s="2">
         <v>2.0</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>14</v>
+        <v>173</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H319" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I319" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="I319" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H320" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="D320" s="2"/>
-      <c r="F320" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H320" s="7" t="s">
-        <v>63</v>
+      <c r="I320" s="2" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>181</v>
+        <v>586</v>
       </c>
       <c r="D321" s="2"/>
-      <c r="E321" s="2">
-        <v>7.0</v>
-      </c>
       <c r="F321" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G321" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H321" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="I321" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="322">
@@ -11587,90 +11608,88 @@
         <v>586</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G322" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H322" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>58</v>
+        <v>587</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" s="2">
+        <v>2.0</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>588</v>
+        <v>32</v>
+      </c>
+      <c r="I323" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I324" s="2"/>
+        <v>590</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="C325" s="2"/>
       <c r="D325" s="2"/>
-      <c r="E325" s="2">
-        <v>6.0</v>
-      </c>
+      <c r="E325" s="2"/>
       <c r="F325" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I325" s="2" t="s">
-        <v>590</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" s="8" t="s">
         <v>591</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>324</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D326" s="2"/>
       <c r="E326" s="2">
         <v>6.0</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G326" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H326" s="7" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I326" s="2" t="s">
         <v>592</v>
@@ -11683,7 +11702,9 @@
       <c r="C327" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D327" s="2"/>
+      <c r="D327" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="E327" s="2">
         <v>6.0</v>
       </c>
@@ -11705,230 +11726,242 @@
         <v>595</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D328" s="2"/>
       <c r="E328" s="2">
         <v>6.0</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>16</v>
+        <v>596</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E329" s="2">
+        <v>6.0</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H329" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I329" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H329" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I329" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
+        <v>598</v>
+      </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H330" s="7" t="s">
-        <v>598</v>
-      </c>
+      <c r="H330" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I330" s="2"/>
     </row>
     <row r="331">
-      <c r="A331" s="12" t="s">
+      <c r="A331" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="B331" s="4"/>
-      <c r="C331" s="5"/>
-      <c r="D331" s="5"/>
-      <c r="E331" s="4"/>
-      <c r="F331" s="6" t="s">
+      <c r="C331" s="2"/>
+      <c r="D331" s="2"/>
+      <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G331" s="5"/>
       <c r="H331" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="I331" s="5"/>
-      <c r="J331" s="4"/>
-      <c r="K331" s="4"/>
-      <c r="L331" s="4"/>
-      <c r="M331" s="4"/>
-      <c r="N331" s="4"/>
-      <c r="O331" s="4"/>
-      <c r="P331" s="4"/>
-      <c r="Q331" s="4"/>
-      <c r="R331" s="4"/>
-      <c r="S331" s="4"/>
-      <c r="T331" s="4"/>
-      <c r="U331" s="4"/>
-      <c r="V331" s="4"/>
-      <c r="W331" s="4"/>
-      <c r="X331" s="4"/>
-      <c r="Y331" s="4"/>
     </row>
     <row r="332">
-      <c r="A332" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E332" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A332" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="B332" s="4"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G332" s="5"/>
       <c r="H332" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="I332" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="I332" s="5"/>
+      <c r="J332" s="4"/>
+      <c r="K332" s="4"/>
+      <c r="L332" s="4"/>
+      <c r="M332" s="4"/>
+      <c r="N332" s="4"/>
+      <c r="O332" s="4"/>
+      <c r="P332" s="4"/>
+      <c r="Q332" s="4"/>
+      <c r="R332" s="4"/>
+      <c r="S332" s="4"/>
+      <c r="T332" s="4"/>
+      <c r="U332" s="4"/>
+      <c r="V332" s="4"/>
+      <c r="W332" s="4"/>
+      <c r="X332" s="4"/>
+      <c r="Y332" s="4"/>
     </row>
     <row r="333">
       <c r="A333" s="8" t="s">
         <v>601</v>
       </c>
+      <c r="C333" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E333" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F333" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H333" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I333" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="I333" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2">
-        <v>1.0</v>
+        <v>603</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H334" s="9"/>
-      <c r="I334" s="2" t="s">
-        <v>268</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H334" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I334" s="2"/>
     </row>
     <row r="335">
       <c r="A335" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="C335" s="2"/>
+        <v>604</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D335" s="2"/>
+      <c r="E335" s="2">
+        <v>1.0</v>
+      </c>
       <c r="F335" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H335" s="9"/>
+      <c r="I335" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+      <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H335" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="B336" s="4"/>
-      <c r="C336" s="5"/>
-      <c r="D336" s="5"/>
-      <c r="E336" s="4"/>
-      <c r="F336" s="6" t="s">
+      <c r="H336" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="B337" s="4"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G336" s="5"/>
-      <c r="H336" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I336" s="5"/>
-      <c r="J336" s="4"/>
-      <c r="K336" s="4"/>
-      <c r="L336" s="4"/>
-      <c r="M336" s="4"/>
-      <c r="N336" s="4"/>
-      <c r="O336" s="4"/>
-      <c r="P336" s="4"/>
-      <c r="Q336" s="4"/>
-      <c r="R336" s="4"/>
-      <c r="S336" s="4"/>
-      <c r="T336" s="4"/>
-      <c r="U336" s="4"/>
-      <c r="V336" s="4"/>
-      <c r="W336" s="4"/>
-      <c r="X336" s="4"/>
-      <c r="Y336" s="4"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G337" s="5"/>
       <c r="H337" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I337" s="2" t="s">
-        <v>606</v>
-      </c>
+      <c r="I337" s="5"/>
+      <c r="J337" s="4"/>
+      <c r="K337" s="4"/>
+      <c r="L337" s="4"/>
+      <c r="M337" s="4"/>
+      <c r="N337" s="4"/>
+      <c r="O337" s="4"/>
+      <c r="P337" s="4"/>
+      <c r="Q337" s="4"/>
+      <c r="R337" s="4"/>
+      <c r="S337" s="4"/>
+      <c r="T337" s="4"/>
+      <c r="U337" s="4"/>
+      <c r="V337" s="4"/>
+      <c r="W337" s="4"/>
+      <c r="X337" s="4"/>
+      <c r="Y337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="8" t="s">
         <v>607</v>
       </c>
+      <c r="C338" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F338" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H338" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I338" s="2"/>
+      <c r="I338" s="2" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
@@ -11940,25 +11973,25 @@
     </row>
     <row r="340">
       <c r="A340" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H341" s="7" t="s">
-        <v>611</v>
+        <v>63</v>
       </c>
       <c r="I341" s="2"/>
     </row>
@@ -11970,102 +12003,93 @@
         <v>10</v>
       </c>
       <c r="H342" s="7" t="s">
-        <v>102</v>
+        <v>613</v>
       </c>
       <c r="I342" s="2"/>
     </row>
     <row r="343">
       <c r="A343" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>163</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E344" s="2">
-        <v>6.0</v>
+        <v>615</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G344" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H344" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I344" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345" s="2">
+        <v>6.0</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I345" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="I345" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E346" s="2">
-        <v>4.0</v>
+        <v>616</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G346" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H346" s="7"/>
-      <c r="I346" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H346" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I346" s="2"/>
     </row>
     <row r="347">
       <c r="A347" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D347" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E347" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H347" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H347" s="7"/>
       <c r="I347" s="2" t="s">
-        <v>617</v>
+        <v>58</v>
       </c>
     </row>
     <row r="348">
@@ -12073,46 +12097,46 @@
         <v>618</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="H348" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>325</v>
+        <v>619</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>620</v>
+        <v>145</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2">
         <v>4.0</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H349" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>621</v>
+        <v>325</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2">
@@ -12122,10 +12146,10 @@
         <v>36</v>
       </c>
       <c r="H350" s="7" t="s">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="351">
@@ -12133,7 +12157,7 @@
         <v>624</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2">
@@ -12146,15 +12170,15 @@
         <v>270</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2">
@@ -12167,15 +12191,15 @@
         <v>270</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2">
@@ -12188,15 +12212,15 @@
         <v>270</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2">
@@ -12206,91 +12230,91 @@
         <v>36</v>
       </c>
       <c r="H354" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I354" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D355" s="2"/>
+      <c r="E355" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H355" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I354" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="B355" s="4"/>
-      <c r="C355" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="D355" s="5"/>
-      <c r="E355" s="18">
+      <c r="I355" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B356" s="4"/>
+      <c r="C356" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D356" s="5"/>
+      <c r="E356" s="18">
         <v>4.0</v>
       </c>
-      <c r="F355" s="5" t="s">
+      <c r="F356" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G355" s="4"/>
-      <c r="H355" s="6" t="s">
+      <c r="G356" s="4"/>
+      <c r="H356" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="I355" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="J355" s="4"/>
-      <c r="K355" s="4"/>
-      <c r="L355" s="4"/>
-      <c r="M355" s="4"/>
-      <c r="N355" s="4"/>
-      <c r="O355" s="4"/>
-      <c r="P355" s="4"/>
-      <c r="Q355" s="4"/>
-      <c r="R355" s="4"/>
-      <c r="S355" s="4"/>
-      <c r="T355" s="4"/>
-      <c r="U355" s="4"/>
-      <c r="V355" s="4"/>
-      <c r="W355" s="4"/>
-      <c r="X355" s="4"/>
-      <c r="Y355" s="4"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F356" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H356" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I356" s="2" t="s">
-        <v>619</v>
-      </c>
+      <c r="I356" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="J356" s="4"/>
+      <c r="K356" s="4"/>
+      <c r="L356" s="4"/>
+      <c r="M356" s="4"/>
+      <c r="N356" s="4"/>
+      <c r="O356" s="4"/>
+      <c r="P356" s="4"/>
+      <c r="Q356" s="4"/>
+      <c r="R356" s="4"/>
+      <c r="S356" s="4"/>
+      <c r="T356" s="4"/>
+      <c r="U356" s="4"/>
+      <c r="V356" s="4"/>
+      <c r="W356" s="4"/>
+      <c r="X356" s="4"/>
+      <c r="Y356" s="4"/>
     </row>
     <row r="357">
       <c r="A357" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="C357" s="2" t="s">
         <v>631</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2">
         <v>4.0</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H357" s="7" t="s">
         <v>270</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="358">
@@ -12298,7 +12322,7 @@
         <v>632</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2">
@@ -12308,37 +12332,39 @@
         <v>36</v>
       </c>
       <c r="H358" s="7" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>20</v>
+        <v>622</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2">
         <v>4.0</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H359" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="H359" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="I359" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2">
@@ -12347,33 +12373,28 @@
       <c r="F360" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H360" s="7"/>
+      <c r="H360" s="10"/>
       <c r="I360" s="2" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G361" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H361" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H361" s="7"/>
       <c r="I361" s="2" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
     </row>
     <row r="362">
@@ -12381,19 +12402,22 @@
         <v>637</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G362" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H362" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I362" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I362" s="2" t="s">
         <v>638</v>
       </c>
     </row>
@@ -12401,102 +12425,99 @@
       <c r="A363" s="8" t="s">
         <v>639</v>
       </c>
+      <c r="C363" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D363" s="2"/>
+      <c r="E363" s="2">
+        <v>7.0</v>
+      </c>
       <c r="F363" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H363" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I363" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H363" s="7" t="s">
+      <c r="H364" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I363" s="2"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="12" t="s">
-        <v>640</v>
-      </c>
-      <c r="B364" s="4"/>
-      <c r="C364" s="5"/>
-      <c r="D364" s="5"/>
-      <c r="E364" s="4"/>
-      <c r="F364" s="6" t="s">
+      <c r="I364" s="2"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B365" s="4"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="4"/>
+      <c r="F365" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G364" s="4"/>
-      <c r="H364" s="7" t="s">
+      <c r="G365" s="4"/>
+      <c r="H365" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I364" s="5"/>
-      <c r="J364" s="4"/>
-      <c r="K364" s="4"/>
-      <c r="L364" s="4"/>
-      <c r="M364" s="4"/>
-      <c r="N364" s="4"/>
-      <c r="O364" s="4"/>
-      <c r="P364" s="4"/>
-      <c r="Q364" s="4"/>
-      <c r="R364" s="4"/>
-      <c r="S364" s="4"/>
-      <c r="T364" s="4"/>
-      <c r="U364" s="4"/>
-      <c r="V364" s="4"/>
-      <c r="W364" s="4"/>
-      <c r="X364" s="4"/>
-      <c r="Y364" s="4"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F365" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H365" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I365" s="2" t="s">
-        <v>641</v>
-      </c>
+      <c r="I365" s="5"/>
+      <c r="J365" s="4"/>
+      <c r="K365" s="4"/>
+      <c r="L365" s="4"/>
+      <c r="M365" s="4"/>
+      <c r="N365" s="4"/>
+      <c r="O365" s="4"/>
+      <c r="P365" s="4"/>
+      <c r="Q365" s="4"/>
+      <c r="R365" s="4"/>
+      <c r="S365" s="4"/>
+      <c r="T365" s="4"/>
+      <c r="U365" s="4"/>
+      <c r="V365" s="4"/>
+      <c r="W365" s="4"/>
+      <c r="X365" s="4"/>
+      <c r="Y365" s="4"/>
     </row>
     <row r="366">
       <c r="A366" s="8" t="s">
         <v>642</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>643</v>
+        <v>145</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2">
         <v>6.0</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G366" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>21</v>
@@ -12505,7 +12526,7 @@
         <v>15</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="I367" s="2" t="s">
         <v>646</v>
@@ -12515,32 +12536,35 @@
       <c r="A368" s="8" t="s">
         <v>647</v>
       </c>
+      <c r="C368" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2">
+        <v>7.0</v>
+      </c>
       <c r="F368" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>97</v>
+        <v>123</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D369" s="2"/>
-      <c r="E369" s="2">
-        <v>6.0</v>
+        <v>649</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="I369" s="2" t="s">
-        <v>649</v>
+        <v>97</v>
       </c>
     </row>
     <row r="370">
@@ -12558,7 +12582,7 @@
         <v>21</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>60</v>
+        <v>452</v>
       </c>
       <c r="I370" s="2" t="s">
         <v>651</v>
@@ -12568,80 +12592,80 @@
       <c r="A371" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="C371" s="2"/>
+      <c r="C371" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D371" s="2"/>
+      <c r="E371" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F371" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H371" s="7" t="s">
-        <v>165</v>
+        <v>60</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="C372" s="2"/>
       <c r="D372" s="2"/>
-      <c r="E372" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F372" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G372" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H372" s="7"/>
-      <c r="I372" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="H372" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D373" s="2"/>
+      <c r="E373" s="2">
+        <v>2.0</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H373" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I373" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H373" s="7"/>
+      <c r="I373" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="D374" s="2"/>
+        <v>656</v>
+      </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H374" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I374" s="2"/>
     </row>
     <row r="375">
       <c r="A375" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>145</v>
+        <v>657</v>
       </c>
       <c r="D375" s="2"/>
-      <c r="E375" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F375" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H375" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I375" s="2" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="376">
@@ -12649,17 +12673,17 @@
         <v>657</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D376" s="2"/>
-      <c r="E376" s="2">
-        <v>2.0</v>
+      <c r="E376" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="I376" s="2" t="s">
         <v>658</v>
@@ -12670,16 +12694,18 @@
         <v>659</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H377" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="H377" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I377" s="2" t="s">
         <v>660</v>
       </c>
@@ -12689,21 +12715,16 @@
         <v>661</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G378" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H378" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H378" s="7"/>
       <c r="I378" s="2" t="s">
         <v>662</v>
       </c>
@@ -12713,14 +12734,17 @@
         <v>663</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2">
         <v>2.0</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="G379" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H379" s="7" t="s">
         <v>32</v>
@@ -12733,12 +12757,20 @@
       <c r="A380" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="C380" s="2"/>
+      <c r="C380" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="D380" s="2"/>
+      <c r="E380" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F380" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H380" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I380" s="2" t="s">
         <v>666</v>
       </c>
     </row>
@@ -12746,56 +12778,57 @@
       <c r="A381" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C381" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C381" s="2"/>
       <c r="D381" s="2"/>
-      <c r="E381" s="2">
-        <v>4.0</v>
-      </c>
       <c r="F381" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G381" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H381" s="7"/>
-      <c r="I381" s="2" t="s">
-        <v>353</v>
+        <v>10</v>
+      </c>
+      <c r="H381" s="7" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>669</v>
+        <v>39</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H382" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H382" s="7"/>
       <c r="I382" s="2" t="s">
-        <v>670</v>
+        <v>353</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>671</v>
       </c>
+      <c r="D383" s="2"/>
+      <c r="E383" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F383" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="H383" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I383" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="I383" s="2"/>
     </row>
     <row r="384">
       <c r="A384" s="8" t="s">
@@ -12805,84 +12838,75 @@
         <v>10</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>60</v>
+        <v>674</v>
       </c>
       <c r="I384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="C385" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H385" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I385" s="2"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C386" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D385" s="2"/>
-      <c r="E385" s="2">
+      <c r="D386" s="2"/>
+      <c r="E386" s="2">
         <v>6.0</v>
       </c>
-      <c r="F385" s="2" t="s">
+      <c r="F386" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H385" s="7" t="s">
+      <c r="H386" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I385" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="B386" s="4"/>
-      <c r="C386" s="5"/>
-      <c r="D386" s="5"/>
-      <c r="E386" s="4"/>
-      <c r="F386" s="6" t="s">
+      <c r="I386" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="B387" s="4"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="4"/>
+      <c r="F387" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G386" s="4"/>
-      <c r="H386" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I386" s="5"/>
-      <c r="J386" s="4"/>
-      <c r="K386" s="4"/>
-      <c r="L386" s="4"/>
-      <c r="M386" s="4"/>
-      <c r="N386" s="4"/>
-      <c r="O386" s="4"/>
-      <c r="P386" s="4"/>
-      <c r="Q386" s="4"/>
-      <c r="R386" s="4"/>
-      <c r="S386" s="4"/>
-      <c r="T386" s="4"/>
-      <c r="U386" s="4"/>
-      <c r="V386" s="4"/>
-      <c r="W386" s="4"/>
-      <c r="X386" s="4"/>
-      <c r="Y386" s="4"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D387" s="2"/>
-      <c r="E387" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F387" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="G387" s="4"/>
       <c r="H387" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I387" s="2" t="s">
-        <v>677</v>
-      </c>
+      <c r="I387" s="5"/>
+      <c r="J387" s="4"/>
+      <c r="K387" s="4"/>
+      <c r="L387" s="4"/>
+      <c r="M387" s="4"/>
+      <c r="N387" s="4"/>
+      <c r="O387" s="4"/>
+      <c r="P387" s="4"/>
+      <c r="Q387" s="4"/>
+      <c r="R387" s="4"/>
+      <c r="S387" s="4"/>
+      <c r="T387" s="4"/>
+      <c r="U387" s="4"/>
+      <c r="V387" s="4"/>
+      <c r="W387" s="4"/>
+      <c r="X387" s="4"/>
+      <c r="Y387" s="4"/>
     </row>
     <row r="388">
       <c r="A388" s="8" t="s">
@@ -12899,7 +12923,7 @@
         <v>21</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>679</v>
@@ -12909,187 +12933,195 @@
       <c r="A389" s="8" t="s">
         <v>680</v>
       </c>
+      <c r="C389" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D389" s="2"/>
+      <c r="E389" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F389" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I389" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="I389" s="2" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="I390" s="2"/>
     </row>
     <row r="391">
       <c r="A391" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H391" s="7" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="I391" s="2"/>
     </row>
     <row r="392">
       <c r="A392" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>115</v>
+        <v>684</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H392" s="7"/>
-      <c r="I392" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H392" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D393" s="2"/>
-      <c r="E393" s="2">
-        <v>2.0</v>
+        <v>39</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H393" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H393" s="7"/>
       <c r="I393" s="2" t="s">
-        <v>685</v>
+        <v>58</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="C394" s="2"/>
+      <c r="C394" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D394" s="2"/>
+      <c r="E394" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F394" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H394" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="I394" s="2" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D395" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="E395" s="2">
-        <v>2.0</v>
-      </c>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
       <c r="F395" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G395" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H395" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I395" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
+      <c r="C396" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E396" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F396" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G396" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="I396" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="C397" s="2" t="s">
         <v>691</v>
       </c>
+      <c r="C397" s="2"/>
       <c r="D397" s="2"/>
-      <c r="E397" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F397" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G397" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H397" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I397" s="2" t="s">
-        <v>692</v>
+        <v>27</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>693</v>
       </c>
+      <c r="D398" s="2"/>
+      <c r="E398" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F398" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="G398" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H398" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I398" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I398" s="2" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
+        <v>695</v>
+      </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I399" s="2"/>
     </row>
     <row r="400">
       <c r="A400" s="8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -13097,12 +13129,12 @@
         <v>10</v>
       </c>
       <c r="H400" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -13110,45 +13142,46 @@
         <v>10</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C402" s="2"/>
       <c r="D402" s="2"/>
-      <c r="E402" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F402" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H402" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I402" s="2" t="s">
-        <v>698</v>
+        <v>141</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="8" t="s">
         <v>699</v>
       </c>
+      <c r="C403" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D403" s="2"/>
+      <c r="E403" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F403" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H403" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="I403" s="2" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="8" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D404" s="2"/>
       <c r="F404" s="2" t="s">
@@ -13160,76 +13193,67 @@
     </row>
     <row r="405">
       <c r="A405" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>81</v>
+        <v>702</v>
       </c>
       <c r="D405" s="2"/>
-      <c r="E405" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F405" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I405" s="2" t="s">
-        <v>701</v>
+        <v>32</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="8" t="s">
         <v>702</v>
       </c>
+      <c r="C406" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D406" s="2"/>
+      <c r="E406" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F406" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H406" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I406" s="2"/>
+      <c r="I406" s="2" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="C407" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D407" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E407" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F407" s="2" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I407" s="2" t="s">
-        <v>706</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I407" s="2"/>
     </row>
     <row r="408">
       <c r="A408" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D408" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="C408" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D408" s="2"/>
       <c r="E408" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I408" s="2" t="s">
         <v>708</v>
@@ -13239,53 +13263,50 @@
       <c r="A409" s="8" t="s">
         <v>709</v>
       </c>
+      <c r="C409" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D409" s="2"/>
+      <c r="E409" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F409" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H409" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I409" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D410" s="2"/>
-      <c r="E410" s="2">
-        <v>2.0</v>
+        <v>711</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H410" s="7"/>
-      <c r="I410" s="2" t="s">
-        <v>711</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H410" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I410" s="2"/>
     </row>
     <row r="411">
       <c r="A411" s="8" t="s">
         <v>712</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G411" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H411" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H411" s="7"/>
       <c r="I411" s="2" t="s">
         <v>713</v>
       </c>
@@ -13294,156 +13315,168 @@
       <c r="A412" s="8" t="s">
         <v>714</v>
       </c>
+      <c r="C412" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F412" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G412" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H412" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I412" s="2"/>
+      <c r="I412" s="2" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H413" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I414" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H415" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H416" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I417" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H418" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H419" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I419" s="2"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E420" s="2">
-        <v>6.0</v>
+        <v>723</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H420" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I420" s="2" t="s">
-        <v>722</v>
-      </c>
+      <c r="I420" s="2"/>
     </row>
     <row r="421">
       <c r="A421" s="8" t="s">
         <v>723</v>
       </c>
+      <c r="C421" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E421" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F421" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H421" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I421" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="8" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H422" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H423" s="7" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>10</v>
@@ -13455,24 +13488,15 @@
     </row>
     <row r="425">
       <c r="A425" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2" t="s">
         <v>728</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G425" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I425" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H425" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" s="8" t="s">
@@ -13482,8 +13506,8 @@
         <v>39</v>
       </c>
       <c r="D426" s="2"/>
-      <c r="E426" s="2">
-        <v>3.0</v>
+      <c r="E426" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>40</v>
@@ -13492,89 +13516,98 @@
         <v>15</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>730</v>
+        <v>16</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="12" t="s">
+      <c r="A427" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="B427" s="4"/>
-      <c r="C427" s="5"/>
-      <c r="D427" s="5"/>
-      <c r="E427" s="4"/>
-      <c r="F427" s="6" t="s">
+      <c r="C427" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D427" s="2"/>
+      <c r="E427" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I427" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="B428" s="4"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="5"/>
+      <c r="E428" s="4"/>
+      <c r="F428" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G427" s="5"/>
-      <c r="H427" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I427" s="5"/>
-      <c r="J427" s="4"/>
-      <c r="K427" s="4"/>
-      <c r="L427" s="4"/>
-      <c r="M427" s="4"/>
-      <c r="N427" s="4"/>
-      <c r="O427" s="4"/>
-      <c r="P427" s="4"/>
-      <c r="Q427" s="4"/>
-      <c r="R427" s="4"/>
-      <c r="S427" s="4"/>
-      <c r="T427" s="4"/>
-      <c r="U427" s="4"/>
-      <c r="V427" s="4"/>
-      <c r="W427" s="4"/>
-      <c r="X427" s="4"/>
-      <c r="Y427" s="4"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E428" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F428" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G428" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G428" s="5"/>
       <c r="H428" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I428" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I428" s="5"/>
+      <c r="J428" s="4"/>
+      <c r="K428" s="4"/>
+      <c r="L428" s="4"/>
+      <c r="M428" s="4"/>
+      <c r="N428" s="4"/>
+      <c r="O428" s="4"/>
+      <c r="P428" s="4"/>
+      <c r="Q428" s="4"/>
+      <c r="R428" s="4"/>
+      <c r="S428" s="4"/>
+      <c r="T428" s="4"/>
+      <c r="U428" s="4"/>
+      <c r="V428" s="4"/>
+      <c r="W428" s="4"/>
+      <c r="X428" s="4"/>
+      <c r="Y428" s="4"/>
     </row>
     <row r="429">
       <c r="A429" s="8" t="s">
-        <v>732</v>
+        <v>733</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E429" s="2">
+        <v>6.0</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G429" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H429" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I429" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I429" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H430" s="7" t="s">
-        <v>734</v>
+        <v>25</v>
       </c>
       <c r="I430" s="2"/>
     </row>
@@ -13586,31 +13619,31 @@
         <v>10</v>
       </c>
       <c r="H431" s="7" t="s">
-        <v>97</v>
+        <v>736</v>
       </c>
       <c r="I431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H432" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>738</v>
+        <v>60</v>
       </c>
       <c r="I433" s="2"/>
     </row>
@@ -13618,113 +13651,121 @@
       <c r="A434" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
       <c r="F434" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H434" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="H434" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="I434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="C435" s="2"/>
       <c r="D435" s="2"/>
-      <c r="E435" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F435" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H435" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I435" s="2" t="s">
-        <v>741</v>
+        <v>10</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="8" t="s">
         <v>742</v>
       </c>
+      <c r="C436" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D436" s="2"/>
+      <c r="E436" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F436" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H436" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I436" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I436" s="2" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="C437" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="D437" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E437" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F437" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G437" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H437" s="7"/>
-      <c r="I437" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H437" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" s="8" t="s">
         <v>745</v>
       </c>
+      <c r="C438" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E438" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F438" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H438" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I438" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H438" s="7"/>
+      <c r="I438" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="C439" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H439" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I439" s="2"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D439" s="2" t="s">
+      <c r="D440" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E439" s="2">
+      <c r="E440" s="2">
         <v>6.0</v>
       </c>
-      <c r="F439" s="2" t="s">
+      <c r="F440" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G439" s="2" t="s">
+      <c r="G440" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H439" s="2" t="s">
+      <c r="H440" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I439" s="2" t="s">
+      <c r="I440" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="440">
-      <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
     </row>
     <row r="441">
       <c r="C441" s="2"/>
@@ -16149,15 +16190,15 @@
     <hyperlink r:id="rId200" ref="A199"/>
     <hyperlink r:id="rId201" ref="A200"/>
     <hyperlink r:id="rId202" location="leaderboard" ref="A201"/>
-    <hyperlink r:id="rId203" ref="A202"/>
+    <hyperlink r:id="rId203" location="leaderboard" ref="A202"/>
     <hyperlink r:id="rId204" ref="A203"/>
     <hyperlink r:id="rId205" ref="A204"/>
     <hyperlink r:id="rId206" ref="A205"/>
     <hyperlink r:id="rId207" ref="A206"/>
     <hyperlink r:id="rId208" ref="A207"/>
     <hyperlink r:id="rId209" ref="A208"/>
-    <hyperlink r:id="rId210" location="leaderboard" ref="A209"/>
-    <hyperlink r:id="rId211" ref="A210"/>
+    <hyperlink r:id="rId210" ref="A209"/>
+    <hyperlink r:id="rId211" location="leaderboard" ref="A210"/>
     <hyperlink r:id="rId212" ref="A211"/>
     <hyperlink r:id="rId213" ref="A212"/>
     <hyperlink r:id="rId214" ref="A213"/>
@@ -16171,9 +16212,9 @@
     <hyperlink r:id="rId222" ref="A221"/>
     <hyperlink r:id="rId223" ref="A222"/>
     <hyperlink r:id="rId224" ref="A223"/>
-    <hyperlink r:id="rId225" location="leaderboard" ref="A224"/>
-    <hyperlink r:id="rId226" location="Leaderboard" ref="A225"/>
-    <hyperlink r:id="rId227" ref="A226"/>
+    <hyperlink r:id="rId225" ref="A224"/>
+    <hyperlink r:id="rId226" location="leaderboard" ref="A225"/>
+    <hyperlink r:id="rId227" location="Leaderboard" ref="A226"/>
     <hyperlink r:id="rId228" ref="A227"/>
     <hyperlink r:id="rId229" ref="A228"/>
     <hyperlink r:id="rId230" ref="A229"/>
@@ -16227,8 +16268,8 @@
     <hyperlink r:id="rId278" ref="A277"/>
     <hyperlink r:id="rId279" ref="A278"/>
     <hyperlink r:id="rId280" ref="A279"/>
-    <hyperlink r:id="rId281" location="/rank" ref="A280"/>
-    <hyperlink r:id="rId282" ref="A281"/>
+    <hyperlink r:id="rId281" ref="A280"/>
+    <hyperlink r:id="rId282" location="/rank" ref="A281"/>
     <hyperlink r:id="rId283" ref="A282"/>
     <hyperlink r:id="rId284" ref="A283"/>
     <hyperlink r:id="rId285" ref="A284"/>
@@ -16295,8 +16336,8 @@
     <hyperlink r:id="rId346" ref="A345"/>
     <hyperlink r:id="rId347" ref="A346"/>
     <hyperlink r:id="rId348" ref="A347"/>
-    <hyperlink r:id="rId349" location="/leaderboard" ref="A348"/>
-    <hyperlink r:id="rId350" ref="A349"/>
+    <hyperlink r:id="rId349" ref="A348"/>
+    <hyperlink r:id="rId350" location="/leaderboard" ref="A349"/>
     <hyperlink r:id="rId351" ref="A350"/>
     <hyperlink r:id="rId352" ref="A351"/>
     <hyperlink r:id="rId353" ref="A352"/>
@@ -16310,8 +16351,8 @@
     <hyperlink r:id="rId361" ref="A360"/>
     <hyperlink r:id="rId362" ref="A361"/>
     <hyperlink r:id="rId363" ref="A362"/>
-    <hyperlink r:id="rId364" ref="I362"/>
-    <hyperlink r:id="rId365" ref="A363"/>
+    <hyperlink r:id="rId364" ref="A363"/>
+    <hyperlink r:id="rId365" ref="I363"/>
     <hyperlink r:id="rId366" ref="A364"/>
     <hyperlink r:id="rId367" ref="A365"/>
     <hyperlink r:id="rId368" ref="A366"/>
@@ -16388,9 +16429,10 @@
     <hyperlink r:id="rId439" ref="A437"/>
     <hyperlink r:id="rId440" ref="A438"/>
     <hyperlink r:id="rId441" ref="A439"/>
+    <hyperlink r:id="rId442" ref="A440"/>
   </hyperlinks>
-  <drawing r:id="rId442"/>
-  <legacyDrawing r:id="rId443"/>
+  <drawing r:id="rId443"/>
+  <legacyDrawing r:id="rId444"/>
 </worksheet>
 </file>
 
@@ -16406,22 +16448,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
@@ -16445,27 +16487,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -16492,177 +16534,177 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36">
@@ -16716,42 +16758,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -16779,7 +16821,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16809,7 +16851,7 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16839,7 +16881,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16869,7 +16911,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -16899,7 +16941,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -16929,7 +16971,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -16959,7 +17001,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -16989,7 +17031,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -17019,7 +17061,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -17049,7 +17091,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -17079,7 +17121,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -17109,7 +17151,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -17139,7 +17181,7 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -17169,7 +17211,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -17199,7 +17241,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -17229,7 +17271,7 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -17259,7 +17301,7 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -17289,7 +17331,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17319,7 +17361,7 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17349,7 +17391,7 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17379,7 +17421,7 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -17409,7 +17451,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -17439,7 +17481,7 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -17469,7 +17511,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -17499,7 +17541,7 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17529,7 +17571,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -17559,7 +17601,7 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -17589,7 +17631,7 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -17619,7 +17661,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -17649,7 +17691,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -44852,192 +44894,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -45091,112 +45133,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -45234,57 +45276,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -45314,267 +45356,272 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="16" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="16" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="16" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="16" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="16" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="16" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>915</v>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="s">
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -45625,7 +45672,8 @@
     <hyperlink r:id="rId44" ref="A51"/>
     <hyperlink r:id="rId45" ref="A52"/>
     <hyperlink r:id="rId46" ref="A53"/>
+    <hyperlink r:id="rId47" ref="A54"/>
   </hyperlinks>
-  <drawing r:id="rId47"/>
+  <drawing r:id="rId48"/>
 </worksheet>
 </file>
--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -2309,7 +2309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="921">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -3644,7 +3644,7 @@
     <t>Artificial Analysis</t>
   </si>
   <si>
-    <t>MOE LLM GPU-Poor Leaderboard</t>
+    <t>OPEN MOE LLM Leaderboard</t>
   </si>
   <si>
     <t>MoleculeNet</t>
@@ -4696,6 +4696,12 @@
     <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/8</t>
   </si>
   <si>
+    <t>Evaluation Metric</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/image-classification-on-imagenet</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/4</t>
   </si>
   <si>
@@ -4733,9 +4739,6 @@
   </si>
   <si>
     <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/7</t>
-  </si>
-  <si>
-    <t>Evaluation Metric</t>
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2034</t>
@@ -4971,9 +4974,6 @@
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2350</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/PingAndPasquale/MOE-LLM-GPU-Poor-Leaderboard/discussions/2</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/6</t>
@@ -16768,17 +16768,17 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>764</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>792</v>
+      <c r="A5" s="2" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="6">
@@ -16787,25 +16787,36 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="8" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="8" t="s">
         <v>795</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="A5"/>
-    <hyperlink r:id="rId4" ref="A6"/>
-    <hyperlink r:id="rId5" ref="A7"/>
-    <hyperlink r:id="rId6" ref="A8"/>
+    <hyperlink r:id="rId3" ref="A6"/>
+    <hyperlink r:id="rId4" ref="A7"/>
+    <hyperlink r:id="rId5" ref="A8"/>
+    <hyperlink r:id="rId6" ref="A9"/>
+    <hyperlink r:id="rId7" ref="A10"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -16851,7 +16862,7 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16881,7 +16892,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16941,7 +16952,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -16971,7 +16982,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -17001,7 +17012,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -17031,7 +17042,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -17061,7 +17072,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -17091,7 +17102,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -17121,7 +17132,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -17151,7 +17162,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -17181,7 +17192,7 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -17211,7 +17222,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -17271,7 +17282,7 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -17301,7 +17312,7 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -17331,7 +17342,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17361,7 +17372,7 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17391,7 +17402,7 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17421,7 +17432,7 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -17481,7 +17492,7 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -17541,7 +17552,7 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17571,7 +17582,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -17601,7 +17612,7 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -17631,7 +17642,7 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -17661,7 +17672,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -17691,7 +17702,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -44899,17 +44910,17 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5">
@@ -44924,57 +44935,57 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="18">
@@ -44984,22 +44995,22 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23">
@@ -45009,47 +45020,47 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="33">
@@ -45059,12 +45070,12 @@
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="36">
@@ -45074,12 +45085,12 @@
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -45138,17 +45149,17 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="5">
@@ -45158,7 +45169,7 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="7">
@@ -45168,12 +45179,12 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="10">
@@ -45183,32 +45194,32 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="17">
@@ -45218,7 +45229,7 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="19">
@@ -45228,17 +45239,17 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -45281,17 +45292,17 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5">
@@ -45301,17 +45312,17 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9">
@@ -45321,12 +45332,12 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -45361,32 +45372,32 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>880</v>
+      <c r="A7" s="8" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="8">
@@ -45461,12 +45472,12 @@
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24">
@@ -45541,7 +45552,7 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="39">

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -77,7 +77,9 @@
       <text>
         <t xml:space="preserve">https://openlm.ai/chatbot-arena/
 	-Jimmy Chou
-https://chat.lmsys.org/
+https://chat.lmsys.org/?leaderboard
+	-Jimmy Chou
+https://huggingface.co/spaces/lmsys/chatbot-arena-leaderboard/discussions/31
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -973,31 +975,31 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E265">
+    <comment authorId="0" ref="E264">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/4
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H253">
+    <comment authorId="0" ref="H252">
       <text>
         <t xml:space="preserve">https://nexusflow.ai/blogs/ravenv2
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A250">
+    <comment authorId="0" ref="A249">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/malaysian-stt-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A248">
+    <comment authorId="0" ref="A247">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/llm-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A249">
+    <comment authorId="0" ref="A248">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/embedding-benchmarks
 	-Jimmy Chou</t>
@@ -1083,7 +1085,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A251">
+    <comment authorId="0" ref="A250">
       <text>
         <t xml:space="preserve">https://github.com/allenai/natural-instructions
 	-Jimmy Chou</t>
@@ -1275,7 +1277,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F253">
+    <comment authorId="0" ref="F252">
       <text>
         <t xml:space="preserve">https://github.com/nexusflowai/NexusRaven/
 	-Jimmy Chou</t>
@@ -1293,13 +1295,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F248">
+    <comment authorId="0" ref="F247">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/llm-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F265">
+    <comment authorId="0" ref="F264">
       <text>
         <t xml:space="preserve">https://github.com/C080/open-llm-ita-leaderboard
 	-Jimmy Chou</t>
@@ -1317,7 +1319,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D242">
+    <comment authorId="0" ref="D241">
       <text>
         <t xml:space="preserve">https://raw.githubusercontent.com/AI-Northstar-Tech/mteb-info/main/data/data.json
 	-Jimmy Chou</t>
@@ -1371,7 +1373,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F256">
+    <comment authorId="0" ref="F255">
       <text>
         <t xml:space="preserve">https://github.com/casmlab/NPHardEval
 	-Jimmy Chou</t>
@@ -1495,7 +1497,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F263">
+    <comment authorId="0" ref="F262">
       <text>
         <t xml:space="preserve">https://github.com/huggingface/open_asr_leaderboard
 	-Jimmy Chou</t>
@@ -1666,7 +1668,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F251">
+    <comment authorId="0" ref="F250">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/natural-instructions/submissions/public
 	-Jimmy Chou</t>
@@ -1800,7 +1802,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F247">
+    <comment authorId="0" ref="F246">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard
 	-Jimmy Chou
@@ -1917,7 +1919,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A267">
+    <comment authorId="0" ref="A266">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/gsaivinay/open_llm_leaderboard
 	-Jimmy Chou</t>
@@ -2227,7 +2229,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F242">
+    <comment authorId="0" ref="F241">
       <text>
         <t xml:space="preserve">https://mteb.info
 	-Jimmy Chou</t>
@@ -2309,7 +2311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="922">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -3407,7 +3409,7 @@
     <t>LMSYS Chatbot Arena Leaderboard</t>
   </si>
   <si>
-    <t>hf:Sortable Table+Scatter Plot+Bar Chart,ip:Sortable Table</t>
+    <t>ip:Sortable Table+Scatter Plot+Bar Chart</t>
   </si>
   <si>
     <t>4,5</t>
@@ -3644,184 +3646,184 @@
     <t>Artificial Analysis</t>
   </si>
   <si>
+    <t>MoleculeNet</t>
+  </si>
+  <si>
+    <t>Chemical Science</t>
+  </si>
+  <si>
+    <t>MRPC</t>
+  </si>
+  <si>
+    <t>IJCNLP</t>
+  </si>
+  <si>
+    <t>MSCOCO</t>
+  </si>
+  <si>
+    <t>MSRVTT</t>
+  </si>
+  <si>
+    <t>MSRVTT-QA</t>
+  </si>
+  <si>
+    <t>ACM-MM</t>
+  </si>
+  <si>
+    <t>MSTEB</t>
+  </si>
+  <si>
+    <t>Clibrain</t>
+  </si>
+  <si>
+    <t>MSVAMP</t>
+  </si>
+  <si>
+    <t>MSVD</t>
+  </si>
+  <si>
+    <t>MSVD-QA</t>
+  </si>
+  <si>
+    <t>MTEB</t>
+  </si>
+  <si>
+    <t>hf:Sortable Table,gh:Regular Table,ip:Sortable Table</t>
+  </si>
+  <si>
+    <t>gh,hf,ip,pwc</t>
+  </si>
+  <si>
+    <t>EACL</t>
+  </si>
+  <si>
+    <t>Hugging Face,Cohere</t>
+  </si>
+  <si>
+    <t>MultiRC</t>
+  </si>
+  <si>
+    <t>MusicCaps</t>
+  </si>
+  <si>
+    <t>MusicQA</t>
+  </si>
+  <si>
+    <t>MVBench</t>
+  </si>
+  <si>
+    <t>hf:Sortable Table,gh:Table Screenshot</t>
+  </si>
+  <si>
+    <t>Chinese Academy of Sciences,University of Chinese Academy of Sciences,Shanghai AI Laboratory,University of Hong Kong,Fudan University,Nanjing University</t>
+  </si>
+  <si>
+    <t>MY Malay LLM Leaderboard</t>
+  </si>
+  <si>
+    <t>Mesolitica</t>
+  </si>
+  <si>
+    <t>MY Malaysian Embedding Leaderboard</t>
+  </si>
+  <si>
+    <t>MY Malaysian Speech-to-Text Leaderboard</t>
+  </si>
+  <si>
+    <t>Natural Instructions (v2)</t>
+  </si>
+  <si>
+    <t>NExT-QA</t>
+  </si>
+  <si>
+    <t>Nexus Function Calling Leaderboard</t>
+  </si>
+  <si>
+    <t>hf:Sortable Table+Radar Chart</t>
+  </si>
+  <si>
+    <t>Nexusflow</t>
+  </si>
+  <si>
+    <t>NLVR</t>
+  </si>
+  <si>
+    <t>NoCaps</t>
+  </si>
+  <si>
+    <t>NPHardEval</t>
+  </si>
+  <si>
+    <t>University of Michigan Ann Arbor,Rutgers University</t>
+  </si>
+  <si>
+    <t>NPHardEval4V</t>
+  </si>
+  <si>
+    <t>University of Michigan,Rutgers University,Shandong University,Microsoft Research Asia</t>
+  </si>
+  <si>
+    <t>NQ</t>
+  </si>
+  <si>
+    <t>OCRBench</t>
+  </si>
+  <si>
+    <t>Huazhong University of Science and Technology,Microsoft,University of Science and Technology Beijing,Chinese Academy of Sciences,South China University of Technology</t>
+  </si>
+  <si>
+    <t>ODEX</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University,Inspired Cognition</t>
+  </si>
+  <si>
+    <t>OK-VQA</t>
+  </si>
+  <si>
+    <t>OmniBenchmark</t>
+  </si>
+  <si>
+    <t>Open ASR Leaderboard</t>
+  </si>
+  <si>
+    <t>Open Dutch LLM Evaluation Leaderboard</t>
+  </si>
+  <si>
+    <t>LATEX</t>
+  </si>
+  <si>
+    <t>Catholic University of Leuven</t>
+  </si>
+  <si>
+    <t>Open ITA LLM Leaderboard</t>
+  </si>
+  <si>
+    <t>Open Ko-LLM Leaderboard</t>
+  </si>
+  <si>
+    <t>Upstage</t>
+  </si>
+  <si>
+    <t>Open LLM Leaderboard</t>
+  </si>
+  <si>
+    <t>Open LLM Leaderboard (GPT)</t>
+  </si>
+  <si>
+    <t>Open Medical-LLM Leaderboard</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Google,National Library of Medicine,Google DeepMind</t>
+  </si>
+  <si>
+    <t>Open MLLM Leaderboard</t>
+  </si>
+  <si>
     <t>OPEN MOE LLM Leaderboard</t>
-  </si>
-  <si>
-    <t>MoleculeNet</t>
-  </si>
-  <si>
-    <t>Chemical Science</t>
-  </si>
-  <si>
-    <t>MRPC</t>
-  </si>
-  <si>
-    <t>IJCNLP</t>
-  </si>
-  <si>
-    <t>MSCOCO</t>
-  </si>
-  <si>
-    <t>MSRVTT</t>
-  </si>
-  <si>
-    <t>MSRVTT-QA</t>
-  </si>
-  <si>
-    <t>ACM-MM</t>
-  </si>
-  <si>
-    <t>MSTEB</t>
-  </si>
-  <si>
-    <t>Clibrain</t>
-  </si>
-  <si>
-    <t>MSVAMP</t>
-  </si>
-  <si>
-    <t>MSVD</t>
-  </si>
-  <si>
-    <t>MSVD-QA</t>
-  </si>
-  <si>
-    <t>MTEB</t>
-  </si>
-  <si>
-    <t>hf:Sortable Table,gh:Regular Table,ip:Sortable Table</t>
-  </si>
-  <si>
-    <t>gh,hf,ip,pwc</t>
-  </si>
-  <si>
-    <t>EACL</t>
-  </si>
-  <si>
-    <t>Hugging Face,Cohere</t>
-  </si>
-  <si>
-    <t>MultiRC</t>
-  </si>
-  <si>
-    <t>MusicCaps</t>
-  </si>
-  <si>
-    <t>MusicQA</t>
-  </si>
-  <si>
-    <t>MVBench</t>
-  </si>
-  <si>
-    <t>hf:Sortable Table,gh:Table Screenshot</t>
-  </si>
-  <si>
-    <t>Chinese Academy of Sciences,University of Chinese Academy of Sciences,Shanghai AI Laboratory,University of Hong Kong,Fudan University,Nanjing University</t>
-  </si>
-  <si>
-    <t>MY Malay LLM Leaderboard</t>
-  </si>
-  <si>
-    <t>Mesolitica</t>
-  </si>
-  <si>
-    <t>MY Malaysian Embedding Leaderboard</t>
-  </si>
-  <si>
-    <t>MY Malaysian Speech-to-Text Leaderboard</t>
-  </si>
-  <si>
-    <t>Natural Instructions (v2)</t>
-  </si>
-  <si>
-    <t>NExT-QA</t>
-  </si>
-  <si>
-    <t>Nexus Function Calling Leaderboard</t>
-  </si>
-  <si>
-    <t>hf:Sortable Table+Radar Chart</t>
-  </si>
-  <si>
-    <t>Nexusflow</t>
-  </si>
-  <si>
-    <t>NLVR</t>
-  </si>
-  <si>
-    <t>NoCaps</t>
-  </si>
-  <si>
-    <t>NPHardEval</t>
-  </si>
-  <si>
-    <t>University of Michigan Ann Arbor,Rutgers University</t>
-  </si>
-  <si>
-    <t>NPHardEval4V</t>
-  </si>
-  <si>
-    <t>University of Michigan,Rutgers University,Shandong University,Microsoft Research Asia</t>
-  </si>
-  <si>
-    <t>NQ</t>
-  </si>
-  <si>
-    <t>OCRBench</t>
-  </si>
-  <si>
-    <t>Huazhong University of Science and Technology,Microsoft,University of Science and Technology Beijing,Chinese Academy of Sciences,South China University of Technology</t>
-  </si>
-  <si>
-    <t>ODEX</t>
-  </si>
-  <si>
-    <t>Carnegie Mellon University,Inspired Cognition</t>
-  </si>
-  <si>
-    <t>OK-VQA</t>
-  </si>
-  <si>
-    <t>OmniBenchmark</t>
-  </si>
-  <si>
-    <t>Open ASR Leaderboard</t>
-  </si>
-  <si>
-    <t>Open Dutch LLM Evaluation Leaderboard</t>
-  </si>
-  <si>
-    <t>LATEX</t>
-  </si>
-  <si>
-    <t>Catholic University of Leuven</t>
-  </si>
-  <si>
-    <t>Open ITA LLM Leaderboard</t>
-  </si>
-  <si>
-    <t>Open Ko-LLM Leaderboard</t>
-  </si>
-  <si>
-    <t>Upstage</t>
-  </si>
-  <si>
-    <t>Open LLM Leaderboard</t>
-  </si>
-  <si>
-    <t>Open LLM Leaderboard (GPT)</t>
-  </si>
-  <si>
-    <t>Open Medical-LLM Leaderboard</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Google,National Library of Medicine,Google DeepMind</t>
-  </si>
-  <si>
-    <t>Open MLLM Leaderboard</t>
   </si>
   <si>
     <t>Open Multilingual LLM Evaluation Leaderboard</t>
@@ -4923,6 +4925,9 @@
   </si>
   <si>
     <t>https://github.com/OpenLMLab/LEval/issues/10</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/lmsys/chatbot-arena-leaderboard/discussions/31</t>
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2386</t>
@@ -9033,7 +9038,7 @@
         <v>366</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>15</v>
@@ -9871,46 +9876,36 @@
       <c r="A232" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C232" s="2"/>
       <c r="D232" s="2"/>
-      <c r="E232" s="2">
-        <v>4.0</v>
-      </c>
       <c r="F232" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H232" s="7"/>
-      <c r="I232" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="H232" s="7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
+        <v>446</v>
+      </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>446</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="I233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>448</v>
+        <v>11</v>
       </c>
       <c r="I234" s="2"/>
     </row>
@@ -9922,7 +9917,7 @@
         <v>10</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I235" s="2"/>
     </row>
@@ -9934,60 +9929,60 @@
         <v>10</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>25</v>
+        <v>451</v>
       </c>
       <c r="I236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2">
+        <v>2.0</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H237" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="I237" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="H237" s="7"/>
+      <c r="I237" s="2" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D238" s="2"/>
+        <v>20</v>
+      </c>
       <c r="E238" s="2">
         <v>2.0</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H238" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="H238" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I238" s="2" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E239" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F239" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I239" s="2" t="s">
-        <v>406</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" s="8" t="s">
@@ -9997,7 +9992,7 @@
         <v>10</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>60</v>
+        <v>451</v>
       </c>
       <c r="I240" s="2"/>
     </row>
@@ -10005,39 +10000,39 @@
       <c r="A241" s="8" t="s">
         <v>457</v>
       </c>
+      <c r="C241" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E241" s="2">
+        <v>10.0</v>
+      </c>
       <c r="F241" s="2" t="s">
-        <v>10</v>
+        <v>459</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="I241" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E242" s="2">
-        <v>10.0</v>
+        <v>462</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I242" s="2" t="s">
-        <v>462</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="8" t="s">
@@ -10047,13 +10042,12 @@
         <v>10</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I243" s="2"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -10066,6 +10060,8 @@
       <c r="A245" s="8" t="s">
         <v>464</v>
       </c>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
@@ -10077,41 +10073,50 @@
       <c r="A246" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
+      <c r="C246" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E246" s="2">
+        <v>7.0</v>
+      </c>
       <c r="F246" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="H246" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="I246" s="2" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D247" s="2"/>
       <c r="E247" s="2">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H247" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H247" s="7"/>
       <c r="I247" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>39</v>
@@ -10126,9 +10131,9 @@
       <c r="G248" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H248" s="7"/>
+      <c r="H248" s="10"/>
       <c r="I248" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="249">
@@ -10145,12 +10150,9 @@
       <c r="F249" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G249" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H249" s="10"/>
       <c r="I249" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="250">
@@ -10158,77 +10160,69 @@
         <v>472</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D250" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E250" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H250" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H250" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="I250" s="2" t="s">
-        <v>470</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E251" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F251" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I251" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" s="8" t="s">
         <v>474</v>
       </c>
+      <c r="C252" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F252" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I252" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2">
-        <v>2.0</v>
+        <v>477</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I253" s="2" t="s">
-        <v>477</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254">
@@ -10239,124 +10233,125 @@
         <v>10</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" s="8" t="s">
         <v>479</v>
       </c>
+      <c r="C255" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F255" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I255" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2">
         <v>2.0</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H256" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2">
-        <v>2.0</v>
+        <v>483</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I257" s="2" t="s">
-        <v>483</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" s="8" t="s">
         <v>484</v>
       </c>
+      <c r="C258" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" s="2">
+        <v>7.0</v>
+      </c>
       <c r="F258" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I258" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D259" s="2"/>
       <c r="E259" s="2">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2">
-        <v>2.0</v>
+        <v>488</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I260" s="2" t="s">
-        <v>488</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" s="8" t="s">
@@ -10366,7 +10361,7 @@
         <v>10</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I261" s="2"/>
     </row>
@@ -10374,24 +10369,38 @@
       <c r="A262" s="8" t="s">
         <v>490</v>
       </c>
+      <c r="C262" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2">
+        <v>4.0</v>
+      </c>
       <c r="F262" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I262" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="8" t="s">
         <v>491</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D263" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="E263" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>40</v>
@@ -10403,33 +10412,28 @@
         <v>32</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>353</v>
+        <v>493</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>493</v>
+        <v>13</v>
       </c>
       <c r="E264" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G264" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H264" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="H264" s="7"/>
       <c r="I264" s="2" t="s">
-        <v>494</v>
+        <v>58</v>
       </c>
     </row>
     <row r="265">
@@ -10439,26 +10443,27 @@
       <c r="C265" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D265" s="2"/>
       <c r="E265" s="2">
         <v>4.0</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H265" s="7"/>
+      <c r="G265" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H265" s="10"/>
       <c r="I265" s="2" t="s">
-        <v>58</v>
+        <v>496</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2">
@@ -10472,7 +10477,7 @@
       </c>
       <c r="H266" s="10"/>
       <c r="I266" s="2" t="s">
-        <v>497</v>
+        <v>353</v>
       </c>
     </row>
     <row r="267">
@@ -10480,7 +10485,7 @@
         <v>498</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2">
@@ -10494,7 +10499,7 @@
       </c>
       <c r="H267" s="10"/>
       <c r="I267" s="2" t="s">
-        <v>353</v>
+        <v>58</v>
       </c>
     </row>
     <row r="268">
@@ -10514,21 +10519,23 @@
       <c r="G268" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H268" s="10"/>
+      <c r="H268" s="7" t="s">
+        <v>500</v>
+      </c>
       <c r="I268" s="2" t="s">
-        <v>58</v>
+        <v>501</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>40</v>
@@ -10536,11 +10543,9 @@
       <c r="G269" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H269" s="7" t="s">
-        <v>501</v>
-      </c>
+      <c r="H269" s="7"/>
       <c r="I269" s="2" t="s">
-        <v>502</v>
+        <v>58</v>
       </c>
     </row>
     <row r="270">
@@ -10552,7 +10557,7 @@
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>40</v>
@@ -12582,7 +12587,7 @@
         <v>21</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I370" s="2" t="s">
         <v>651</v>
@@ -16453,7 +16458,7 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3">
@@ -16463,7 +16468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -45223,23 +45228,23 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>864</v>
-      </c>
-    </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
         <v>783</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="21">
@@ -45248,8 +45253,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="8" t="s">
         <v>867</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="s">
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -45266,12 +45276,13 @@
     <hyperlink r:id="rId10" ref="A14"/>
     <hyperlink r:id="rId11" ref="A15"/>
     <hyperlink r:id="rId12" ref="A16"/>
-    <hyperlink r:id="rId13" ref="A18"/>
-    <hyperlink r:id="rId14" ref="A20"/>
+    <hyperlink r:id="rId13" ref="A17"/>
+    <hyperlink r:id="rId14" ref="A19"/>
     <hyperlink r:id="rId15" ref="A21"/>
     <hyperlink r:id="rId16" ref="A22"/>
+    <hyperlink r:id="rId17" ref="A23"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -45292,17 +45303,17 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="5">
@@ -45312,17 +45323,17 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9">
@@ -45332,12 +45343,12 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -45372,27 +45383,27 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7">
@@ -45407,57 +45418,57 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20">
@@ -45467,7 +45478,7 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="22">
@@ -45482,22 +45493,22 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="28">
@@ -45507,7 +45518,7 @@
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="30">
@@ -45517,22 +45528,22 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35">
@@ -45542,12 +45553,12 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="38">
@@ -45557,7 +45568,7 @@
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="40">
@@ -45567,72 +45578,72 @@
     </row>
     <row r="41">
       <c r="A41" s="16" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="16" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="16" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="16" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="16" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -77,9 +77,9 @@
       <text>
         <t xml:space="preserve">https://openlm.ai/chatbot-arena/
 	-Jimmy Chou
-https://chat.lmsys.org/?leaderboard
+https://chat.lmsys.org
 	-Jimmy Chou
-https://huggingface.co/spaces/lmsys/chatbot-arena-leaderboard/discussions/31
+https://arena.lmsys.org
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -2311,7 +2311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="930">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -4704,6 +4704,18 @@
     <t>https://paperswithcode.com/sota/image-classification-on-imagenet</t>
   </si>
   <si>
+    <t>https://paperswithcode.com/sota/object-detection-on-coco</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/question-answering-on-squad11</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/machine-translation-on-wmt2014-english-german</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/machine-translation-on-wmt2014-english-french</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/4</t>
   </si>
   <si>
@@ -5027,6 +5039,18 @@
   </si>
   <si>
     <t>https://github.com/open-compass/opencompass/discussions/687</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-youcook2</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-vitt</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/chinese-reading-comprehension-on-cmrc-2019</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/chat-based-image-retrieval-on-visdial</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/SeaEval/SeaEval_Leaderboard/discussions/2</t>
@@ -16458,7 +16482,7 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3">
@@ -16468,7 +16492,7 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -16782,46 +16806,70 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>764</v>
+      <c r="A5" s="8" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>795</v>
+      <c r="A8" s="16" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>796</v>
+      <c r="A9" s="2" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="8" t="s">
         <v>797</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="A6"/>
-    <hyperlink r:id="rId4" ref="A7"/>
-    <hyperlink r:id="rId5" ref="A8"/>
-    <hyperlink r:id="rId6" ref="A9"/>
+    <hyperlink r:id="rId3" ref="A5"/>
+    <hyperlink r:id="rId4" ref="A6"/>
+    <hyperlink r:id="rId5" ref="A7"/>
+    <hyperlink r:id="rId6" ref="A8"/>
     <hyperlink r:id="rId7" ref="A10"/>
+    <hyperlink r:id="rId8" ref="A11"/>
+    <hyperlink r:id="rId9" ref="A12"/>
+    <hyperlink r:id="rId10" ref="A13"/>
+    <hyperlink r:id="rId11" ref="A14"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -16867,7 +16915,7 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16897,7 +16945,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16957,7 +17005,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -16987,7 +17035,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -17017,7 +17065,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -17047,7 +17095,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -17077,7 +17125,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -17107,7 +17155,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -17167,7 +17215,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -17197,7 +17245,7 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -17227,7 +17275,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -17287,7 +17335,7 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -17317,7 +17365,7 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -17347,7 +17395,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17377,7 +17425,7 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17407,7 +17455,7 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17437,7 +17485,7 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -17497,7 +17545,7 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -17557,7 +17605,7 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17587,7 +17635,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -17617,7 +17665,7 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -17647,7 +17695,7 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -17677,7 +17725,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -17707,7 +17755,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -44915,17 +44963,17 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5">
@@ -44940,57 +44988,57 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="18">
@@ -45000,22 +45048,22 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23">
@@ -45025,47 +45073,47 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="33">
@@ -45075,12 +45123,12 @@
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="36">
@@ -45090,12 +45138,12 @@
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -45154,17 +45202,17 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5">
@@ -45174,7 +45222,7 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="7">
@@ -45184,12 +45232,12 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10">
@@ -45199,37 +45247,37 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="18">
@@ -45239,7 +45287,7 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
     </row>
     <row r="20">
@@ -45249,17 +45297,17 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -45303,17 +45351,17 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5">
@@ -45323,17 +45371,17 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9">
@@ -45343,12 +45391,12 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -45383,27 +45431,27 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7">
@@ -45418,57 +45466,57 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="20">
@@ -45478,12 +45526,12 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23">
@@ -45493,22 +45541,22 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="28">
@@ -45517,133 +45565,158 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="16" t="s">
-        <v>898</v>
+      <c r="A29" s="8" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="16" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="16" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>902</v>
-      </c>
-    </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>781</v>
+      <c r="A35" s="8" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>903</v>
+      <c r="A36" s="16" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="16" t="s">
-        <v>904</v>
+      <c r="A37" s="8" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>817</v>
+        <v>910</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="s">
-        <v>905</v>
+      <c r="A39" s="2" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>783</v>
+      <c r="A40" s="8" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="16" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="16" t="s">
-        <v>907</v>
+      <c r="A42" s="8" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="16" t="s">
-        <v>909</v>
+      <c r="A44" s="8" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="16" t="s">
-        <v>910</v>
+      <c r="A45" s="2" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="16" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>912</v>
+      <c r="A47" s="16" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
-        <v>913</v>
+      <c r="A48" s="16" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>914</v>
+      <c r="A49" s="16" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>915</v>
+      <c r="A50" s="16" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>916</v>
+      <c r="A51" s="16" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="16" t="s">
-        <v>917</v>
+      <c r="A52" s="8" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>919</v>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="16" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="s">
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -45673,19 +45746,19 @@
     <hyperlink r:id="rId23" ref="A26"/>
     <hyperlink r:id="rId24" ref="A27"/>
     <hyperlink r:id="rId25" ref="A29"/>
-    <hyperlink r:id="rId26" ref="A31"/>
-    <hyperlink r:id="rId27" ref="A32"/>
-    <hyperlink r:id="rId28" ref="A33"/>
-    <hyperlink r:id="rId29" ref="A34"/>
-    <hyperlink r:id="rId30" ref="A36"/>
-    <hyperlink r:id="rId31" ref="A37"/>
-    <hyperlink r:id="rId32" ref="A38"/>
-    <hyperlink r:id="rId33" ref="A39"/>
-    <hyperlink r:id="rId34" ref="A41"/>
-    <hyperlink r:id="rId35" ref="A42"/>
-    <hyperlink r:id="rId36" ref="A43"/>
-    <hyperlink r:id="rId37" ref="A44"/>
-    <hyperlink r:id="rId38" ref="A45"/>
+    <hyperlink r:id="rId26" ref="A30"/>
+    <hyperlink r:id="rId27" ref="A31"/>
+    <hyperlink r:id="rId28" ref="A32"/>
+    <hyperlink r:id="rId29" ref="A33"/>
+    <hyperlink r:id="rId30" ref="A35"/>
+    <hyperlink r:id="rId31" ref="A36"/>
+    <hyperlink r:id="rId32" ref="A37"/>
+    <hyperlink r:id="rId33" ref="A38"/>
+    <hyperlink r:id="rId34" ref="A40"/>
+    <hyperlink r:id="rId35" ref="A41"/>
+    <hyperlink r:id="rId36" ref="A42"/>
+    <hyperlink r:id="rId37" ref="A43"/>
+    <hyperlink r:id="rId38" ref="A44"/>
     <hyperlink r:id="rId39" ref="A46"/>
     <hyperlink r:id="rId40" ref="A47"/>
     <hyperlink r:id="rId41" ref="A48"/>
@@ -45695,7 +45768,12 @@
     <hyperlink r:id="rId45" ref="A52"/>
     <hyperlink r:id="rId46" ref="A53"/>
     <hyperlink r:id="rId47" ref="A54"/>
+    <hyperlink r:id="rId48" ref="A55"/>
+    <hyperlink r:id="rId49" ref="A56"/>
+    <hyperlink r:id="rId50" ref="A57"/>
+    <hyperlink r:id="rId51" ref="A58"/>
+    <hyperlink r:id="rId52" ref="A59"/>
   </hyperlinks>
-  <drawing r:id="rId48"/>
+  <drawing r:id="rId53"/>
 </worksheet>
 </file>
--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -791,13 +791,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A396">
+    <comment authorId="0" ref="A397">
       <text>
         <t xml:space="preserve">https://github.com/Re-Align/URIAL
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A426">
+    <comment authorId="0" ref="A427">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
@@ -1055,7 +1055,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A421">
+    <comment authorId="0" ref="A422">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
@@ -1073,7 +1073,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A429">
+    <comment authorId="0" ref="A430">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
@@ -1151,7 +1151,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A440">
+    <comment authorId="0" ref="A441">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
@@ -1169,13 +1169,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A409">
+    <comment authorId="0" ref="A410">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A376">
+    <comment authorId="0" ref="A377">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity
 	-Jimmy Chou</t>
@@ -1611,13 +1611,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F440">
+    <comment authorId="0" ref="F441">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F429">
+    <comment authorId="0" ref="F430">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
@@ -1698,7 +1698,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F403">
+    <comment authorId="0" ref="F404">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -1710,7 +1710,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F379">
+    <comment authorId="0" ref="F380">
       <text>
         <t xml:space="preserve">https://github.com/sambanova/toolbench/
 	-Jimmy Chou</t>
@@ -1896,13 +1896,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F408">
+    <comment authorId="0" ref="F409">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F398">
+    <comment authorId="0" ref="F399">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -1931,7 +1931,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F438">
+    <comment authorId="0" ref="F439">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -2193,7 +2193,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F420">
+    <comment authorId="0" ref="F421">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2201,7 +2201,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F378">
+    <comment authorId="0" ref="F379">
       <text>
         <t xml:space="preserve">https://toloka.ai/llm-leaderboard/
 	-Jimmy Chou</t>
@@ -2311,7 +2311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="932">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -2322,7 +2322,7 @@
     <t>Display formats (non-pwc)</t>
   </si>
   <si>
-    <t>Downloadable formats</t>
+    <t>Downloadable formats (non-pwc)</t>
   </si>
   <si>
     <t>Evaluation workflows (non-pwc)</t>
@@ -4291,6 +4291,12 @@
   </si>
   <si>
     <t>TextSynth Server</t>
+  </si>
+  <si>
+    <t>TextVQA</t>
+  </si>
+  <si>
+    <t>Meta,Georgia Institute of Technology</t>
   </si>
   <si>
     <t>TGIF-QA</t>
@@ -12677,45 +12683,40 @@
       <c r="A374" s="8" t="s">
         <v>656</v>
       </c>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H374" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I374" s="2"/>
+      <c r="H374" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I374" s="2" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="D375" s="2"/>
+        <v>658</v>
+      </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H375" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I375" s="2"/>
     </row>
     <row r="376">
       <c r="A376" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>145</v>
+        <v>659</v>
       </c>
       <c r="D376" s="2"/>
-      <c r="E376" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F376" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H376" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I376" s="2" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="377">
@@ -12723,17 +12724,17 @@
         <v>659</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D377" s="2"/>
-      <c r="E377" s="2">
-        <v>2.0</v>
+      <c r="E377" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="H377" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="I377" s="2" t="s">
         <v>660</v>
@@ -12744,16 +12745,18 @@
         <v>661</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H378" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="H378" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I378" s="2" t="s">
         <v>662</v>
       </c>
@@ -12763,21 +12766,16 @@
         <v>663</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G379" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H379" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H379" s="7"/>
       <c r="I379" s="2" t="s">
         <v>664</v>
       </c>
@@ -12787,14 +12785,17 @@
         <v>665</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>402</v>
+        <v>39</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2">
         <v>2.0</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H380" s="7" t="s">
         <v>32</v>
@@ -12807,12 +12808,20 @@
       <c r="A381" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C381" s="2"/>
+      <c r="C381" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="D381" s="2"/>
+      <c r="E381" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F381" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H381" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I381" s="2" t="s">
         <v>668</v>
       </c>
     </row>
@@ -12820,56 +12829,57 @@
       <c r="A382" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="C382" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C382" s="2"/>
       <c r="D382" s="2"/>
-      <c r="E382" s="2">
-        <v>4.0</v>
-      </c>
       <c r="F382" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G382" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H382" s="7"/>
-      <c r="I382" s="2" t="s">
-        <v>353</v>
+        <v>10</v>
+      </c>
+      <c r="H382" s="7" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>671</v>
+        <v>39</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H383" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H383" s="7"/>
       <c r="I383" s="2" t="s">
-        <v>672</v>
+        <v>353</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>673</v>
       </c>
+      <c r="D384" s="2"/>
+      <c r="E384" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F384" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="H384" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I384" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="I384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" s="8" t="s">
@@ -12879,84 +12889,75 @@
         <v>10</v>
       </c>
       <c r="H385" s="7" t="s">
-        <v>60</v>
+        <v>676</v>
       </c>
       <c r="I385" s="2"/>
     </row>
     <row r="386">
       <c r="A386" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="C386" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H386" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I386" s="2"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2">
+      <c r="D387" s="2"/>
+      <c r="E387" s="2">
         <v>6.0</v>
       </c>
-      <c r="F386" s="2" t="s">
+      <c r="F387" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H386" s="7" t="s">
+      <c r="H387" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I386" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="B387" s="4"/>
-      <c r="C387" s="5"/>
-      <c r="D387" s="5"/>
-      <c r="E387" s="4"/>
-      <c r="F387" s="6" t="s">
+      <c r="I387" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="B388" s="4"/>
+      <c r="C388" s="5"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="4"/>
+      <c r="F388" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G387" s="4"/>
-      <c r="H387" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I387" s="5"/>
-      <c r="J387" s="4"/>
-      <c r="K387" s="4"/>
-      <c r="L387" s="4"/>
-      <c r="M387" s="4"/>
-      <c r="N387" s="4"/>
-      <c r="O387" s="4"/>
-      <c r="P387" s="4"/>
-      <c r="Q387" s="4"/>
-      <c r="R387" s="4"/>
-      <c r="S387" s="4"/>
-      <c r="T387" s="4"/>
-      <c r="U387" s="4"/>
-      <c r="V387" s="4"/>
-      <c r="W387" s="4"/>
-      <c r="X387" s="4"/>
-      <c r="Y387" s="4"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D388" s="2"/>
-      <c r="E388" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F388" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="G388" s="4"/>
       <c r="H388" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I388" s="2" t="s">
-        <v>679</v>
-      </c>
+      <c r="I388" s="5"/>
+      <c r="J388" s="4"/>
+      <c r="K388" s="4"/>
+      <c r="L388" s="4"/>
+      <c r="M388" s="4"/>
+      <c r="N388" s="4"/>
+      <c r="O388" s="4"/>
+      <c r="P388" s="4"/>
+      <c r="Q388" s="4"/>
+      <c r="R388" s="4"/>
+      <c r="S388" s="4"/>
+      <c r="T388" s="4"/>
+      <c r="U388" s="4"/>
+      <c r="V388" s="4"/>
+      <c r="W388" s="4"/>
+      <c r="X388" s="4"/>
+      <c r="Y388" s="4"/>
     </row>
     <row r="389">
       <c r="A389" s="8" t="s">
@@ -12973,7 +12974,7 @@
         <v>21</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I389" s="2" t="s">
         <v>681</v>
@@ -12983,187 +12984,195 @@
       <c r="A390" s="8" t="s">
         <v>682</v>
       </c>
+      <c r="C390" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F390" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I390" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="I390" s="2" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H391" s="7" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="I391" s="2"/>
     </row>
     <row r="392">
       <c r="A392" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H392" s="7" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="I392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>115</v>
+        <v>686</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H393" s="7"/>
-      <c r="I393" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H393" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2">
-        <v>2.0</v>
+        <v>39</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H394" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H394" s="7"/>
       <c r="I394" s="2" t="s">
-        <v>687</v>
+        <v>58</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="C395" s="2"/>
+      <c r="C395" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D395" s="2"/>
+      <c r="E395" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F395" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H395" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="I395" s="2" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D396" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E396" s="2">
-        <v>2.0</v>
-      </c>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
       <c r="F396" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G396" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H396" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I396" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
+      <c r="C397" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E397" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F397" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H397" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="C398" s="2" t="s">
         <v>693</v>
       </c>
+      <c r="C398" s="2"/>
       <c r="D398" s="2"/>
-      <c r="E398" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F398" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H398" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I398" s="2" t="s">
-        <v>694</v>
+        <v>27</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C399" s="2" t="s">
         <v>695</v>
       </c>
+      <c r="D399" s="2"/>
+      <c r="E399" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F399" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I399" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I399" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
+        <v>697</v>
+      </c>
       <c r="F400" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H400" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I400" s="2"/>
     </row>
     <row r="401">
       <c r="A401" s="8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -13171,12 +13180,12 @@
         <v>10</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="8" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -13184,45 +13193,46 @@
         <v>10</v>
       </c>
       <c r="H402" s="7" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="C403" s="2"/>
       <c r="D403" s="2"/>
-      <c r="E403" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F403" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H403" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I403" s="2" t="s">
-        <v>700</v>
+        <v>141</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="8" t="s">
         <v>701</v>
       </c>
+      <c r="C404" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D404" s="2"/>
+      <c r="E404" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F404" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H404" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="I404" s="2" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="8" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D405" s="2"/>
       <c r="F405" s="2" t="s">
@@ -13234,76 +13244,67 @@
     </row>
     <row r="406">
       <c r="A406" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>81</v>
+        <v>704</v>
       </c>
       <c r="D406" s="2"/>
-      <c r="E406" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F406" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H406" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I406" s="2" t="s">
-        <v>703</v>
+        <v>32</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="8" t="s">
         <v>704</v>
       </c>
+      <c r="C407" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D407" s="2"/>
+      <c r="E407" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F407" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H407" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I407" s="2"/>
+      <c r="I407" s="2" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="C408" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="D408" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="E408" s="2">
-        <v>6.0</v>
-      </c>
       <c r="F408" s="2" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I408" s="2" t="s">
-        <v>708</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I408" s="2"/>
     </row>
     <row r="409">
       <c r="A409" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D409" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="C409" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D409" s="2"/>
       <c r="E409" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="H409" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I409" s="2" t="s">
         <v>710</v>
@@ -13313,53 +13314,50 @@
       <c r="A410" s="8" t="s">
         <v>711</v>
       </c>
+      <c r="C410" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F410" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I410" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D411" s="2"/>
-      <c r="E411" s="2">
-        <v>2.0</v>
+        <v>713</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H411" s="7"/>
-      <c r="I411" s="2" t="s">
-        <v>713</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H411" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I411" s="2"/>
     </row>
     <row r="412">
       <c r="A412" s="8" t="s">
         <v>714</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G412" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H412" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H412" s="7"/>
       <c r="I412" s="2" t="s">
         <v>715</v>
       </c>
@@ -13368,156 +13366,168 @@
       <c r="A413" s="8" t="s">
         <v>716</v>
       </c>
+      <c r="C413" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F413" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H413" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I413" s="2"/>
+      <c r="I413" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" s="8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H415" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I415" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H416" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H418" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I418" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H419" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H420" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I420" s="2"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="E421" s="2">
-        <v>6.0</v>
+        <v>725</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H421" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I421" s="2" t="s">
-        <v>724</v>
-      </c>
+      <c r="I421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" s="8" t="s">
         <v>725</v>
       </c>
+      <c r="C422" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E422" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F422" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H422" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I422" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H423" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H424" s="7" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I424" s="2"/>
     </row>
     <row r="425">
       <c r="A425" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>10</v>
@@ -13529,24 +13539,15 @@
     </row>
     <row r="426">
       <c r="A426" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D426" s="2"/>
-      <c r="E426" s="2" t="s">
         <v>730</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G426" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I426" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H426" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I426" s="2"/>
     </row>
     <row r="427">
       <c r="A427" s="8" t="s">
@@ -13556,8 +13557,8 @@
         <v>39</v>
       </c>
       <c r="D427" s="2"/>
-      <c r="E427" s="2">
-        <v>3.0</v>
+      <c r="E427" s="2" t="s">
+        <v>732</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>40</v>
@@ -13566,89 +13567,98 @@
         <v>15</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>732</v>
+        <v>16</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="12" t="s">
+      <c r="A428" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="B428" s="4"/>
-      <c r="C428" s="5"/>
-      <c r="D428" s="5"/>
-      <c r="E428" s="4"/>
-      <c r="F428" s="6" t="s">
+      <c r="C428" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D428" s="2"/>
+      <c r="E428" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="B429" s="4"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="5"/>
+      <c r="E429" s="4"/>
+      <c r="F429" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G428" s="5"/>
-      <c r="H428" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I428" s="5"/>
-      <c r="J428" s="4"/>
-      <c r="K428" s="4"/>
-      <c r="L428" s="4"/>
-      <c r="M428" s="4"/>
-      <c r="N428" s="4"/>
-      <c r="O428" s="4"/>
-      <c r="P428" s="4"/>
-      <c r="Q428" s="4"/>
-      <c r="R428" s="4"/>
-      <c r="S428" s="4"/>
-      <c r="T428" s="4"/>
-      <c r="U428" s="4"/>
-      <c r="V428" s="4"/>
-      <c r="W428" s="4"/>
-      <c r="X428" s="4"/>
-      <c r="Y428" s="4"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E429" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F429" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G429" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G429" s="5"/>
       <c r="H429" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I429" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I429" s="5"/>
+      <c r="J429" s="4"/>
+      <c r="K429" s="4"/>
+      <c r="L429" s="4"/>
+      <c r="M429" s="4"/>
+      <c r="N429" s="4"/>
+      <c r="O429" s="4"/>
+      <c r="P429" s="4"/>
+      <c r="Q429" s="4"/>
+      <c r="R429" s="4"/>
+      <c r="S429" s="4"/>
+      <c r="T429" s="4"/>
+      <c r="U429" s="4"/>
+      <c r="V429" s="4"/>
+      <c r="W429" s="4"/>
+      <c r="X429" s="4"/>
+      <c r="Y429" s="4"/>
     </row>
     <row r="430">
       <c r="A430" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E430" s="2">
+        <v>6.0</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H430" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I430" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I430" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H431" s="7" t="s">
-        <v>736</v>
+        <v>25</v>
       </c>
       <c r="I431" s="2"/>
     </row>
@@ -13660,31 +13670,31 @@
         <v>10</v>
       </c>
       <c r="H432" s="7" t="s">
-        <v>97</v>
+        <v>738</v>
       </c>
       <c r="I432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H434" s="7" t="s">
-        <v>740</v>
+        <v>60</v>
       </c>
       <c r="I434" s="2"/>
     </row>
@@ -13692,113 +13702,121 @@
       <c r="A435" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
       <c r="F435" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H435" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="H435" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="I435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="C436" s="2"/>
       <c r="D436" s="2"/>
-      <c r="E436" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F436" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H436" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I436" s="2" t="s">
-        <v>743</v>
+        <v>10</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="8" t="s">
         <v>744</v>
       </c>
+      <c r="C437" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D437" s="2"/>
+      <c r="E437" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F437" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H437" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I437" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I437" s="2" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="C438" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="D438" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E438" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F438" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G438" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H438" s="7"/>
-      <c r="I438" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H438" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I438" s="2"/>
     </row>
     <row r="439">
       <c r="A439" s="8" t="s">
         <v>747</v>
       </c>
+      <c r="C439" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E439" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F439" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H439" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I439" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H439" s="7"/>
+      <c r="I439" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="C440" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H440" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I440" s="2"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C441" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D440" s="2" t="s">
+      <c r="D441" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E440" s="2">
+      <c r="E441" s="2">
         <v>6.0</v>
       </c>
-      <c r="F440" s="2" t="s">
+      <c r="F441" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G440" s="2" t="s">
+      <c r="G441" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H440" s="2" t="s">
+      <c r="H441" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I440" s="2" t="s">
+      <c r="I441" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="441">
-      <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
     </row>
     <row r="442">
       <c r="C442" s="2"/>
@@ -16459,9 +16477,10 @@
     <hyperlink r:id="rId440" ref="A438"/>
     <hyperlink r:id="rId441" ref="A439"/>
     <hyperlink r:id="rId442" ref="A440"/>
+    <hyperlink r:id="rId443" ref="A441"/>
   </hyperlinks>
-  <drawing r:id="rId443"/>
-  <legacyDrawing r:id="rId444"/>
+  <drawing r:id="rId444"/>
+  <legacyDrawing r:id="rId445"/>
 </worksheet>
 </file>
 
@@ -16477,22 +16496,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -16516,27 +16535,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -16563,177 +16582,177 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="36">
@@ -16787,72 +16806,72 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -16885,7 +16904,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16915,7 +16934,7 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16945,7 +16964,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16975,7 +16994,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -17005,7 +17024,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -17035,7 +17054,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -17065,7 +17084,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -17095,7 +17114,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -17125,7 +17144,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -17155,7 +17174,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -17185,7 +17204,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -17215,7 +17234,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -17245,7 +17264,7 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -17275,7 +17294,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -17305,7 +17324,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -17335,7 +17354,7 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -17365,7 +17384,7 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -17395,7 +17414,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17425,7 +17444,7 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17455,7 +17474,7 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17485,7 +17504,7 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -17515,7 +17534,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -17545,7 +17564,7 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -17575,7 +17594,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -17605,7 +17624,7 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17635,7 +17654,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -17665,7 +17684,7 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -17695,7 +17714,7 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -17725,7 +17744,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -17755,7 +17774,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -44958,192 +44977,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -45197,117 +45216,117 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -45346,57 +45365,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -45426,297 +45445,297 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="16" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="16" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="16" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="16" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="16" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="16" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="16" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="16" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="16" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -3857,7 +3857,7 @@
     <t>OpenbookQA</t>
   </si>
   <si>
-    <t>OpenCompass LLM Leaderboard (v2)</t>
+    <t>OpenCompass Large Language Model Leaderboard (v2)</t>
   </si>
   <si>
     <t>Aliyun,East Money,Duxiaoman,Fudan University,Nanjing University,Nanyang Technological University,OPPO,Shanghai AI Laboratory,Tencent,TigerResearch,Chinese University of Hong Kong,Zhejiang University,Zhipu AI</t>
@@ -3890,7 +3890,7 @@
     <t>OpenLLM Turkish leaderboard</t>
   </si>
   <si>
-    <t>OpenVLM Leaderboard</t>
+    <t>OpenCompass Multi-modal Leaderboard</t>
   </si>
   <si>
     <t>OVEN</t>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -2322,7 +2322,7 @@
     <t>Display formats (non-pwc)</t>
   </si>
   <si>
-    <t>Downloadable formats (non-pwc)</t>
+    <t>Downloadable file formats (non-pwc)</t>
   </si>
   <si>
     <t>Evaluation workflows (non-pwc)</t>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -25,6 +25,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="E215">
+      <text>
+        <t xml:space="preserve">https://mllm-bench.llmzoo.com/static/submit.html
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="E200">
       <text>
         <t xml:space="preserve">https://github.com/ZrrSkywalker/MathVerse/issues/4
@@ -9575,7 +9581,7 @@
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>36</v>

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -2317,7 +2317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="936">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -3415,7 +3415,7 @@
     <t>LMSYS Chatbot Arena Leaderboard</t>
   </si>
   <si>
-    <t>ip:Sortable Table+Scatter Plot+Bar Chart</t>
+    <t>ip:Sortable Table+Scatter Plot+Bar Chart,hf:Sortable Table+Scatter Plot+Bar Chart</t>
   </si>
   <si>
     <t>4,5</t>
@@ -5107,6 +5107,12 @@
     <t>https://github.com/princeton-nlp/SWE-bench/issues/46</t>
   </si>
   <si>
+    <t>https://github.com/EleutherAI/lm_perplexity/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/ZrrSkywalker/MathVerse/issues/4</t>
+  </si>
+  <si>
     <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/43</t>
   </si>
   <si>
@@ -5125,10 +5131,16 @@
     <t>https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/2</t>
   </si>
   <si>
-    <t>https://github.com/EleutherAI/lm_perplexity/issues/2</t>
-  </si>
-  <si>
-    <t>https://github.com/ZrrSkywalker/MathVerse/issues/4</t>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-RAG/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Code3/issues/3</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Role/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Industry/issues/1</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/openkg/llm_leaderboard/discussions/4</t>
@@ -9061,7 +9073,7 @@
         <v>366</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>15</v>
@@ -16493,7 +16505,7 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="3">
@@ -16503,7 +16515,7 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -45716,7 +45728,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="8" t="s">
         <v>927</v>
       </c>
     </row>
@@ -45726,8 +45738,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="16" t="s">
         <v>929</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="s">
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -45784,7 +45816,11 @@
     <hyperlink r:id="rId50" ref="A57"/>
     <hyperlink r:id="rId51" ref="A58"/>
     <hyperlink r:id="rId52" ref="A59"/>
+    <hyperlink r:id="rId53" ref="A60"/>
+    <hyperlink r:id="rId54" ref="A61"/>
+    <hyperlink r:id="rId55" ref="A62"/>
+    <hyperlink r:id="rId56" ref="A63"/>
   </hyperlinks>
-  <drawing r:id="rId53"/>
+  <drawing r:id="rId57"/>
 </worksheet>
 </file>
--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -43,7 +43,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F357">
+    <comment authorId="0" ref="G357">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
@@ -55,7 +55,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F356">
+    <comment authorId="0" ref="G356">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -79,7 +79,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F188">
+    <comment authorId="0" ref="G188">
       <text>
         <t xml:space="preserve">https://openlm.ai/chatbot-arena/
 	-Jimmy Chou
@@ -89,7 +89,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F108">
+    <comment authorId="0" ref="G108">
       <text>
         <t xml:space="preserve">https://openlm.ai/coder-evalplus
 	-Jimmy Chou</t>
@@ -101,19 +101,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F146">
+    <comment authorId="0" ref="G146">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/vectara/leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F308">
+    <comment authorId="0" ref="G308">
       <text>
         <t xml:space="preserve">https://haizelabs.com/benchmarks/space
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F96">
+    <comment authorId="0" ref="G96">
       <text>
         <t xml:space="preserve">https://github.com/meta-llama/PurpleLlama/tree/main/CybersecurityBenchmarks
 	-Jimmy Chou</t>
@@ -909,7 +909,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F355">
+    <comment authorId="0" ref="G355">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -921,7 +921,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F353">
+    <comment authorId="0" ref="G353">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -933,13 +933,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F350">
+    <comment authorId="0" ref="G350">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F349">
+    <comment authorId="0" ref="G349">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -1067,7 +1067,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F325">
+    <comment authorId="0" ref="G325">
       <text>
         <t xml:space="preserve">https://github.com/tau-nlp/scrolls
 	-Jimmy Chou</t>
@@ -1211,7 +1211,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F226">
+    <comment authorId="0" ref="G226">
       <text>
         <t xml:space="preserve">https://github.com/tsb0601/MMVP
 	-Jimmy Chou</t>
@@ -1229,61 +1229,61 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F179">
+    <comment authorId="0" ref="G179">
       <text>
         <t xml:space="preserve">https://llm-evals.formula-labs.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F45">
+    <comment authorId="0" ref="G45">
       <text>
         <t xml:space="preserve">https://bird-bench.github.io/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F347">
+    <comment authorId="0" ref="G347">
       <text>
         <t xml:space="preserve">https://github.com/salesforce/factualNLG
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F319">
+    <comment authorId="0" ref="G319">
       <text>
         <t xml:space="preserve">https://scandeval.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F270">
+    <comment authorId="0" ref="G270">
       <text>
         <t xml:space="preserve">https://github.com/withmartian/leaderboard-backend
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F167">
+    <comment authorId="0" ref="G167">
       <text>
         <t xml:space="preserve">https://github.com/kwaikeg/kwaiagents
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F100">
+    <comment authorId="0" ref="G100">
       <text>
         <t xml:space="preserve">https://github.com/Libr-AI/do-not-answer
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F80">
+    <comment authorId="0" ref="G80">
       <text>
         <t xml:space="preserve">https://qa.mpi-inf.mpg.de/compmix/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F21">
+    <comment authorId="0" ref="G21">
       <text>
         <t xml:space="preserve">https://github.com/facebookresearch/anli
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F251">
+    <comment authorId="0" ref="G251">
       <text>
         <t xml:space="preserve">https://github.com/nexusflowai/NexusRaven/
 	-Jimmy Chou</t>
@@ -1295,25 +1295,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F214">
+    <comment authorId="0" ref="G214">
       <text>
         <t xml:space="preserve">https://ml.energy/leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F246">
+    <comment authorId="0" ref="G246">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/llm-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F263">
+    <comment authorId="0" ref="G263">
       <text>
         <t xml:space="preserve">https://github.com/C080/open-llm-ita-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F318">
+    <comment authorId="0" ref="G318">
       <text>
         <t xml:space="preserve">https://adwardlee.github.io/salad_bench/leaderboard.html
 	-Jimmy Chou</t>
@@ -1349,19 +1349,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F123">
+    <comment authorId="0" ref="G123">
       <text>
         <t xml:space="preserve">https://fusereviews.github.io/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F14">
+    <comment authorId="0" ref="G14">
       <text>
         <t xml:space="preserve">https://hkubs.hku.hk/aimodelrankings/en
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F13">
+    <comment authorId="0" ref="G13">
       <text>
         <t xml:space="preserve">https://www.hkubs.hku.hk/aimodelrankings/C
 	-Jimmy Chou</t>
@@ -1379,25 +1379,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F254">
+    <comment authorId="0" ref="G254">
       <text>
         <t xml:space="preserve">https://github.com/casmlab/NPHardEval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F326">
+    <comment authorId="0" ref="G326">
       <text>
         <t xml:space="preserve">https://seaeval.github.io/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F130">
+    <comment authorId="0" ref="G130">
       <text>
         <t xml:space="preserve">https://glitchbench.github.io/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F64">
+    <comment authorId="0" ref="G64">
       <text>
         <t xml:space="preserve">https://github.com/clembench/clembench-runs
 	-Jimmy Chou</t>
@@ -1415,12 +1415,9 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F28">
+    <comment authorId="0" ref="G28">
       <text>
         <t xml:space="preserve">https://github.com/Xiuyuan-Chen/AutoEval-Video
-	-Jimmy Chou
-----
-https://huggingface.co/spaces/xiangkun/BSChecker-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1442,7 +1439,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F271">
+    <comment authorId="0" ref="G271">
       <text>
         <t xml:space="preserve">https://github.com/njunlp/mapo
 	-Jimmy Chou</t>
@@ -1460,13 +1457,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F38">
+    <comment authorId="0" ref="G38">
       <text>
         <t xml:space="preserve">https://gorilla.cs.berkeley.edu/leaderboard.html#leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F107">
+    <comment authorId="0" ref="G107">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/sam-paech/EQ-Bench-Leaderboard
 	-Jimmy Chou</t>
@@ -1475,13 +1472,10 @@
     <comment authorId="0" ref="F232">
       <text>
         <t xml:space="preserve">https://github.com/nexusflowai/NexusRaven-V2
-	-Jimmy Chou
-----
-https://rrc.cvc.uab.es/?ch=17&amp;com=evaluation&amp;task=4
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F83">
+    <comment authorId="0" ref="G83">
       <text>
         <t xml:space="preserve">https://github.com/rohan598/ConTextual
 	-Jimmy Chou
@@ -1497,13 +1491,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F331">
+    <comment authorId="0" ref="G331">
       <text>
         <t xml:space="preserve">https://github.com/NousResearch/finetuning-subnet
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F261">
+    <comment authorId="0" ref="G261">
       <text>
         <t xml:space="preserve">https://github.com/huggingface/open_asr_leaderboard
 	-Jimmy Chou</t>
@@ -1521,25 +1515,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F358">
+    <comment authorId="0" ref="G358">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F351">
+    <comment authorId="0" ref="G351">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F354">
+    <comment authorId="0" ref="G354">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F352">
+    <comment authorId="0" ref="G352">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -1557,7 +1551,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F76">
+    <comment authorId="0" ref="G76">
       <text>
         <t xml:space="preserve">https://github.com/TabbyML/tabby
 	-Jimmy Chou</t>
@@ -1569,13 +1563,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F205">
+    <comment authorId="0" ref="G205">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/mctaco/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F293">
+    <comment authorId="0" ref="G293">
       <text>
         <t xml:space="preserve">https://llm-eval.github.io/pages/leaderboard/pe.html
 	-Jimmy Chou
@@ -1617,94 +1611,91 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F440">
+    <comment authorId="0" ref="G440">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F429">
+    <comment authorId="0" ref="G429">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F344">
+    <comment authorId="0" ref="G344">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/strategyqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F332">
+    <comment authorId="0" ref="G332">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/socialiqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F328">
+    <comment authorId="0" ref="G328">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/sherlock/submissions/public
-	-Jimmy Chou
-----
-https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F299">
+    <comment authorId="0" ref="G299">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/qasc/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F294">
+    <comment authorId="0" ref="G294">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/protoqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F288">
+    <comment authorId="0" ref="G288">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/physicaliqa/submissions
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F276">
+    <comment authorId="0" ref="G276">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/open_book_qa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F249">
+    <comment authorId="0" ref="G249">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/natural-instructions/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F229">
+    <comment authorId="0" ref="G229">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/mocha-qa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F88">
+    <comment authorId="0" ref="G88">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/cosmosqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F24">
+    <comment authorId="0" ref="G24">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/arc/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F3">
+    <comment authorId="0" ref="G3">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/a-okvqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F403">
+    <comment authorId="0" ref="G403">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -1716,7 +1707,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F379">
+    <comment authorId="0" ref="G379">
       <text>
         <t xml:space="preserve">https://github.com/sambanova/toolbench/
 	-Jimmy Chou</t>
@@ -1727,6 +1718,12 @@
         <t xml:space="preserve">https://github.com/open-compass/T-Eval
 	-Jimmy Chou
 https://open-compass.github.io/T-Eval/leaderboard.html
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F328">
+      <text>
+        <t xml:space="preserve">https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1742,7 +1739,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F215">
+    <comment authorId="0" ref="G215">
       <text>
         <t xml:space="preserve">https://github.com/FreedomIntelligence/MLLM-Bench
 	-Jimmy Chou</t>
@@ -1766,6 +1763,12 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
+    <comment authorId="0" ref="G232">
+      <text>
+        <t xml:space="preserve">https://rrc.cvc.uab.es/?ch=17&amp;com=evaluation&amp;task=4
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="J55">
       <text>
         <t xml:space="preserve">http://www.lavicleva.com/#/homepage/createautotask
@@ -1778,13 +1781,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F54">
+    <comment authorId="0" ref="G54">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/MMBench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F218">
+    <comment authorId="0" ref="G218">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/MMBench
 	-Jimmy Chou</t>
@@ -1796,19 +1799,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F298">
+    <comment authorId="0" ref="G298">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/q-future/Q-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F277">
+    <comment authorId="0" ref="G277">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F245">
+    <comment authorId="0" ref="G245">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard
 	-Jimmy Chou
@@ -1866,7 +1869,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F95">
+    <comment authorId="0" ref="G95">
       <text>
         <t xml:space="preserve">pwc那个是v1
 	-Jimmy Chou
@@ -1892,7 +1895,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F283">
+    <comment authorId="0" ref="G283">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/open_vlm_leaderboard
 	-Jimmy Chou
@@ -1902,13 +1905,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F408">
+    <comment authorId="0" ref="G408">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F398">
+    <comment authorId="0" ref="G398">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -1916,12 +1919,9 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F37">
+    <comment authorId="0" ref="G37">
       <text>
         <t xml:space="preserve">https://aifeg.github.io/BenchLMM/
-	-Jimmy Chou
-----
-https://paperswithcode.com/sota/crass-ai-on-big-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1937,7 +1937,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F438">
+    <comment authorId="0" ref="G438">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -1955,7 +1955,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H182">
+    <comment authorId="0" ref="G182">
       <text>
         <t xml:space="preserve">North American Chapter of the Association for Computational Linguistics
 	-Jimmy Chou</t>
@@ -2013,7 +2013,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H316">
+    <comment authorId="0" ref="G316">
       <text>
         <t xml:space="preserve">Transactions of the Association for Computational Linguistics
 	-Jimmy Chou</t>
@@ -2199,7 +2199,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F420">
+    <comment authorId="0" ref="G420">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2207,25 +2207,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F378">
+    <comment authorId="0" ref="G378">
       <text>
         <t xml:space="preserve">https://toloka.ai/llm-leaderboard/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F362">
+    <comment authorId="0" ref="G362">
       <text>
         <t xml:space="preserve">https://lab.kb.se/leaderboard/results
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F305">
+    <comment authorId="0" ref="G305">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/ought/raft-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F128">
+    <comment authorId="0" ref="G128">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/genie-arcda/submissions/public
 	-Jimmy Chou
@@ -2235,36 +2235,36 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F240">
+    <comment authorId="0" ref="G240">
       <text>
         <t xml:space="preserve">https://mteb.info
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F193">
+    <comment authorId="0" ref="G193">
       <text>
         <t xml:space="preserve">http://vlarena.opengvlab.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F157">
+    <comment authorId="0" ref="G157">
       <text>
         <t xml:space="preserve">https://rrc.cvc.uab.es/?ch=17&amp;com=evaluation&amp;task=3
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F1">
+    <comment authorId="0" ref="G1">
       <text>
         <t xml:space="preserve">GitHub: gh
 HuggingFace: hf
 PapersWithCode: pwc
 independent platform: ip
-	-Jimmy Chou
-----
-Highest domain-level
-	-Jimmy Chou
-----
-excluding same leaderboard from different sources
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F28">
+      <text>
+        <t xml:space="preserve">https://huggingface.co/spaces/xiangkun/BSChecker-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -2279,6 +2279,21 @@
         <t xml:space="preserve">https://huggingface.co/datasets/AngoHF/ANGO-S1
 	-Jimmy Chou
 https://arxiv.org/abs/2401.04898
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F1">
+      <text>
+        <t xml:space="preserve">Highest domain-level
+	-Jimmy Chou
+----
+excluding same leaderboard from different sources
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F37">
+      <text>
+        <t xml:space="preserve">https://paperswithcode.com/sota/crass-ai-on-big-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -2331,15 +2346,15 @@
     <t>Downloadable file formats (non-pwc)</t>
   </si>
   <si>
-    <t>Evaluation workflows (non-pwc)</t>
+    <t>Leaderboard development workflows (non-pwc)</t>
+  </si>
+  <si>
+    <t>Model linkage (non-pwc)</t>
   </si>
   <si>
     <t>Platforms</t>
   </si>
   <si>
-    <t>Model linkage (non-pwc)</t>
-  </si>
-  <si>
     <t>Publication venues</t>
   </si>
   <si>
@@ -2361,10 +2376,10 @@
     <t>CSV</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>ip</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>Allen Institute for AI</t>
@@ -5590,10 +5605,10 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
       <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
@@ -5645,7 +5660,7 @@
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -5664,10 +5679,10 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>22</v>
@@ -5680,7 +5695,7 @@
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -5691,7 +5706,7 @@
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -5703,7 +5718,7 @@
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -5715,7 +5730,7 @@
       <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -5734,7 +5749,7 @@
       <c r="E10" s="2">
         <v>6.0</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -5755,7 +5770,7 @@
       <c r="E11" s="2">
         <v>2.0</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -5776,7 +5791,7 @@
       <c r="E12" s="2">
         <v>6.0</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -5799,7 +5814,7 @@
       <c r="E13" s="2">
         <v>2.0</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -5822,7 +5837,7 @@
       <c r="E14" s="2">
         <v>2.0</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -5836,7 +5851,7 @@
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -5848,7 +5863,7 @@
       <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="9" t="s">
@@ -5867,7 +5882,7 @@
       <c r="E17" s="2">
         <v>6.0</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -5891,10 +5906,10 @@
         <v>7.0</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="2" t="s">
@@ -5905,7 +5920,7 @@
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="7" t="s">
@@ -5923,7 +5938,7 @@
       <c r="E20" s="2">
         <v>7.0</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -5945,10 +5960,10 @@
         <v>6.0</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>60</v>
@@ -5962,7 +5977,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -5973,7 +5988,7 @@
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -6015,10 +6030,10 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="5"/>
       <c r="H25" s="7" t="s">
         <v>32</v>
       </c>
@@ -6044,7 +6059,7 @@
       <c r="A26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -6056,7 +6071,7 @@
       <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -6077,10 +6092,10 @@
         <v>6.0</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>32</v>
@@ -6093,7 +6108,7 @@
       <c r="A29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -6107,7 +6122,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="10"/>
@@ -6116,7 +6131,7 @@
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -6130,7 +6145,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="9" t="s">
@@ -6141,7 +6156,7 @@
       <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -6155,7 +6170,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H34" s="9" t="s">
@@ -6166,7 +6181,7 @@
       <c r="A35" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -6182,10 +6197,10 @@
       <c r="C36" s="13"/>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="4"/>
+      <c r="G36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="4"/>
       <c r="H36" s="7" t="s">
         <v>32</v>
       </c>
@@ -6218,7 +6233,7 @@
       <c r="E37" s="2">
         <v>2.0</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H37" s="7" t="s">
@@ -6242,10 +6257,10 @@
         <v>2.0</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>85</v>
@@ -6268,10 +6283,10 @@
         <v>7.0</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="2" t="s">
@@ -6282,7 +6297,7 @@
       <c r="A40" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -6302,7 +6317,7 @@
       <c r="E41" s="2">
         <v>2.0</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H41" s="7" t="s">
@@ -6316,7 +6331,7 @@
       <c r="A42" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="7" t="s">
@@ -6330,7 +6345,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H43" s="7" t="s">
@@ -6349,10 +6364,10 @@
         <v>4.0</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="2" t="s">
@@ -6371,10 +6386,10 @@
         <v>4.0</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>63</v>
@@ -6387,7 +6402,7 @@
       <c r="A46" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H46" s="7" t="s">
@@ -6434,10 +6449,10 @@
         <v>2.0</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>32</v>
@@ -6458,10 +6473,10 @@
         <v>6.0</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>63</v>
@@ -6481,10 +6496,10 @@
       <c r="E50" s="2">
         <v>2.0</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="2"/>
       <c r="H50" s="7" t="s">
         <v>63</v>
       </c>
@@ -6498,7 +6513,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H51" s="7" t="s">
@@ -6519,10 +6534,10 @@
         <v>115</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="2" t="s">
@@ -6533,7 +6548,7 @@
       <c r="A53" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H53" s="14" t="s">
@@ -6556,10 +6571,10 @@
         <v>6.0</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>32</v>
@@ -6579,7 +6594,7 @@
       <c r="E55" s="2">
         <v>2.0</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H55" s="7" t="s">
@@ -6595,7 +6610,7 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H56" s="7" t="s">
@@ -6606,7 +6621,7 @@
       <c r="A57" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H57" s="7" t="s">
@@ -6618,7 +6633,7 @@
       <c r="A58" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H58" s="7" t="s">
@@ -6632,7 +6647,7 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H59" s="7" t="s">
@@ -6650,7 +6665,7 @@
       <c r="E60" s="2">
         <v>2.0</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H60" s="7" t="s">
@@ -6671,7 +6686,7 @@
       <c r="E61" s="2">
         <v>2.0</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H61" s="7" t="s">
@@ -6685,7 +6700,7 @@
       <c r="A62" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H62" s="7" t="s">
@@ -6697,7 +6712,7 @@
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H63" s="7" t="s">
@@ -6718,7 +6733,7 @@
       <c r="E64" s="2">
         <v>2.0</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H64" s="7" t="s">
@@ -6739,8 +6754,8 @@
       <c r="E65" s="2">
         <v>4.0</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>14</v>
+      <c r="G65" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>97</v>
@@ -6760,7 +6775,7 @@
       <c r="E66" s="2">
         <v>2.0</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H66" s="7"/>
@@ -6772,7 +6787,7 @@
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H67" s="7" t="s">
@@ -6783,7 +6798,7 @@
       <c r="A68" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H68" s="7" t="s">
@@ -6802,8 +6817,8 @@
       <c r="E69" s="2">
         <v>6.0</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>14</v>
+      <c r="G69" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>32</v>
@@ -6824,10 +6839,10 @@
         <v>7.0</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>32</v>
@@ -6847,7 +6862,7 @@
       <c r="E71" s="2">
         <v>2.0</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H71" s="7" t="s">
@@ -6861,7 +6876,7 @@
       <c r="A72" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H72" s="7" t="s">
@@ -6875,7 +6890,7 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H73" s="7" t="s">
@@ -6894,10 +6909,10 @@
         <v>2.0</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="2" t="s">
@@ -6908,7 +6923,7 @@
       <c r="A75" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H75" s="7" t="s">
@@ -6926,8 +6941,8 @@
       <c r="E76" s="2">
         <v>2.0</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>14</v>
+      <c r="G76" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>160</v>
@@ -6940,7 +6955,7 @@
       <c r="A77" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H77" s="7" t="s">
@@ -6952,7 +6967,7 @@
       <c r="A78" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H78" s="7" t="s">
@@ -6963,7 +6978,7 @@
       <c r="A79" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H79" s="7" t="s">
@@ -6997,7 +7012,7 @@
       <c r="A81" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H81" s="7" t="s">
@@ -7009,7 +7024,7 @@
       <c r="A82" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H82" s="7" t="s">
@@ -7028,10 +7043,10 @@
         <v>6.0</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>32</v>
@@ -7054,10 +7069,10 @@
         <v>2.0</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>97</v>
@@ -7070,7 +7085,7 @@
       <c r="A85" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H85" s="7" t="s">
@@ -7082,7 +7097,7 @@
       <c r="A86" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H86" s="7" t="s">
@@ -7101,7 +7116,7 @@
       <c r="E87" s="2">
         <v>6.0</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>182</v>
       </c>
       <c r="H87" s="7" t="s">
@@ -7148,7 +7163,7 @@
       <c r="E89" s="2">
         <v>2.0</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H89" s="7" t="s">
@@ -7170,10 +7185,10 @@
         <v>6.0</v>
       </c>
       <c r="F90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>32</v>
@@ -7194,10 +7209,10 @@
       <c r="E91" s="2">
         <v>2.0</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="4"/>
+      <c r="G91" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="4"/>
       <c r="H91" s="7" t="s">
         <v>63</v>
       </c>
@@ -7225,7 +7240,7 @@
       <c r="A92" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H92" s="7" t="s">
@@ -7236,7 +7251,7 @@
       <c r="A93" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H93" s="7" t="s">
@@ -7256,10 +7271,10 @@
         <v>2.0</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>32</v>
@@ -7307,7 +7322,7 @@
       <c r="E96" s="2">
         <v>2.0</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H96" s="2" t="s">
@@ -7329,10 +7344,10 @@
         <v>7.0</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>63</v>
@@ -7352,7 +7367,7 @@
       <c r="E98" s="2">
         <v>2.0</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H98" s="7" t="s">
@@ -7366,7 +7381,7 @@
       <c r="A99" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H99" s="7" t="s">
@@ -7385,7 +7400,7 @@
       <c r="E100" s="2">
         <v>2.0</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H100" s="7" t="s">
@@ -7425,10 +7440,10 @@
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="5"/>
+      <c r="G102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G102" s="5"/>
       <c r="H102" s="7" t="s">
         <v>211</v>
       </c>
@@ -7454,7 +7469,7 @@
       <c r="A103" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H103" s="7" t="s">
@@ -7474,10 +7489,10 @@
         <v>2.0</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>214</v>
@@ -7497,7 +7512,7 @@
       <c r="E105" s="2">
         <v>2.0</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H105" s="7" t="s">
@@ -7519,10 +7534,10 @@
         <v>4.0</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="2" t="s">
@@ -7541,10 +7556,10 @@
         <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>32</v>
@@ -7565,10 +7580,10 @@
         <v>4.0</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>63</v>
@@ -7589,10 +7604,10 @@
         <v>2.0</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>97</v>
@@ -7612,7 +7627,7 @@
       <c r="E110" s="2">
         <v>2.0</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H110" s="7" t="s">
@@ -7633,7 +7648,7 @@
       <c r="E111" s="2">
         <v>2.0</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H111" s="7" t="s">
@@ -7647,7 +7662,7 @@
       <c r="A112" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H112" s="7" t="s">
@@ -7667,10 +7682,10 @@
         <v>2.0</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="2" t="s">
@@ -7683,7 +7698,7 @@
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H114" s="7" t="s">
@@ -7694,7 +7709,7 @@
       <c r="A115" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H115" s="7" t="s">
@@ -7715,8 +7730,8 @@
       <c r="E116" s="2">
         <v>4.0</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>14</v>
+      <c r="G116" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="2" t="s">
@@ -7727,7 +7742,7 @@
       <c r="A117" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H117" s="7" t="s">
@@ -7739,7 +7754,7 @@
       <c r="A118" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H118" s="7" t="s">
@@ -7751,7 +7766,7 @@
       <c r="A119" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H119" s="7" t="s">
@@ -7763,7 +7778,7 @@
       <c r="A120" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H120" s="7" t="s">
@@ -7775,7 +7790,7 @@
       <c r="A121" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H121" s="7" t="s">
@@ -7793,7 +7808,7 @@
       <c r="E122" s="2">
         <v>2.0</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I122" s="2" t="s">
@@ -7813,7 +7828,7 @@
       <c r="E123" s="2">
         <v>6.0</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H123" s="7" t="s">
@@ -7835,10 +7850,10 @@
         <v>6.0</v>
       </c>
       <c r="F124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>32</v>
@@ -7858,7 +7873,7 @@
       <c r="E125" s="2">
         <v>2.0</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H125" s="7" t="s">
@@ -7874,7 +7889,7 @@
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="F126" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H126" s="2" t="s">
@@ -7885,7 +7900,7 @@
       <c r="A127" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H127" s="7" t="s">
@@ -7929,7 +7944,7 @@
       <c r="E129" s="2">
         <v>2.0</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="G129" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H129" s="7" t="s">
@@ -7951,10 +7966,10 @@
         <v>6.0</v>
       </c>
       <c r="F130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>25</v>
@@ -7967,7 +7982,7 @@
       <c r="A131" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="G131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H131" s="7" t="s">
@@ -7979,7 +7994,7 @@
       <c r="A132" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="G132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H132" s="7" t="s">
@@ -7998,7 +8013,7 @@
       <c r="E133" s="2">
         <v>2.0</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H133" s="7"/>
@@ -8018,10 +8033,10 @@
         <v>1.0</v>
       </c>
       <c r="F134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H134" s="10"/>
       <c r="I134" s="2" t="s">
@@ -8040,10 +8055,10 @@
         <v>4.0</v>
       </c>
       <c r="F135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>270</v>
@@ -8063,7 +8078,7 @@
       <c r="E136" s="2">
         <v>2.0</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="G136" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H136" s="7" t="s">
@@ -8078,7 +8093,7 @@
         <v>274</v>
       </c>
       <c r="D137" s="2"/>
-      <c r="F137" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H137" s="7" t="s">
@@ -8096,7 +8111,7 @@
       <c r="E138" s="2">
         <v>2.0</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="G138" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H138" s="7" t="s">
@@ -8134,7 +8149,7 @@
       <c r="A140" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H140" s="15" t="s">
@@ -8290,7 +8305,7 @@
       <c r="E146" s="2">
         <v>4.0</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="G146" s="2" t="s">
         <v>173</v>
       </c>
       <c r="H146" s="7" t="s">
@@ -8306,7 +8321,7 @@
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
-      <c r="F147" s="2" t="s">
+      <c r="G147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H147" s="7" t="s">
@@ -8317,7 +8332,7 @@
       <c r="A148" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="G148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H148" s="9" t="s">
@@ -8330,7 +8345,7 @@
         <v>291</v>
       </c>
       <c r="D149" s="2"/>
-      <c r="F149" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H149" s="7" t="s">
@@ -8348,10 +8363,10 @@
       <c r="E150" s="2">
         <v>2.0</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F150" s="2"/>
+      <c r="G150" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G150" s="2"/>
       <c r="H150" s="7"/>
       <c r="I150" s="16" t="s">
         <v>293</v>
@@ -8363,7 +8378,7 @@
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
-      <c r="F151" s="2" t="s">
+      <c r="G151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H151" s="7" t="s">
@@ -8374,7 +8389,7 @@
       <c r="A152" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H152" s="7" t="s">
@@ -8386,7 +8401,7 @@
       <c r="A153" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="G153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H153" s="7" t="s">
@@ -8407,7 +8422,7 @@
       <c r="E154" s="2">
         <v>7.0</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="G154" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I154" s="2" t="s">
@@ -8426,10 +8441,10 @@
         <v>2.0</v>
       </c>
       <c r="F155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>32</v>
@@ -8450,10 +8465,10 @@
         <v>6.0</v>
       </c>
       <c r="F156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>32</v>
@@ -8470,10 +8485,10 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="4"/>
-      <c r="F157" s="6" t="s">
+      <c r="F157" s="5"/>
+      <c r="G157" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G157" s="5"/>
       <c r="H157" s="7" t="s">
         <v>211</v>
       </c>
@@ -8501,7 +8516,7 @@
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
-      <c r="F158" s="2" t="s">
+      <c r="G158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H158" s="7" t="s">
@@ -8520,10 +8535,10 @@
         <v>2.0</v>
       </c>
       <c r="F159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>32</v>
@@ -8546,7 +8561,7 @@
       <c r="E160" s="2">
         <v>2.0</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="G160" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H160" s="7" t="s">
@@ -8562,7 +8577,7 @@
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
-      <c r="F161" s="2" t="s">
+      <c r="G161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H161" s="7" t="s">
@@ -8573,7 +8588,7 @@
       <c r="A162" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="G162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H162" s="7" t="s">
@@ -8594,7 +8609,7 @@
       <c r="E163" s="2">
         <v>3.0</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="G163" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H163" s="10"/>
@@ -8606,7 +8621,7 @@
       <c r="A164" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="G164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H164" s="7" t="s">
@@ -8624,7 +8639,7 @@
       <c r="E165" s="2">
         <v>7.0</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="G165" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I165" s="2" t="s">
@@ -8642,7 +8657,7 @@
       <c r="E166" s="2">
         <v>2.0</v>
       </c>
-      <c r="F166" s="2" t="s">
+      <c r="G166" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H166" s="7" t="s">
@@ -8663,7 +8678,7 @@
       <c r="E167" s="2">
         <v>2.0</v>
       </c>
-      <c r="F167" s="2" t="s">
+      <c r="G167" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H167" s="7" t="s">
@@ -8677,7 +8692,7 @@
       <c r="A168" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="G168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H168" s="7" t="s">
@@ -8720,8 +8735,8 @@
       <c r="E170" s="2">
         <v>4.0</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>14</v>
+      <c r="G170" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>32</v>
@@ -8734,7 +8749,7 @@
       <c r="A171" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="G171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H171" s="7" t="s">
@@ -8753,7 +8768,7 @@
       <c r="E172" s="2">
         <v>7.0</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="G172" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H172" s="7" t="s">
@@ -8776,7 +8791,7 @@
       <c r="E173" s="2">
         <v>2.0</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="G173" s="2" t="s">
         <v>173</v>
       </c>
       <c r="H173" s="7" t="s">
@@ -8790,7 +8805,7 @@
       <c r="A174" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="G174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H174" s="7" t="s">
@@ -8809,7 +8824,7 @@
       <c r="E175" s="2">
         <v>2.0</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="G175" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H175" s="7" t="s">
@@ -8823,7 +8838,7 @@
       <c r="A176" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="F176" s="2" t="s">
+      <c r="G176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H176" s="7" t="s">
@@ -8842,10 +8857,10 @@
         <v>7.0</v>
       </c>
       <c r="F177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H177" s="7" t="s">
         <v>32</v>
@@ -8858,7 +8873,7 @@
       <c r="A178" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="G178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H178" s="7" t="s">
@@ -8877,7 +8892,7 @@
       <c r="E179" s="2">
         <v>2.0</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="G179" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H179" s="7"/>
@@ -8898,7 +8913,7 @@
       <c r="E180" s="2">
         <v>7.0</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="G180" s="2" t="s">
         <v>173</v>
       </c>
       <c r="I180" s="2" t="s">
@@ -8917,10 +8932,10 @@
         <v>4.0</v>
       </c>
       <c r="F181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H181" s="7" t="s">
         <v>63</v>
@@ -8943,10 +8958,10 @@
         <v>7.0</v>
       </c>
       <c r="F182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H182" s="7"/>
       <c r="I182" s="2" t="s">
@@ -8965,10 +8980,10 @@
         <v>2.0</v>
       </c>
       <c r="F183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H183" s="10"/>
       <c r="I183" s="2" t="s">
@@ -8986,7 +9001,7 @@
       <c r="E184" s="2">
         <v>6.0</v>
       </c>
-      <c r="F184" s="2" t="s">
+      <c r="G184" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H184" s="7" t="s">
@@ -9009,7 +9024,7 @@
       <c r="E185" s="2">
         <v>2.0</v>
       </c>
-      <c r="F185" s="2" t="s">
+      <c r="G185" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H185" s="7"/>
@@ -9028,7 +9043,7 @@
       <c r="E186" s="2">
         <v>4.0</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="G186" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H186" s="10"/>
@@ -9049,8 +9064,8 @@
       <c r="E187" s="2">
         <v>2.0</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>14</v>
+      <c r="G187" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H187" s="7" t="s">
         <v>63</v>
@@ -9073,10 +9088,10 @@
         <v>366</v>
       </c>
       <c r="F188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H188" s="7" t="s">
         <v>160</v>
@@ -9096,7 +9111,7 @@
       <c r="E189" s="2">
         <v>4.0</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="G189" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I189" s="2" t="s">
@@ -9107,7 +9122,7 @@
       <c r="A190" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="G190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H190" s="7" t="s">
@@ -9126,7 +9141,7 @@
       <c r="E191" s="2">
         <v>2.0</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="G191" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H191" s="7" t="s">
@@ -9195,7 +9210,7 @@
       <c r="E194" s="2">
         <v>2.0</v>
       </c>
-      <c r="F194" s="2" t="s">
+      <c r="G194" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H194" s="7" t="s">
@@ -9217,10 +9232,10 @@
         <v>115</v>
       </c>
       <c r="F195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H195" s="7" t="s">
         <v>32</v>
@@ -9233,7 +9248,7 @@
       <c r="A196" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="F196" s="2" t="s">
+      <c r="G196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H196" s="7" t="s">
@@ -9252,7 +9267,7 @@
       <c r="E197" s="2">
         <v>2.0</v>
       </c>
-      <c r="F197" s="2" t="s">
+      <c r="G197" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H197" s="7" t="s">
@@ -9274,10 +9289,10 @@
         <v>115</v>
       </c>
       <c r="F198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H198" s="7"/>
       <c r="I198" s="2" t="s">
@@ -9288,7 +9303,7 @@
       <c r="A199" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="G199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H199" s="7" t="s">
@@ -9308,10 +9323,10 @@
         <v>115</v>
       </c>
       <c r="F200" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H200" s="7" t="s">
         <v>32</v>
@@ -9332,10 +9347,10 @@
         <v>6.0</v>
       </c>
       <c r="F201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H201" s="7" t="s">
         <v>123</v>
@@ -9348,7 +9363,7 @@
       <c r="A202" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="F202" s="2" t="s">
+      <c r="G202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H202" s="7" t="s">
@@ -9360,7 +9375,7 @@
       <c r="A203" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="F203" s="2" t="s">
+      <c r="G203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H203" s="7" t="s">
@@ -9376,10 +9391,10 @@
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="4"/>
-      <c r="F204" s="6" t="s">
+      <c r="F204" s="5"/>
+      <c r="G204" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G204" s="5"/>
       <c r="H204" s="7" t="s">
         <v>97</v>
       </c>
@@ -9438,8 +9453,8 @@
       <c r="E206" s="2">
         <v>6.0</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>14</v>
+      <c r="G206" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H206" s="7" t="s">
         <v>32</v>
@@ -9454,7 +9469,7 @@
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
-      <c r="F207" s="2" t="s">
+      <c r="G207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H207" s="7" t="s">
@@ -9465,7 +9480,7 @@
       <c r="A208" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="F208" s="2" t="s">
+      <c r="G208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H208" s="7" t="s">
@@ -9485,10 +9500,10 @@
         <v>6.0</v>
       </c>
       <c r="F209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>32</v>
@@ -9501,7 +9516,7 @@
       <c r="A210" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F210" s="2" t="s">
+      <c r="G210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H210" s="17" t="s">
@@ -9518,7 +9533,7 @@
       <c r="E211" s="2">
         <v>2.0</v>
       </c>
-      <c r="F211" s="2" t="s">
+      <c r="G211" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H211" s="7" t="s">
@@ -9539,8 +9554,8 @@
       <c r="E212" s="2">
         <v>6.0</v>
       </c>
-      <c r="F212" s="2" t="s">
-        <v>14</v>
+      <c r="G212" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>32</v>
@@ -9553,7 +9568,7 @@
       <c r="A213" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F213" s="2" t="s">
+      <c r="G213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H213" s="7" t="s">
@@ -9572,10 +9587,10 @@
         <v>4.0</v>
       </c>
       <c r="F214" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H214" s="7" t="s">
         <v>414</v>
@@ -9595,7 +9610,7 @@
       <c r="E215" s="2">
         <v>6.0</v>
       </c>
-      <c r="F215" s="2" t="s">
+      <c r="G215" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H215" s="7" t="s">
@@ -9609,7 +9624,7 @@
       <c r="A216" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="F216" s="2" t="s">
+      <c r="G216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H216" s="7" t="s">
@@ -9621,7 +9636,7 @@
       <c r="A217" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="F217" s="2" t="s">
+      <c r="G217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H217" s="7" t="s">
@@ -9641,10 +9656,10 @@
         <v>6.0</v>
       </c>
       <c r="F218" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H218" s="7" t="s">
         <v>32</v>
@@ -9664,7 +9679,7 @@
       <c r="E219" s="2">
         <v>2.0</v>
       </c>
-      <c r="F219" s="2" t="s">
+      <c r="G219" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H219" s="7" t="s">
@@ -9686,10 +9701,10 @@
         <v>115</v>
       </c>
       <c r="F220" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H220" s="7" t="s">
         <v>32</v>
@@ -9703,7 +9718,7 @@
         <v>426</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="F221" s="2" t="s">
+      <c r="G221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H221" s="7" t="s">
@@ -9722,10 +9737,10 @@
         <v>7.0</v>
       </c>
       <c r="F222" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H222" s="7" t="s">
         <v>123</v>
@@ -9748,10 +9763,10 @@
         <v>2.0</v>
       </c>
       <c r="F223" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H223" s="7" t="s">
         <v>270</v>
@@ -9772,10 +9787,10 @@
         <v>6.0</v>
       </c>
       <c r="F224" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H224" s="7" t="s">
         <v>32</v>
@@ -9795,7 +9810,7 @@
       <c r="E225" s="2">
         <v>7.0</v>
       </c>
-      <c r="F225" s="2" t="s">
+      <c r="G225" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H225" s="7" t="s">
@@ -9816,7 +9831,7 @@
       <c r="E226" s="2">
         <v>2.0</v>
       </c>
-      <c r="F226" s="2" t="s">
+      <c r="G226" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H226" s="7" t="s">
@@ -9837,7 +9852,7 @@
       <c r="E227" s="2">
         <v>2.0</v>
       </c>
-      <c r="F227" s="2" t="s">
+      <c r="G227" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H227" s="7" t="s">
@@ -9851,7 +9866,7 @@
       <c r="A228" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="F228" s="2" t="s">
+      <c r="G228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H228" s="7" t="s">
@@ -9913,7 +9928,7 @@
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
-      <c r="F231" s="2" t="s">
+      <c r="G231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H231" s="7" t="s">
@@ -9924,7 +9939,7 @@
       <c r="A232" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="F232" s="2" t="s">
+      <c r="G232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H232" s="7" t="s">
@@ -9936,7 +9951,7 @@
       <c r="A233" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="F233" s="2" t="s">
+      <c r="G233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H233" s="7" t="s">
@@ -9948,7 +9963,7 @@
       <c r="A234" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F234" s="2" t="s">
+      <c r="G234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H234" s="7" t="s">
@@ -9960,7 +9975,7 @@
       <c r="A235" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="F235" s="2" t="s">
+      <c r="G235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H235" s="7" t="s">
@@ -9979,7 +9994,7 @@
       <c r="E236" s="2">
         <v>2.0</v>
       </c>
-      <c r="F236" s="2" t="s">
+      <c r="G236" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H236" s="7"/>
@@ -9997,7 +10012,7 @@
       <c r="E237" s="2">
         <v>2.0</v>
       </c>
-      <c r="F237" s="2" t="s">
+      <c r="G237" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H237" s="7" t="s">
@@ -10011,7 +10026,7 @@
       <c r="A238" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="F238" s="2" t="s">
+      <c r="G238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H238" s="7" t="s">
@@ -10023,7 +10038,7 @@
       <c r="A239" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="F239" s="2" t="s">
+      <c r="G239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H239" s="7" t="s">
@@ -10045,10 +10060,10 @@
         <v>10.0</v>
       </c>
       <c r="F240" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H240" s="7" t="s">
         <v>460</v>
@@ -10061,7 +10076,7 @@
       <c r="A241" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F241" s="2" t="s">
+      <c r="G241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H241" s="7" t="s">
@@ -10073,7 +10088,7 @@
       <c r="A242" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="F242" s="2" t="s">
+      <c r="G242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H242" s="7" t="s">
@@ -10084,7 +10099,7 @@
       <c r="A243" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="F243" s="2" t="s">
+      <c r="G243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H243" s="7" t="s">
@@ -10097,7 +10112,7 @@
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
-      <c r="F244" s="2" t="s">
+      <c r="G244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H244" s="7" t="s">
@@ -10117,7 +10132,7 @@
       <c r="E245" s="2">
         <v>7.0</v>
       </c>
-      <c r="F245" s="2" t="s">
+      <c r="G245" s="2" t="s">
         <v>173</v>
       </c>
       <c r="H245" s="7" t="s">
@@ -10139,10 +10154,10 @@
         <v>2.0</v>
       </c>
       <c r="F246" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H246" s="7"/>
       <c r="I246" s="2" t="s">
@@ -10161,10 +10176,10 @@
         <v>2.0</v>
       </c>
       <c r="F247" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H247" s="10"/>
       <c r="I247" s="2" t="s">
@@ -10182,7 +10197,7 @@
       <c r="E248" s="2">
         <v>2.0</v>
       </c>
-      <c r="F248" s="2" t="s">
+      <c r="G248" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H248" s="10"/>
@@ -10220,7 +10235,7 @@
       <c r="A250" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="F250" s="2" t="s">
+      <c r="G250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H250" s="7" t="s">
@@ -10239,7 +10254,7 @@
       <c r="E251" s="2">
         <v>2.0</v>
       </c>
-      <c r="F251" s="2" t="s">
+      <c r="G251" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H251" s="7" t="s">
@@ -10253,7 +10268,7 @@
       <c r="A252" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="F252" s="2" t="s">
+      <c r="G252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H252" s="7" t="s">
@@ -10264,7 +10279,7 @@
       <c r="A253" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="F253" s="2" t="s">
+      <c r="G253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H253" s="7" t="s">
@@ -10284,10 +10299,10 @@
         <v>2.0</v>
       </c>
       <c r="F254" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H254" s="7" t="s">
         <v>32</v>
@@ -10307,7 +10322,7 @@
       <c r="E255" s="2">
         <v>2.0</v>
       </c>
-      <c r="F255" s="2" t="s">
+      <c r="G255" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H255" s="7" t="s">
@@ -10321,7 +10336,7 @@
       <c r="A256" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="F256" s="2" t="s">
+      <c r="G256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H256" s="7" t="s">
@@ -10343,10 +10358,10 @@
         <v>7.0</v>
       </c>
       <c r="F257" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H257" s="7" t="s">
         <v>32</v>
@@ -10366,7 +10381,7 @@
       <c r="E258" s="2">
         <v>2.0</v>
       </c>
-      <c r="F258" s="2" t="s">
+      <c r="G258" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H258" s="7" t="s">
@@ -10380,7 +10395,7 @@
       <c r="A259" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="F259" s="2" t="s">
+      <c r="G259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H259" s="7" t="s">
@@ -10392,7 +10407,7 @@
       <c r="A260" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="F260" s="2" t="s">
+      <c r="G260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H260" s="7" t="s">
@@ -10412,10 +10427,10 @@
         <v>4.0</v>
       </c>
       <c r="F261" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H261" s="7" t="s">
         <v>32</v>
@@ -10438,10 +10453,10 @@
         <v>2.0</v>
       </c>
       <c r="F262" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H262" s="7" t="s">
         <v>32</v>
@@ -10463,7 +10478,7 @@
       <c r="E263" s="2">
         <v>4.0</v>
       </c>
-      <c r="F263" s="2" t="s">
+      <c r="G263" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H263" s="7"/>
@@ -10483,10 +10498,10 @@
         <v>4.0</v>
       </c>
       <c r="F264" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H264" s="10"/>
       <c r="I264" s="2" t="s">
@@ -10505,10 +10520,10 @@
         <v>4.0</v>
       </c>
       <c r="F265" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H265" s="10"/>
       <c r="I265" s="2" t="s">
@@ -10527,10 +10542,10 @@
         <v>4.0</v>
       </c>
       <c r="F266" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G266" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H266" s="10"/>
       <c r="I266" s="2" t="s">
@@ -10549,10 +10564,10 @@
         <v>4.0</v>
       </c>
       <c r="F267" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H267" s="7" t="s">
         <v>500</v>
@@ -10573,10 +10588,10 @@
         <v>2.0</v>
       </c>
       <c r="F268" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G268" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H268" s="7"/>
       <c r="I268" s="2" t="s">
@@ -10595,10 +10610,10 @@
         <v>4.0</v>
       </c>
       <c r="F269" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G269" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G269" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H269" s="7"/>
       <c r="I269" s="2" t="s">
@@ -10617,10 +10632,10 @@
         <v>6.0</v>
       </c>
       <c r="F270" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H270" s="10"/>
       <c r="I270" s="2" t="s">
@@ -10639,10 +10654,10 @@
         <v>2.0</v>
       </c>
       <c r="F271" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H271" s="7" t="s">
         <v>32</v>
@@ -10663,10 +10678,10 @@
         <v>4.0</v>
       </c>
       <c r="F272" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G272" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H272" s="7"/>
       <c r="I272" s="2" t="s">
@@ -10685,10 +10700,10 @@
         <v>115</v>
       </c>
       <c r="F273" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G273" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H273" s="10"/>
       <c r="I273" s="2" t="s">
@@ -10707,10 +10722,10 @@
         <v>4.0</v>
       </c>
       <c r="F274" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H274" s="10"/>
       <c r="I274" s="2" t="s">
@@ -10725,10 +10740,10 @@
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="4"/>
-      <c r="F275" s="6" t="s">
+      <c r="F275" s="5"/>
+      <c r="G275" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G275" s="5"/>
       <c r="H275" s="7" t="s">
         <v>97</v>
       </c>
@@ -10788,10 +10803,10 @@
         <v>4.0</v>
       </c>
       <c r="F277" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G277" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H277" s="7"/>
       <c r="I277" s="2" t="s">
@@ -10809,7 +10824,7 @@
       <c r="E278" s="2">
         <v>2.0</v>
       </c>
-      <c r="F278" s="2" t="s">
+      <c r="G278" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H278" s="7" t="s">
@@ -10830,7 +10845,7 @@
       <c r="E279" s="2">
         <v>2.0</v>
       </c>
-      <c r="F279" s="2" t="s">
+      <c r="G279" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H279" s="7" t="s">
@@ -10851,8 +10866,8 @@
       <c r="E280" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F280" s="2" t="s">
-        <v>14</v>
+      <c r="G280" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H280" s="7"/>
       <c r="I280" s="2" t="s">
@@ -10870,7 +10885,7 @@
       <c r="E281" s="2">
         <v>2.0</v>
       </c>
-      <c r="F281" s="2" t="s">
+      <c r="G281" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I281" s="2" t="s">
@@ -10888,10 +10903,10 @@
         <v>4.0</v>
       </c>
       <c r="F282" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G282" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="I282" s="2" t="s">
         <v>58</v>
@@ -10911,10 +10926,10 @@
         <v>4.0</v>
       </c>
       <c r="F283" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G283" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H283" s="10"/>
       <c r="I283" s="2" t="s">
@@ -10927,7 +10942,7 @@
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
-      <c r="F284" s="2" t="s">
+      <c r="G284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H284" s="7" t="s">
@@ -10948,10 +10963,10 @@
         <v>6.0</v>
       </c>
       <c r="F285" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G285" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H285" s="7" t="s">
         <v>32</v>
@@ -10964,7 +10979,7 @@
       <c r="A286" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="F286" s="2" t="s">
+      <c r="G286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H286" s="7" t="s">
@@ -10980,10 +10995,10 @@
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="4"/>
-      <c r="F287" s="6" t="s">
+      <c r="F287" s="5"/>
+      <c r="G287" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G287" s="5"/>
       <c r="H287" s="7" t="s">
         <v>18</v>
       </c>
@@ -11035,7 +11050,7 @@
       <c r="A289" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="F289" s="2" t="s">
+      <c r="G289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H289" s="7" t="s">
@@ -11053,8 +11068,8 @@
       <c r="E290" s="2">
         <v>2.0</v>
       </c>
-      <c r="F290" s="2" t="s">
-        <v>14</v>
+      <c r="G290" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H290" s="7" t="s">
         <v>32</v>
@@ -11074,7 +11089,7 @@
       <c r="E291" s="2">
         <v>4.0</v>
       </c>
-      <c r="F291" s="2" t="s">
+      <c r="G291" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H291" s="10"/>
@@ -11115,7 +11130,7 @@
       <c r="E293" s="2">
         <v>2.0</v>
       </c>
-      <c r="F293" s="2" t="s">
+      <c r="G293" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H293" s="7" t="s">
@@ -11157,7 +11172,7 @@
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
-      <c r="F295" s="2" t="s">
+      <c r="G295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H295" s="7" t="s">
@@ -11169,7 +11184,7 @@
         <v>544</v>
       </c>
       <c r="D296" s="2"/>
-      <c r="F296" s="2" t="s">
+      <c r="G296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H296" s="7" t="s">
@@ -11188,10 +11203,10 @@
         <v>6.0</v>
       </c>
       <c r="F297" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G297" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G297" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H297" s="7" t="s">
         <v>97</v>
@@ -11213,7 +11228,7 @@
       <c r="E298" s="2">
         <v>2.0</v>
       </c>
-      <c r="F298" s="2" t="s">
+      <c r="G298" s="2" t="s">
         <v>173</v>
       </c>
       <c r="H298" s="7" t="s">
@@ -11253,7 +11268,7 @@
       <c r="A300" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="F300" s="2" t="s">
+      <c r="G300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H300" s="7" t="s">
@@ -11265,7 +11280,7 @@
       <c r="A301" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="F301" s="2" t="s">
+      <c r="G301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H301" s="7" t="s">
@@ -11285,10 +11300,10 @@
         <v>6.0</v>
       </c>
       <c r="F302" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G302" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H302" s="7" t="s">
         <v>102</v>
@@ -11301,7 +11316,7 @@
       <c r="A303" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="F303" s="2" t="s">
+      <c r="G303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H303" s="7" t="s">
@@ -11317,10 +11332,10 @@
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="4"/>
-      <c r="F304" s="6" t="s">
+      <c r="F304" s="4"/>
+      <c r="G304" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G304" s="4"/>
       <c r="H304" s="7" t="s">
         <v>63</v>
       </c>
@@ -11353,7 +11368,7 @@
       <c r="E305" s="2">
         <v>9.0</v>
       </c>
-      <c r="F305" s="2" t="s">
+      <c r="G305" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H305" s="7" t="s">
@@ -11369,7 +11384,7 @@
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
-      <c r="F306" s="2" t="s">
+      <c r="G306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H306" s="7" t="s">
@@ -11380,7 +11395,7 @@
       <c r="A307" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="F307" s="2" t="s">
+      <c r="G307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H307" s="7" t="s">
@@ -11400,10 +11415,10 @@
         <v>4.0</v>
       </c>
       <c r="F308" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G308" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="I308" s="2" t="s">
         <v>562</v>
@@ -11420,7 +11435,7 @@
       <c r="E309" s="2">
         <v>2.0</v>
       </c>
-      <c r="F309" s="2" t="s">
+      <c r="G309" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H309" s="7" t="s">
@@ -11434,7 +11449,7 @@
       <c r="A310" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="F310" s="2" t="s">
+      <c r="G310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H310" s="7" t="s">
@@ -11453,7 +11468,7 @@
       <c r="E311" s="2">
         <v>7.0</v>
       </c>
-      <c r="F311" s="2" t="s">
+      <c r="G311" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H311" s="7" t="s">
@@ -11477,10 +11492,10 @@
         <v>2.0</v>
       </c>
       <c r="F312" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G312" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H312" s="7" t="s">
         <v>32</v>
@@ -11493,7 +11508,7 @@
       <c r="A313" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="F313" s="2" t="s">
+      <c r="G313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H313" s="7" t="s">
@@ -11512,7 +11527,7 @@
       <c r="E314" s="2">
         <v>6.0</v>
       </c>
-      <c r="F314" s="2" t="s">
+      <c r="G314" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H314" s="7" t="s">
@@ -11526,7 +11541,7 @@
       <c r="A315" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="F315" s="2" t="s">
+      <c r="G315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H315" s="7" t="s">
@@ -11570,10 +11585,10 @@
         <v>6.0</v>
       </c>
       <c r="F317" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G317" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H317" s="7" t="s">
         <v>32</v>
@@ -11596,10 +11611,10 @@
         <v>2.0</v>
       </c>
       <c r="F318" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G318" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G318" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H318" s="7" t="s">
         <v>32</v>
@@ -11621,8 +11636,8 @@
       <c r="E319" s="2">
         <v>2.0</v>
       </c>
-      <c r="F319" s="2" t="s">
-        <v>14</v>
+      <c r="G319" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H319" s="7" t="s">
         <v>584</v>
@@ -11636,7 +11651,7 @@
         <v>586</v>
       </c>
       <c r="D320" s="2"/>
-      <c r="F320" s="2" t="s">
+      <c r="G320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H320" s="7" t="s">
@@ -11655,10 +11670,10 @@
         <v>7.0</v>
       </c>
       <c r="F321" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G321" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G321" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H321" s="7" t="s">
         <v>63</v>
@@ -11678,7 +11693,7 @@
       <c r="E322" s="2">
         <v>2.0</v>
       </c>
-      <c r="F322" s="2" t="s">
+      <c r="G322" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H322" s="7" t="s">
@@ -11692,7 +11707,7 @@
       <c r="A323" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="F323" s="2" t="s">
+      <c r="G323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H323" s="7" t="s">
@@ -11706,7 +11721,7 @@
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
-      <c r="F324" s="2" t="s">
+      <c r="G324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H324" s="7" t="s">
@@ -11725,8 +11740,8 @@
       <c r="E325" s="2">
         <v>6.0</v>
       </c>
-      <c r="F325" s="2" t="s">
-        <v>14</v>
+      <c r="G325" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H325" s="7" t="s">
         <v>97</v>
@@ -11749,10 +11764,10 @@
         <v>6.0</v>
       </c>
       <c r="F326" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G326" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H326" s="7" t="s">
         <v>32</v>
@@ -11773,10 +11788,10 @@
         <v>6.0</v>
       </c>
       <c r="F327" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G327" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G327" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H327" s="7" t="s">
         <v>32</v>
@@ -11815,7 +11830,7 @@
       <c r="A329" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="F329" s="2" t="s">
+      <c r="G329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H329" s="14" t="s">
@@ -11829,7 +11844,7 @@
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
-      <c r="F330" s="2" t="s">
+      <c r="G330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H330" s="7" t="s">
@@ -11844,10 +11859,10 @@
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="4"/>
-      <c r="F331" s="6" t="s">
+      <c r="F331" s="5"/>
+      <c r="G331" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G331" s="5"/>
       <c r="H331" s="7" t="s">
         <v>602</v>
       </c>
@@ -11899,7 +11914,7 @@
       <c r="A333" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="F333" s="2" t="s">
+      <c r="G333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H333" s="7" t="s">
@@ -11919,10 +11934,10 @@
         <v>1.0</v>
       </c>
       <c r="F334" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H334" s="9"/>
       <c r="I334" s="2" t="s">
@@ -11935,7 +11950,7 @@
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
-      <c r="F335" s="2" t="s">
+      <c r="G335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H335" s="7" t="s">
@@ -11950,10 +11965,10 @@
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="4"/>
-      <c r="F336" s="6" t="s">
+      <c r="F336" s="5"/>
+      <c r="G336" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G336" s="5"/>
       <c r="H336" s="7" t="s">
         <v>97</v>
       </c>
@@ -11987,10 +12002,10 @@
         <v>6.0</v>
       </c>
       <c r="F337" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G337" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H337" s="7" t="s">
         <v>97</v>
@@ -12003,7 +12018,7 @@
       <c r="A338" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="F338" s="2" t="s">
+      <c r="G338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H338" s="7" t="s">
@@ -12015,7 +12030,7 @@
       <c r="A339" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="F339" s="2" t="s">
+      <c r="G339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H339" s="7" t="s">
@@ -12027,7 +12042,7 @@
       <c r="A340" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="F340" s="2" t="s">
+      <c r="G340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H340" s="7" t="s">
@@ -12039,7 +12054,7 @@
       <c r="A341" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="F341" s="2" t="s">
+      <c r="G341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H341" s="7" t="s">
@@ -12051,7 +12066,7 @@
       <c r="A342" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="F342" s="2" t="s">
+      <c r="G342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H342" s="7" t="s">
@@ -12063,7 +12078,7 @@
       <c r="A343" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="F343" s="2" t="s">
+      <c r="G343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H343" s="7" t="s">
@@ -12100,7 +12115,7 @@
       <c r="A345" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="F345" s="2" t="s">
+      <c r="G345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H345" s="7" t="s">
@@ -12122,10 +12137,10 @@
         <v>4.0</v>
       </c>
       <c r="F346" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G346" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G346" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H346" s="7"/>
       <c r="I346" s="2" t="s">
@@ -12143,7 +12158,7 @@
       <c r="E347" s="2">
         <v>2.0</v>
       </c>
-      <c r="F347" s="2" t="s">
+      <c r="G347" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H347" s="7" t="s">
@@ -12164,8 +12179,8 @@
       <c r="E348" s="2">
         <v>4.0</v>
       </c>
-      <c r="F348" s="2" t="s">
-        <v>14</v>
+      <c r="G348" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>325</v>
@@ -12182,7 +12197,7 @@
       <c r="E349" s="2">
         <v>4.0</v>
       </c>
-      <c r="F349" s="2" t="s">
+      <c r="G349" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H349" s="7" t="s">
@@ -12203,7 +12218,7 @@
       <c r="E350" s="2">
         <v>4.0</v>
       </c>
-      <c r="F350" s="2" t="s">
+      <c r="G350" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H350" s="7" t="s">
@@ -12224,7 +12239,7 @@
       <c r="E351" s="2">
         <v>4.0</v>
       </c>
-      <c r="F351" s="2" t="s">
+      <c r="G351" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H351" s="7" t="s">
@@ -12245,7 +12260,7 @@
       <c r="E352" s="2">
         <v>4.0</v>
       </c>
-      <c r="F352" s="2" t="s">
+      <c r="G352" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H352" s="7" t="s">
@@ -12266,7 +12281,7 @@
       <c r="E353" s="2">
         <v>4.0</v>
       </c>
-      <c r="F353" s="2" t="s">
+      <c r="G353" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H353" s="7" t="s">
@@ -12287,7 +12302,7 @@
       <c r="E354" s="2">
         <v>4.0</v>
       </c>
-      <c r="F354" s="2" t="s">
+      <c r="G354" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H354" s="7" t="s">
@@ -12309,10 +12324,10 @@
       <c r="E355" s="18">
         <v>4.0</v>
       </c>
-      <c r="F355" s="5" t="s">
+      <c r="F355" s="4"/>
+      <c r="G355" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G355" s="4"/>
       <c r="H355" s="6" t="s">
         <v>270</v>
       </c>
@@ -12347,8 +12362,8 @@
       <c r="E356" s="2">
         <v>4.0</v>
       </c>
-      <c r="F356" s="2" t="s">
-        <v>14</v>
+      <c r="G356" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H356" s="7" t="s">
         <v>270</v>
@@ -12368,7 +12383,7 @@
       <c r="E357" s="2">
         <v>4.0</v>
       </c>
-      <c r="F357" s="2" t="s">
+      <c r="G357" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H357" s="7" t="s">
@@ -12389,7 +12404,7 @@
       <c r="E358" s="2">
         <v>4.0</v>
       </c>
-      <c r="F358" s="2" t="s">
+      <c r="G358" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H358" s="7" t="s">
@@ -12410,7 +12425,7 @@
       <c r="E359" s="2">
         <v>4.0</v>
       </c>
-      <c r="F359" s="2" t="s">
+      <c r="G359" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H359" s="10"/>
@@ -12429,7 +12444,7 @@
       <c r="E360" s="2">
         <v>4.0</v>
       </c>
-      <c r="F360" s="2" t="s">
+      <c r="G360" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H360" s="7"/>
@@ -12472,8 +12487,8 @@
       <c r="E362" s="2">
         <v>7.0</v>
       </c>
-      <c r="F362" s="2" t="s">
-        <v>14</v>
+      <c r="G362" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H362" s="7" t="s">
         <v>97</v>
@@ -12486,7 +12501,7 @@
       <c r="A363" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="F363" s="2" t="s">
+      <c r="G363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H363" s="7" t="s">
@@ -12502,10 +12517,10 @@
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="4"/>
-      <c r="F364" s="6" t="s">
+      <c r="F364" s="4"/>
+      <c r="G364" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G364" s="4"/>
       <c r="H364" s="7" t="s">
         <v>32</v>
       </c>
@@ -12538,8 +12553,8 @@
       <c r="E365" s="2">
         <v>6.0</v>
       </c>
-      <c r="F365" s="2" t="s">
-        <v>14</v>
+      <c r="G365" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H365" s="7" t="s">
         <v>123</v>
@@ -12560,10 +12575,10 @@
         <v>6.0</v>
       </c>
       <c r="F366" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G366" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G366" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H366" s="7" t="s">
         <v>32</v>
@@ -12584,10 +12599,10 @@
         <v>7.0</v>
       </c>
       <c r="F367" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G367" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G367" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H367" s="7" t="s">
         <v>123</v>
@@ -12600,7 +12615,7 @@
       <c r="A368" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="F368" s="2" t="s">
+      <c r="G368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H368" s="7" t="s">
@@ -12618,7 +12633,7 @@
       <c r="E369" s="2">
         <v>6.0</v>
       </c>
-      <c r="F369" s="2" t="s">
+      <c r="G369" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H369" s="7" t="s">
@@ -12639,7 +12654,7 @@
       <c r="E370" s="2">
         <v>6.0</v>
       </c>
-      <c r="F370" s="2" t="s">
+      <c r="G370" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H370" s="7" t="s">
@@ -12655,7 +12670,7 @@
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
-      <c r="F371" s="2" t="s">
+      <c r="G371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H371" s="7" t="s">
@@ -12690,7 +12705,7 @@
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
-      <c r="F373" s="2" t="s">
+      <c r="G373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H373" s="2" t="s">
@@ -12704,7 +12719,7 @@
       <c r="A374" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="F374" s="2" t="s">
+      <c r="G374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H374" s="7" t="s">
@@ -12717,7 +12732,7 @@
         <v>659</v>
       </c>
       <c r="D375" s="2"/>
-      <c r="F375" s="2" t="s">
+      <c r="G375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H375" s="7" t="s">
@@ -12735,8 +12750,8 @@
       <c r="E376" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F376" s="2" t="s">
-        <v>14</v>
+      <c r="G376" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H376" s="7" t="s">
         <v>32</v>
@@ -12756,7 +12771,7 @@
       <c r="E377" s="2">
         <v>2.0</v>
       </c>
-      <c r="F377" s="2" t="s">
+      <c r="G377" s="2" t="s">
         <v>182</v>
       </c>
       <c r="H377" s="7" t="s">
@@ -12777,7 +12792,7 @@
       <c r="E378" s="2">
         <v>4.0</v>
       </c>
-      <c r="F378" s="2" t="s">
+      <c r="G378" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H378" s="7"/>
@@ -12797,10 +12812,10 @@
         <v>2.0</v>
       </c>
       <c r="F379" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G379" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G379" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H379" s="7" t="s">
         <v>32</v>
@@ -12820,7 +12835,7 @@
       <c r="E380" s="2">
         <v>2.0</v>
       </c>
-      <c r="F380" s="2" t="s">
+      <c r="G380" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H380" s="7" t="s">
@@ -12836,7 +12851,7 @@
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
-      <c r="F381" s="2" t="s">
+      <c r="G381" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H381" s="7" t="s">
@@ -12855,10 +12870,10 @@
         <v>4.0</v>
       </c>
       <c r="F382" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G382" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G382" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H382" s="7"/>
       <c r="I382" s="2" t="s">
@@ -12876,7 +12891,7 @@
       <c r="E383" s="2">
         <v>6.0</v>
       </c>
-      <c r="F383" s="2" t="s">
+      <c r="G383" s="2" t="s">
         <v>173</v>
       </c>
       <c r="H383" s="7" t="s">
@@ -12890,7 +12905,7 @@
       <c r="A384" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="F384" s="2" t="s">
+      <c r="G384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H384" s="7" t="s">
@@ -12902,7 +12917,7 @@
       <c r="A385" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="F385" s="2" t="s">
+      <c r="G385" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H385" s="7" t="s">
@@ -12921,7 +12936,7 @@
       <c r="E386" s="2">
         <v>6.0</v>
       </c>
-      <c r="F386" s="2" t="s">
+      <c r="G386" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H386" s="7" t="s">
@@ -12939,10 +12954,10 @@
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="4"/>
-      <c r="F387" s="6" t="s">
+      <c r="F387" s="4"/>
+      <c r="G387" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G387" s="4"/>
       <c r="H387" s="7" t="s">
         <v>60</v>
       </c>
@@ -12975,7 +12990,7 @@
       <c r="E388" s="2">
         <v>2.0</v>
       </c>
-      <c r="F388" s="2" t="s">
+      <c r="G388" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H388" s="7" t="s">
@@ -12996,7 +13011,7 @@
       <c r="E389" s="2">
         <v>2.0</v>
       </c>
-      <c r="F389" s="2" t="s">
+      <c r="G389" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H389" s="7" t="s">
@@ -13010,7 +13025,7 @@
       <c r="A390" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="F390" s="2" t="s">
+      <c r="G390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H390" s="7" t="s">
@@ -13022,7 +13037,7 @@
       <c r="A391" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="F391" s="2" t="s">
+      <c r="G391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H391" s="7" t="s">
@@ -13034,7 +13049,7 @@
       <c r="A392" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="F392" s="2" t="s">
+      <c r="G392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H392" s="7" t="s">
@@ -13056,10 +13071,10 @@
         <v>115</v>
       </c>
       <c r="F393" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G393" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H393" s="7"/>
       <c r="I393" s="2" t="s">
@@ -13077,7 +13092,7 @@
       <c r="E394" s="2">
         <v>2.0</v>
       </c>
-      <c r="F394" s="2" t="s">
+      <c r="G394" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H394" s="7" t="s">
@@ -13093,7 +13108,7 @@
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
-      <c r="F395" s="2" t="s">
+      <c r="G395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H395" s="7" t="s">
@@ -13114,10 +13129,10 @@
         <v>2.0</v>
       </c>
       <c r="F396" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G396" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G396" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H396" s="7" t="s">
         <v>32</v>
@@ -13132,7 +13147,7 @@
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
-      <c r="F397" s="2" t="s">
+      <c r="G397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H397" s="7" t="s">
@@ -13151,10 +13166,10 @@
         <v>6.0</v>
       </c>
       <c r="F398" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G398" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H398" s="7" t="s">
         <v>32</v>
@@ -13167,7 +13182,7 @@
       <c r="A399" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="F399" s="2" t="s">
+      <c r="G399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H399" s="7" t="s">
@@ -13181,7 +13196,7 @@
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
-      <c r="F400" s="2" t="s">
+      <c r="G400" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H400" s="7" t="s">
@@ -13194,7 +13209,7 @@
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
-      <c r="F401" s="2" t="s">
+      <c r="G401" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H401" s="7" t="s">
@@ -13207,7 +13222,7 @@
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
-      <c r="F402" s="2" t="s">
+      <c r="G402" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H402" s="7" t="s">
@@ -13225,7 +13240,7 @@
       <c r="E403" s="2">
         <v>6.0</v>
       </c>
-      <c r="F403" s="2" t="s">
+      <c r="G403" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H403" s="7" t="s">
@@ -13240,7 +13255,7 @@
         <v>703</v>
       </c>
       <c r="D404" s="2"/>
-      <c r="F404" s="2" t="s">
+      <c r="G404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H404" s="7" t="s">
@@ -13252,7 +13267,7 @@
         <v>704</v>
       </c>
       <c r="D405" s="2"/>
-      <c r="F405" s="2" t="s">
+      <c r="G405" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H405" s="7" t="s">
@@ -13270,7 +13285,7 @@
       <c r="E406" s="2">
         <v>2.0</v>
       </c>
-      <c r="F406" s="2" t="s">
+      <c r="G406" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H406" s="7" t="s">
@@ -13284,7 +13299,7 @@
       <c r="A407" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="F407" s="2" t="s">
+      <c r="G407" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H407" s="7" t="s">
@@ -13305,7 +13320,7 @@
       <c r="E408" s="2">
         <v>6.0</v>
       </c>
-      <c r="F408" s="2" t="s">
+      <c r="G408" s="2" t="s">
         <v>173</v>
       </c>
       <c r="H408" s="7" t="s">
@@ -13326,8 +13341,8 @@
       <c r="E409" s="2">
         <v>2.0</v>
       </c>
-      <c r="F409" s="2" t="s">
-        <v>14</v>
+      <c r="G409" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H409" s="7" t="s">
         <v>32</v>
@@ -13340,7 +13355,7 @@
       <c r="A410" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="F410" s="2" t="s">
+      <c r="G410" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H410" s="7" t="s">
@@ -13359,7 +13374,7 @@
       <c r="E411" s="2">
         <v>2.0</v>
       </c>
-      <c r="F411" s="2" t="s">
+      <c r="G411" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H411" s="7"/>
@@ -13379,10 +13394,10 @@
         <v>6.0</v>
       </c>
       <c r="F412" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G412" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G412" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H412" s="7" t="s">
         <v>32</v>
@@ -13395,7 +13410,7 @@
       <c r="A413" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="F413" s="2" t="s">
+      <c r="G413" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H413" s="7" t="s">
@@ -13407,7 +13422,7 @@
       <c r="A414" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="F414" s="2" t="s">
+      <c r="G414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H414" s="7" t="s">
@@ -13418,7 +13433,7 @@
       <c r="A415" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="F415" s="2" t="s">
+      <c r="G415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H415" s="7" t="s">
@@ -13430,7 +13445,7 @@
       <c r="A416" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="F416" s="2" t="s">
+      <c r="G416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H416" s="7" t="s">
@@ -13441,7 +13456,7 @@
       <c r="A417" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="F417" s="2" t="s">
+      <c r="G417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H417" s="7" t="s">
@@ -13452,7 +13467,7 @@
       <c r="A418" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="F418" s="2" t="s">
+      <c r="G418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H418" s="7" t="s">
@@ -13464,7 +13479,7 @@
       <c r="A419" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="F419" s="2" t="s">
+      <c r="G419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H419" s="7" t="s">
@@ -13475,7 +13490,7 @@
       <c r="A420" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="F420" s="2" t="s">
+      <c r="G420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H420" s="7" t="s">
@@ -13496,7 +13511,7 @@
       <c r="E421" s="2">
         <v>6.0</v>
       </c>
-      <c r="F421" s="2" t="s">
+      <c r="G421" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H421" s="7" t="s">
@@ -13510,7 +13525,7 @@
       <c r="A422" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="F422" s="2" t="s">
+      <c r="G422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H422" s="7" t="s">
@@ -13522,7 +13537,7 @@
       <c r="A423" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="F423" s="2" t="s">
+      <c r="G423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H423" s="7" t="s">
@@ -13534,7 +13549,7 @@
       <c r="A424" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="F424" s="2" t="s">
+      <c r="G424" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H424" s="7" t="s">
@@ -13546,7 +13561,7 @@
       <c r="A425" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="F425" s="2" t="s">
+      <c r="G425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H425" s="7" t="s">
@@ -13566,10 +13581,10 @@
         <v>732</v>
       </c>
       <c r="F426" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G426" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G426" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="I426" s="2" t="s">
         <v>16</v>
@@ -13587,10 +13602,10 @@
         <v>3.0</v>
       </c>
       <c r="F427" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G427" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G427" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="I427" s="2" t="s">
         <v>734</v>
@@ -13604,10 +13619,10 @@
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="4"/>
-      <c r="F428" s="6" t="s">
+      <c r="F428" s="5"/>
+      <c r="G428" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G428" s="5"/>
       <c r="H428" s="7" t="s">
         <v>18</v>
       </c>
@@ -13659,7 +13674,7 @@
       <c r="A430" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="F430" s="2" t="s">
+      <c r="G430" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H430" s="7" t="s">
@@ -13671,7 +13686,7 @@
       <c r="A431" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="F431" s="2" t="s">
+      <c r="G431" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H431" s="7" t="s">
@@ -13683,7 +13698,7 @@
       <c r="A432" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="F432" s="2" t="s">
+      <c r="G432" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H432" s="7" t="s">
@@ -13695,7 +13710,7 @@
       <c r="A433" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="F433" s="2" t="s">
+      <c r="G433" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H433" s="7" t="s">
@@ -13707,7 +13722,7 @@
       <c r="A434" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="F434" s="2" t="s">
+      <c r="G434" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H434" s="7" t="s">
@@ -13721,7 +13736,7 @@
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
-      <c r="F435" s="2" t="s">
+      <c r="G435" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H435" s="2" t="s">
@@ -13739,7 +13754,7 @@
       <c r="E436" s="2">
         <v>2.0</v>
       </c>
-      <c r="F436" s="2" t="s">
+      <c r="G436" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H436" s="7" t="s">
@@ -13753,7 +13768,7 @@
       <c r="A437" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="F437" s="2" t="s">
+      <c r="G437" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H437" s="7" t="s">
@@ -13775,10 +13790,10 @@
         <v>2.0</v>
       </c>
       <c r="F438" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G438" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G438" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H438" s="7"/>
       <c r="I438" s="2" t="s">
@@ -13789,7 +13804,7 @@
       <c r="A439" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="F439" s="2" t="s">
+      <c r="G439" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H439" s="7" t="s">

--- a/meta/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/Foundation Model Leaderboard Systems.xlsx
@@ -3434,7 +3434,7 @@
     <t>ip:Sortable Table+Scatter Plot+Bar Chart,hf:Sortable Table+Scatter Plot+Bar Chart</t>
   </si>
   <si>
-    <t>4,5</t>
+    <t>7,8</t>
   </si>
   <si>
     <t>University of California Berkeley,University of California San Diego,Carnegie Mellon University,Stanford University,Mohamed bin Zayed University of AI</t>
@@ -3467,7 +3467,7 @@
     <t>ip:Sortable Table+Regular Table</t>
   </si>
   <si>
-    <t>7,4,5</t>
+    <t>1,7,8</t>
   </si>
   <si>
     <t>Shanghai AI Laboratory,University of Hong Kong,Peking University</t>
@@ -3897,7 +3897,7 @@
     <t>OpenEval (text)</t>
   </si>
   <si>
-    <t>6,4</t>
+    <t>3,7</t>
   </si>
   <si>
     <t>Tianjin University,Zhengzhou University,China Academy of Information and Communications Technology,China Software Test Center,University of Macau,Macau University of Science and Technology,Chinese University of Hong Kong,Shanghai Jiao Tong University</t>
@@ -4543,7 +4543,7 @@
     <t>WildBench</t>
   </si>
   <si>
-    <t>2,3</t>
+    <t>4,6</t>
   </si>
   <si>
     <t>WildVision Arena Leaderboard</t>
@@ -5707,7 +5707,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>36</v>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>40</v>
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>44</v>
@@ -5901,7 +5901,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>44</v>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>36</v>
@@ -5969,7 +5969,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>40</v>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
@@ -6073,7 +6073,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -6155,7 +6155,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>14</v>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>21</v>
@@ -6320,7 +6320,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
@@ -6346,7 +6346,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>14</v>
@@ -6381,7 +6381,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>40</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>14</v>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>14</v>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>21</v>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>21</v>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>21</v>
@@ -6797,7 +6797,7 @@
         <v>13</v>
       </c>
       <c r="E64" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>40</v>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>15</v>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>14</v>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>15</v>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>15</v>
@@ -7062,7 +7062,7 @@
         <v>145</v>
       </c>
       <c r="E80" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
@@ -7135,7 +7135,7 @@
         <v>13</v>
       </c>
       <c r="E84" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>14</v>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>182</v>
@@ -7206,7 +7206,7 @@
         <v>13</v>
       </c>
       <c r="E88" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>14</v>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>21</v>
@@ -7251,7 +7251,7 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>14</v>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="6" t="s">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>14</v>
@@ -7363,7 +7363,7 @@
         <v>13</v>
       </c>
       <c r="E95" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>14</v>
@@ -7389,7 +7389,7 @@
         <v>13</v>
       </c>
       <c r="E96" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>40</v>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>21</v>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>14</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>14</v>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>14</v>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>14</v>
@@ -7670,7 +7670,7 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>14</v>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>21</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>21</v>
@@ -7748,7 +7748,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>14</v>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>15</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>40</v>
@@ -7895,7 +7895,7 @@
         <v>13</v>
       </c>
       <c r="E123" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>40</v>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>14</v>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>21</v>
@@ -7987,7 +7987,7 @@
         <v>13</v>
       </c>
       <c r="E128" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>14</v>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>21</v>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>14</v>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>40</v>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>14</v>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>14</v>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>21</v>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>21</v>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>14</v>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>14</v>
@@ -8261,7 +8261,7 @@
         <v>104</v>
       </c>
       <c r="E142" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>14</v>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>14</v>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>14</v>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>14</v>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>173</v>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
@@ -8489,7 +8489,7 @@
         <v>13</v>
       </c>
       <c r="E154" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>40</v>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>14</v>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>14</v>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>14</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>21</v>
@@ -8676,7 +8676,7 @@
         <v>13</v>
       </c>
       <c r="E163" s="2">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>40</v>
@@ -8706,7 +8706,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>36</v>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>21</v>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>21</v>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>14</v>
@@ -8802,7 +8802,7 @@
         <v>324</v>
       </c>
       <c r="E170" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>15</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>21</v>
@@ -8858,7 +8858,7 @@
         <v>332</v>
       </c>
       <c r="E173" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>173</v>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>36</v>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>14</v>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>36</v>
@@ -8980,7 +8980,7 @@
         <v>13</v>
       </c>
       <c r="E180" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>173</v>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>14</v>
@@ -9024,7 +9024,7 @@
         <v>13</v>
       </c>
       <c r="E182" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>14</v>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>14</v>
@@ -9068,7 +9068,7 @@
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>36</v>
@@ -9091,7 +9091,7 @@
         <v>324</v>
       </c>
       <c r="E185" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>40</v>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>21</v>
@@ -9131,7 +9131,7 @@
         <v>362</v>
       </c>
       <c r="E187" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>15</v>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>44</v>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>21</v>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>14</v>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>21</v>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>21</v>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>14</v>
@@ -9496,7 +9496,7 @@
         <v>13</v>
       </c>
       <c r="E205" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>14</v>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>15</v>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>14</v>
@@ -9600,7 +9600,7 @@
         <v>20</v>
       </c>
       <c r="E211" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>21</v>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>15</v>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>14</v>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>36</v>
@@ -9722,7 +9722,7 @@
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>14</v>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>21</v>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>14</v>
@@ -9829,7 +9829,7 @@
         <v>13</v>
       </c>
       <c r="E223" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>14</v>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>14</v>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>21</v>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>21</v>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>21</v>
@@ -9954,7 +9954,7 @@
         <v>13</v>
       </c>
       <c r="E229" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>14</v>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>14</v>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>40</v>
@@ -10079,7 +10079,7 @@
         <v>20</v>
       </c>
       <c r="E237" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>21</v>
@@ -10126,7 +10126,7 @@
         <v>324</v>
       </c>
       <c r="E240" s="2">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>14</v>
@@ -10199,7 +10199,7 @@
         <v>13</v>
       </c>
       <c r="E245" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>173</v>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>14</v>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>14</v>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>40</v>
@@ -10285,7 +10285,7 @@
         <v>13</v>
       </c>
       <c r="E249" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>14</v>
@@ -10321,7 +10321,7 @@
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>40</v>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>14</v>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>21</v>
@@ -10424,7 +10424,7 @@
         <v>13</v>
       </c>
       <c r="E257" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>14</v>
@@ -10448,7 +10448,7 @@
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>21</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>14</v>
@@ -10519,7 +10519,7 @@
         <v>492</v>
       </c>
       <c r="E262" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>14</v>
@@ -10545,7 +10545,7 @@
         <v>13</v>
       </c>
       <c r="E263" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>40</v>
@@ -10564,7 +10564,7 @@
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>14</v>
@@ -10586,7 +10586,7 @@
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>14</v>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>14</v>
@@ -10630,7 +10630,7 @@
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>14</v>
@@ -10654,7 +10654,7 @@
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>14</v>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>14</v>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>14</v>
@@ -10720,7 +10720,7 @@
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>14</v>
@@ -10744,7 +10744,7 @@
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>14</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>14</v>
@@ -10845,7 +10845,7 @@
         <v>13</v>
       </c>
       <c r="E276" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>14</v>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>14</v>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>21</v>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>21</v>
@@ -10952,7 +10952,7 @@
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>21</v>
@@ -10969,7 +10969,7 @@
         <v>39</v>
       </c>
       <c r="E282" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>14</v>
@@ -10992,7 +10992,7 @@
         <v>324</v>
       </c>
       <c r="E283" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>14</v>
@@ -11029,7 +11029,7 @@
         <v>332</v>
       </c>
       <c r="E285" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>14</v>
@@ -11100,7 +11100,7 @@
         <v>13</v>
       </c>
       <c r="E288" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>14</v>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>40</v>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>14</v>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>21</v>
@@ -11220,7 +11220,7 @@
         <v>13</v>
       </c>
       <c r="E294" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>14</v>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>14</v>
@@ -11295,7 +11295,7 @@
         <v>13</v>
       </c>
       <c r="E298" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>173</v>
@@ -11318,7 +11318,7 @@
         <v>13</v>
       </c>
       <c r="E299" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>14</v>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>14</v>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>40</v>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>14</v>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>21</v>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>21</v>
@@ -11558,7 +11558,7 @@
         <v>569</v>
       </c>
       <c r="E312" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>14</v>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>21</v>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>14</v>
@@ -11651,7 +11651,7 @@
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>14</v>
@@ -11677,7 +11677,7 @@
         <v>332</v>
       </c>
       <c r="E318" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>14</v>
@@ -11703,7 +11703,7 @@
         <v>13</v>
       </c>
       <c r="E319" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -11736,7 +11736,7 @@
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>14</v>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>21</v>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -11830,7 +11830,7 @@
         <v>324</v>
       </c>
       <c r="E326" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>14</v>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>14</v>
@@ -11880,7 +11880,7 @@
         <v>13</v>
       </c>
       <c r="E328" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>14</v>
@@ -11964,7 +11964,7 @@
         <v>13</v>
       </c>
       <c r="E332" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>14</v>
@@ -12000,7 +12000,7 @@
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>14</v>
@@ -12068,7 +12068,7 @@
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>14</v>
@@ -12165,7 +12165,7 @@
         <v>13</v>
       </c>
       <c r="E344" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>14</v>
@@ -12203,7 +12203,7 @@
         <v>13</v>
       </c>
       <c r="E346" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>14</v>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G347" s="2" t="s">
         <v>21</v>
@@ -12246,7 +12246,7 @@
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G348" s="2" t="s">
         <v>15</v>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G349" s="2" t="s">
         <v>36</v>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G350" s="2" t="s">
         <v>36</v>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G351" s="2" t="s">
         <v>36</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G352" s="2" t="s">
         <v>36</v>
@@ -12348,7 +12348,7 @@
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G353" s="2" t="s">
         <v>36</v>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>36</v>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="18">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F355" s="4"/>
       <c r="G355" s="5" t="s">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G356" s="2" t="s">
         <v>15</v>
@@ -12450,7 +12450,7 @@
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G357" s="2" t="s">
         <v>36</v>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G358" s="2" t="s">
         <v>36</v>
@@ -12492,7 +12492,7 @@
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G359" s="2" t="s">
         <v>21</v>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G360" s="2" t="s">
         <v>21</v>
@@ -12530,7 +12530,7 @@
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>14</v>
@@ -12554,7 +12554,7 @@
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G362" s="2" t="s">
         <v>15</v>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G365" s="2" t="s">
         <v>15</v>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>14</v>
@@ -12665,7 +12665,7 @@
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>14</v>
@@ -12700,7 +12700,7 @@
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G369" s="2" t="s">
         <v>21</v>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G370" s="2" t="s">
         <v>21</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>14</v>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G377" s="2" t="s">
         <v>182</v>
@@ -12859,7 +12859,7 @@
       </c>
       <c r="D378" s="2"/>
       <c r="E378" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G378" s="2" t="s">
         <v>44</v>
@@ -12878,7 +12878,7 @@
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>14</v>
@@ -12902,7 +12902,7 @@
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G380" s="2" t="s">
         <v>21</v>
@@ -12936,7 +12936,7 @@
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>14</v>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G383" s="2" t="s">
         <v>173</v>
@@ -13003,7 +13003,7 @@
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G386" s="2" t="s">
         <v>21</v>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G388" s="2" t="s">
         <v>21</v>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G389" s="2" t="s">
         <v>21</v>
@@ -13159,7 +13159,7 @@
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>21</v>
@@ -13195,7 +13195,7 @@
         <v>692</v>
       </c>
       <c r="E396" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>14</v>
@@ -13232,7 +13232,7 @@
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>14</v>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G403" s="2" t="s">
         <v>40</v>
@@ -13352,7 +13352,7 @@
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G406" s="2" t="s">
         <v>21</v>
@@ -13387,7 +13387,7 @@
         <v>709</v>
       </c>
       <c r="E408" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>173</v>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="D409" s="2"/>
       <c r="E409" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G409" s="2" t="s">
         <v>15</v>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="D411" s="2"/>
       <c r="E411" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G411" s="2" t="s">
         <v>40</v>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>14</v>
@@ -13578,7 +13578,7 @@
         <v>709</v>
       </c>
       <c r="E421" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G421" s="2" t="s">
         <v>40</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>14</v>
@@ -13724,7 +13724,7 @@
         <v>13</v>
       </c>
       <c r="E429" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>14</v>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="D436" s="2"/>
       <c r="E436" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>21</v>
@@ -13856,7 +13856,7 @@
         <v>13</v>
       </c>
       <c r="E438" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>14</v>
@@ -13892,7 +13892,7 @@
         <v>13</v>
       </c>
       <c r="E440" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>14</v>
